--- a/MisTablas.xlsx
+++ b/MisTablas.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/todomundomx/Desktop/MiGithub/ProyectoCertificacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC1C2A08-7B96-EF4C-A67F-0DDB3C22B559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A2C353-AD9A-894A-9BE5-EBA7F66500F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24540" yWindow="9000" windowWidth="26480" windowHeight="18120" activeTab="2" xr2:uid="{5A3A1A73-B642-6D44-B565-802F0378ADD6}"/>
+    <workbookView xWindow="1980" yWindow="2160" windowWidth="26480" windowHeight="18120" activeTab="3" xr2:uid="{5A3A1A73-B642-6D44-B565-802F0378ADD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="240">
   <si>
     <t>ISET</t>
   </si>
@@ -442,6 +443,321 @@
   </si>
   <si>
     <t>CUAUTEPEC</t>
+  </si>
+  <si>
+    <t>Materia</t>
+  </si>
+  <si>
+    <t>P[Certificar]</t>
+  </si>
+  <si>
+    <t>APLICACIONES DE ENERGIA NUCLEAR</t>
+  </si>
+  <si>
+    <t>BIOPOLITICA Y AUTOINMUNIDAD</t>
+  </si>
+  <si>
+    <t>CAD EN MATEMATICAS</t>
+  </si>
+  <si>
+    <t>CENTRALES GEOTERMICAS</t>
+  </si>
+  <si>
+    <t>CENTRALES HIDROELECTRICAS</t>
+  </si>
+  <si>
+    <t>COMUNIDADES RESILIENTES Y MEDIO AMBIENTE</t>
+  </si>
+  <si>
+    <t>CRISIS MIGRACION Y FRONTERAS (MEXICO-ESTADOS UNIDOS)</t>
+  </si>
+  <si>
+    <t>CULTURAS POPULARES</t>
+  </si>
+  <si>
+    <t>DESARROLLO URBANO INTENSIVO: DISPUTAS POR LA CIUDAD</t>
+  </si>
+  <si>
+    <t>DESPOSESION Y EXPLOTACION EN EL MUNDO CONTEMPORANEO</t>
+  </si>
+  <si>
+    <t>DIDACTICA DE LA EDUCACION AMBIENTAL</t>
+  </si>
+  <si>
+    <t>DISCUSION FILOSOFICA</t>
+  </si>
+  <si>
+    <t>EL CONOCIMIENTO CIENTIFICO DE DA COSTA</t>
+  </si>
+  <si>
+    <t>EL CONOCIMIENTO COMO CONSTRUCCION EN CARNAP</t>
+  </si>
+  <si>
+    <t>EL GNOSTICISMO</t>
+  </si>
+  <si>
+    <t>ELEMENTOS TEORICOS Y METODOLOGICOS DE LA HISTORIA DE LAS IDEAS</t>
+  </si>
+  <si>
+    <t>ETNOALIMENTACION</t>
+  </si>
+  <si>
+    <t>EVALUACION DE POLITICAS PUBLICAS</t>
+  </si>
+  <si>
+    <t>FILOSOFIA Y LITERATURA. ENSAYAR LA REALIDAD</t>
+  </si>
+  <si>
+    <t>FUNDAMENTOS DE ANTROPOLOGIA MOLECULAR Y GENETICA FORENSE</t>
+  </si>
+  <si>
+    <t>GENERO Y POLITICA EN AMERICA LATINA</t>
+  </si>
+  <si>
+    <t>GESTION TRATAMIENTO Y RECUPERACION DE RESIDUOS SOLIDOS</t>
+  </si>
+  <si>
+    <t>INTRODUCCION A LA CREACION LITERARIA III</t>
+  </si>
+  <si>
+    <t>INTRODUCCION A LA INGENIERIA EN SISTEMAS DE TRANSPORTE URBANO</t>
+  </si>
+  <si>
+    <t>INTRODUCCION A LA POESIA OCCIDENTAL SIGLOS XIX Y XX</t>
+  </si>
+  <si>
+    <t>LA CIUDAD DE MEXICO ANTE EL CAMBIO CLIMATICO</t>
+  </si>
+  <si>
+    <t>LA ESCLAVITUD</t>
+  </si>
+  <si>
+    <t>LA TEORIA DEL DON</t>
+  </si>
+  <si>
+    <t>LITERATURA CONTEMPORANEA DEL ESTE DE EUROPA</t>
+  </si>
+  <si>
+    <t>LOGICA DEONTICA</t>
+  </si>
+  <si>
+    <t>LOGICA E INCERTIDUMBRE</t>
+  </si>
+  <si>
+    <t>LOS PUEBLOS ORIGINARIOS DE LA CIUDAD DE MEXICO</t>
+  </si>
+  <si>
+    <t>MICHAEL SANDEL</t>
+  </si>
+  <si>
+    <t>MODELACION DE SISTEMAS FISICOAMBIENTALES II</t>
+  </si>
+  <si>
+    <t>NUEVA RURALIDAD Y POLITICA AGROPECUARIA EN MEXICO</t>
+  </si>
+  <si>
+    <t>PARADIGMA AMBIENTAL Y DESARROLLO SUSTENTABLE</t>
+  </si>
+  <si>
+    <t>PERSPECTIVA DE GENERO Y SUSTENTABILIDAD SOCIAL</t>
+  </si>
+  <si>
+    <t>POESIA II (CURSO TEORICO PRACTICO DE POESIA II)</t>
+  </si>
+  <si>
+    <t>PROBLEMAS DE LOGICA</t>
+  </si>
+  <si>
+    <t>PROBLEMAS INVERSOS II</t>
+  </si>
+  <si>
+    <t>RECUPERACION Y PROMOCION DE AREAS VERDES</t>
+  </si>
+  <si>
+    <t>RELIGION Y MUNDO MODERNO EN LA TEORIA SOCIOLOGICA DE MAX WEBER</t>
+  </si>
+  <si>
+    <t>RUDOLF CARNAP</t>
+  </si>
+  <si>
+    <t>SATELITES DE ORBITAS BAJAS E INTERMEDIAS</t>
+  </si>
+  <si>
+    <t>SEMINARIO DE ANALISIS POLITICO: DISEnO DE TESIS</t>
+  </si>
+  <si>
+    <t>SEMINARIO DE TEXTOS FILOSOFICOS I</t>
+  </si>
+  <si>
+    <t>SEMINARIO MONOGRAFICO III</t>
+  </si>
+  <si>
+    <t>SOCIEDAD CIVIL Y CAMBIO CLIMATICO</t>
+  </si>
+  <si>
+    <t>TALLER DE DIBUJO Y PINTURA</t>
+  </si>
+  <si>
+    <t>ARGUMENTACION JURIDICA LOS PRINCIPIOS JURIDICOS EN EL RAZONAMIENTO LEGAL</t>
+  </si>
+  <si>
+    <t>MECANICA I</t>
+  </si>
+  <si>
+    <t>CALCULO DIFERENCIAL</t>
+  </si>
+  <si>
+    <t>CALCULO DIFERENCIAL INTEGRAL</t>
+  </si>
+  <si>
+    <t>ESTUDIOS SOCIALES E HISTORICOS II</t>
+  </si>
+  <si>
+    <t>ESTADISTICA Y PROBABILIDAD</t>
+  </si>
+  <si>
+    <t>ALGEBRA Y GEOMETRIA ANALITICA</t>
+  </si>
+  <si>
+    <t>DISPOSITIVOS ELECTRONICOS I</t>
+  </si>
+  <si>
+    <t>FARMACOLOGIA</t>
+  </si>
+  <si>
+    <t>TEORIA POLITICA II</t>
+  </si>
+  <si>
+    <t>LENGUAJE Y PENSAMIENTO II</t>
+  </si>
+  <si>
+    <t>MECANICA II</t>
+  </si>
+  <si>
+    <t>QUIMICA DE LA CELULA</t>
+  </si>
+  <si>
+    <t>ALGEBRA LINEAL</t>
+  </si>
+  <si>
+    <t>CALCULO INTEGRAL</t>
+  </si>
+  <si>
+    <t>CULTURA CIENTIFICA Y HUMANISTICA II</t>
+  </si>
+  <si>
+    <t>ENFOQUES CRITICOS EN COMUNICACION</t>
+  </si>
+  <si>
+    <t>INGLES II</t>
+  </si>
+  <si>
+    <t>TEORIA POLITICA I</t>
+  </si>
+  <si>
+    <t>CRITICA A LA ILUSTRACION</t>
+  </si>
+  <si>
+    <t>CULTURA CIENTIFICA Y HUMANISTICA I</t>
+  </si>
+  <si>
+    <t>PLANEACION CON PARTICIPACION EN LA CIUDAD DE MEXICO</t>
+  </si>
+  <si>
+    <t>CELULA II</t>
+  </si>
+  <si>
+    <t>CULTURA CIENTIFICA Y HUMANISTICA III</t>
+  </si>
+  <si>
+    <t>DECISION POLITICA Y POLITICAS PUBLICAS</t>
+  </si>
+  <si>
+    <t>INTRODUCCION A LA PROGRAMACION</t>
+  </si>
+  <si>
+    <t>LA INVESTIGACION DE LA PRODUCCION LOS DISCURSOS</t>
+  </si>
+  <si>
+    <t>Y LA RECEPCION DE LOS MEDIOS DE COMUNICACION</t>
+  </si>
+  <si>
+    <t>LENGUAJE Y PENSAMIENTO III</t>
+  </si>
+  <si>
+    <t>TEORIA DE LOS CIRCUITOS</t>
+  </si>
+  <si>
+    <t>ANALISIS POLITICO CON METODOS CUANTITATIVOS</t>
+  </si>
+  <si>
+    <t>BIOESTADISTICA</t>
+  </si>
+  <si>
+    <t>BIOETICA Y VALORES</t>
+  </si>
+  <si>
+    <t>CELULA I</t>
+  </si>
+  <si>
+    <t>CUERPO HUMANO I</t>
+  </si>
+  <si>
+    <t>CUERPO HUMANO II</t>
+  </si>
+  <si>
+    <t>ECUACIONES DIFERENCIALES ORDINARIAS</t>
+  </si>
+  <si>
+    <t>ESTUDIOS SOCIALES E HISTORICOS I</t>
+  </si>
+  <si>
+    <t>HISTORIA DE MEXICO DEL SIGLO XIX</t>
+  </si>
+  <si>
+    <t>INGLES III</t>
+  </si>
+  <si>
+    <t>INTRODUCCION A LA FILOSOFIA</t>
+  </si>
+  <si>
+    <t>LECTURA DE TEXTOS EN INGLES I</t>
+  </si>
+  <si>
+    <t>LECTURA DE TEXTOS EN INGLES II</t>
+  </si>
+  <si>
+    <t>LEGISLACION DEL PATRIMONIO CULTURAL Y ARTISTICO</t>
+  </si>
+  <si>
+    <t>POLITICAS Y PLANES DE SALUD</t>
+  </si>
+  <si>
+    <t>PSICOLOGIA SOCIAL I</t>
+  </si>
+  <si>
+    <t>QUIMICA GENERAL</t>
+  </si>
+  <si>
+    <t>TEORIA DE LA ORGANIZACION EN EL CONTEXTO GLOBAL</t>
+  </si>
+  <si>
+    <t>TEORIA POLITICA III</t>
+  </si>
+  <si>
+    <t>ANTROPOLOGIA DE LA CULTURA Y EL ARTE</t>
+  </si>
+  <si>
+    <t>CALCULO VECTORIAL</t>
+  </si>
+  <si>
+    <t>COMUNICACION GRAFICA Y DISEnO EDITORIAL</t>
+  </si>
+  <si>
+    <t>ELECTRONICA DIGITAL I</t>
+  </si>
+  <si>
+    <t>Número Intentos</t>
   </si>
 </sst>
 </file>
@@ -451,9 +767,9 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -506,6 +822,12 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Cambria"/>
       <family val="1"/>
@@ -1030,7 +1352,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1205,341 +1527,344 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="34" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="6" fillId="0" borderId="35" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3385,79 +3710,79 @@
         <v>21</v>
       </c>
       <c r="U2" s="60"/>
-      <c r="V2" s="107" t="s">
+      <c r="V2" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="107" t="s">
+      <c r="W2" s="71" t="s">
         <v>22</v>
       </c>
       <c r="X2" s="58" t="s">
         <v>24</v>
       </c>
       <c r="Y2" s="60"/>
-      <c r="Z2" s="71" t="s">
+      <c r="Z2" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="72"/>
-      <c r="AC2" s="92" t="s">
+      <c r="AA2" s="137"/>
+      <c r="AC2" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="AD2" s="93"/>
-      <c r="AE2" s="94" t="s">
+      <c r="AD2" s="133"/>
+      <c r="AE2" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="92" t="s">
+      <c r="AF2" s="135"/>
+      <c r="AG2" s="132" t="s">
         <v>57</v>
       </c>
-      <c r="AH2" s="93"/>
-      <c r="AI2" s="92" t="s">
+      <c r="AH2" s="133"/>
+      <c r="AI2" s="132" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2" s="93"/>
+      <c r="AJ2" s="133"/>
       <c r="AK2" s="39" t="s">
         <v>49</v>
       </c>
       <c r="AL2" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="AN2" s="112" t="s">
+      <c r="AN2" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="AO2" s="117" t="s">
+      <c r="AO2" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="AP2" s="117" t="s">
+      <c r="AP2" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="AQ2" s="117" t="s">
+      <c r="AQ2" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="AR2" s="117" t="s">
+      <c r="AR2" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="AS2" s="117" t="s">
+      <c r="AS2" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="AT2" s="117" t="s">
+      <c r="AT2" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="AV2" s="120" t="s">
+      <c r="AV2" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="AW2" s="121" t="s">
+      <c r="AW2" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="AX2" s="120" t="s">
+      <c r="AX2" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="AY2" s="122" t="s">
+      <c r="AY2" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="AZ2" s="117" t="s">
+      <c r="AZ2" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="BA2" s="117" t="s">
+      <c r="BA2" s="79" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3501,90 +3826,90 @@
       <c r="O3" s="44">
         <v>3.55</v>
       </c>
-      <c r="Q3" s="106" t="s">
+      <c r="Q3" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="74">
+      <c r="R3" s="122">
         <v>29.4</v>
       </c>
-      <c r="S3" s="75"/>
-      <c r="T3" s="74">
+      <c r="S3" s="123"/>
+      <c r="T3" s="122">
         <v>23.98</v>
       </c>
-      <c r="U3" s="75"/>
+      <c r="U3" s="123"/>
       <c r="V3" s="35">
         <v>0.13</v>
       </c>
       <c r="W3" s="35">
         <v>1.9</v>
       </c>
-      <c r="X3" s="74">
+      <c r="X3" s="122">
         <v>44.57</v>
       </c>
-      <c r="Y3" s="75"/>
-      <c r="Z3" s="78">
+      <c r="Y3" s="123"/>
+      <c r="Z3" s="124">
         <v>0.02</v>
       </c>
-      <c r="AA3" s="79"/>
-      <c r="AC3" s="97" t="s">
+      <c r="AA3" s="125"/>
+      <c r="AC3" s="128" t="s">
         <v>15</v>
       </c>
-      <c r="AD3" s="98"/>
-      <c r="AE3" s="97">
+      <c r="AD3" s="129"/>
+      <c r="AE3" s="128">
         <v>16725</v>
       </c>
-      <c r="AF3" s="98"/>
-      <c r="AG3" s="99">
+      <c r="AF3" s="129"/>
+      <c r="AG3" s="130">
         <v>4711</v>
       </c>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="97">
+      <c r="AH3" s="131"/>
+      <c r="AI3" s="128">
         <v>21436</v>
       </c>
-      <c r="AJ3" s="98"/>
+      <c r="AJ3" s="129"/>
       <c r="AK3" s="35">
         <v>0.78</v>
       </c>
       <c r="AL3" s="35">
         <v>3.55</v>
       </c>
-      <c r="AN3" s="113" t="s">
+      <c r="AN3" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="AO3" s="118">
+      <c r="AO3" s="80">
         <v>6.25</v>
       </c>
-      <c r="AP3" s="118">
+      <c r="AP3" s="80">
         <v>24.61</v>
       </c>
-      <c r="AQ3" s="118">
+      <c r="AQ3" s="80">
         <v>0.13</v>
       </c>
-      <c r="AR3" s="118">
+      <c r="AR3" s="80">
         <v>19.170000000000002</v>
       </c>
-      <c r="AS3" s="118">
+      <c r="AS3" s="80">
         <v>49.81</v>
       </c>
-      <c r="AT3" s="118">
+      <c r="AT3" s="80">
         <v>0.04</v>
       </c>
-      <c r="AV3" s="114" t="s">
+      <c r="AV3" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="AW3" s="123">
+      <c r="AW3" s="85">
         <v>184212</v>
       </c>
-      <c r="AX3" s="124">
+      <c r="AX3" s="86">
         <v>66429</v>
       </c>
-      <c r="AY3" s="125">
+      <c r="AY3" s="87">
         <v>250641</v>
       </c>
-      <c r="AZ3" s="109">
+      <c r="AZ3" s="57">
         <v>0.73</v>
       </c>
-      <c r="BA3" s="109">
+      <c r="BA3" s="57">
         <v>2.77</v>
       </c>
     </row>
@@ -3631,87 +3956,87 @@
       <c r="Q4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="73">
+      <c r="R4" s="110">
         <v>3.99</v>
       </c>
-      <c r="S4" s="80"/>
-      <c r="T4" s="73">
+      <c r="S4" s="111"/>
+      <c r="T4" s="110">
         <v>23.28</v>
       </c>
-      <c r="U4" s="80"/>
+      <c r="U4" s="111"/>
       <c r="V4" s="35">
         <v>0.37</v>
       </c>
       <c r="W4" s="35">
         <v>14.9</v>
       </c>
-      <c r="X4" s="73">
+      <c r="X4" s="110">
         <v>57.41</v>
       </c>
-      <c r="Y4" s="80"/>
-      <c r="Z4" s="81">
+      <c r="Y4" s="111"/>
+      <c r="Z4" s="112">
         <v>0.05</v>
       </c>
-      <c r="AA4" s="82"/>
-      <c r="AC4" s="91" t="s">
+      <c r="AA4" s="113"/>
+      <c r="AC4" s="114" t="s">
         <v>53</v>
       </c>
-      <c r="AD4" s="101"/>
-      <c r="AE4" s="102">
+      <c r="AD4" s="115"/>
+      <c r="AE4" s="116">
         <v>2865</v>
       </c>
-      <c r="AF4" s="103"/>
-      <c r="AG4" s="102">
+      <c r="AF4" s="117"/>
+      <c r="AG4" s="116">
         <v>935</v>
       </c>
-      <c r="AH4" s="103"/>
-      <c r="AI4" s="102">
+      <c r="AH4" s="117"/>
+      <c r="AI4" s="116">
         <v>3800</v>
       </c>
-      <c r="AJ4" s="103"/>
+      <c r="AJ4" s="117"/>
       <c r="AK4" s="39">
         <v>0.75</v>
       </c>
       <c r="AL4" s="39">
         <v>3.06</v>
       </c>
-      <c r="AN4" s="114" t="s">
+      <c r="AN4" s="76" t="s">
         <v>51</v>
       </c>
-      <c r="AO4" s="118">
+      <c r="AO4" s="80">
         <v>33.44</v>
       </c>
-      <c r="AP4" s="118">
+      <c r="AP4" s="80">
         <v>18.46</v>
       </c>
-      <c r="AQ4" s="118">
+      <c r="AQ4" s="80">
         <v>1.1499999999999999</v>
       </c>
-      <c r="AR4" s="118">
+      <c r="AR4" s="80">
         <v>2.15</v>
       </c>
-      <c r="AS4" s="118">
+      <c r="AS4" s="80">
         <v>44.75</v>
       </c>
-      <c r="AT4" s="118">
+      <c r="AT4" s="80">
         <v>0.04</v>
       </c>
-      <c r="AV4" s="115" t="s">
+      <c r="AV4" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="AW4" s="123">
+      <c r="AW4" s="85">
         <v>16854</v>
       </c>
-      <c r="AX4" s="124">
+      <c r="AX4" s="86">
         <v>7111</v>
       </c>
-      <c r="AY4" s="125">
+      <c r="AY4" s="87">
         <v>23965</v>
       </c>
-      <c r="AZ4" s="130">
+      <c r="AZ4" s="92">
         <v>0.7</v>
       </c>
-      <c r="BA4" s="109">
+      <c r="BA4" s="57">
         <v>2.37</v>
       </c>
     </row>
@@ -3758,87 +4083,87 @@
       <c r="Q5" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="83">
+      <c r="R5" s="118">
         <v>1.86</v>
       </c>
-      <c r="S5" s="84"/>
-      <c r="T5" s="83">
+      <c r="S5" s="119"/>
+      <c r="T5" s="118">
         <v>10.82</v>
       </c>
-      <c r="U5" s="84"/>
+      <c r="U5" s="119"/>
       <c r="V5" s="41">
         <v>0.8</v>
       </c>
       <c r="W5" s="41">
         <v>24.7</v>
       </c>
-      <c r="X5" s="83">
+      <c r="X5" s="118">
         <v>61.46</v>
       </c>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="87">
+      <c r="Y5" s="119"/>
+      <c r="Z5" s="120">
         <v>0.37</v>
       </c>
-      <c r="AA5" s="88"/>
-      <c r="AC5" s="97" t="s">
+      <c r="AA5" s="121"/>
+      <c r="AC5" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="AD5" s="98"/>
-      <c r="AE5" s="97">
+      <c r="AD5" s="129"/>
+      <c r="AE5" s="128">
         <v>43184</v>
       </c>
-      <c r="AF5" s="98"/>
-      <c r="AG5" s="99">
+      <c r="AF5" s="129"/>
+      <c r="AG5" s="130">
         <v>16037</v>
       </c>
-      <c r="AH5" s="100"/>
-      <c r="AI5" s="97">
+      <c r="AH5" s="131"/>
+      <c r="AI5" s="128">
         <v>59221</v>
       </c>
-      <c r="AJ5" s="98"/>
+      <c r="AJ5" s="129"/>
       <c r="AK5" s="35">
         <v>0.73</v>
       </c>
       <c r="AL5" s="35">
         <v>2.69</v>
       </c>
-      <c r="AN5" s="114" t="s">
+      <c r="AN5" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="AO5" s="118">
+      <c r="AO5" s="80">
         <v>1.56</v>
       </c>
-      <c r="AP5" s="118">
+      <c r="AP5" s="80">
         <v>14.61</v>
       </c>
-      <c r="AQ5" s="118">
+      <c r="AQ5" s="80">
         <v>14.49</v>
       </c>
-      <c r="AR5" s="118">
+      <c r="AR5" s="80">
         <v>21.91</v>
       </c>
-      <c r="AS5" s="118">
+      <c r="AS5" s="80">
         <v>46.84</v>
       </c>
-      <c r="AT5" s="118">
+      <c r="AT5" s="80">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AV5" s="114" t="s">
+      <c r="AV5" s="76" t="s">
         <v>20</v>
       </c>
-      <c r="AW5" s="123">
+      <c r="AW5" s="85">
         <v>57100</v>
       </c>
-      <c r="AX5" s="124">
+      <c r="AX5" s="86">
         <v>29883</v>
       </c>
-      <c r="AY5" s="125">
+      <c r="AY5" s="87">
         <v>86983</v>
       </c>
-      <c r="AZ5" s="109">
+      <c r="AZ5" s="57">
         <v>0.66</v>
       </c>
-      <c r="BA5" s="109">
+      <c r="BA5" s="57">
         <v>1.91</v>
       </c>
     </row>
@@ -3882,90 +4207,90 @@
       <c r="O6" s="46">
         <v>2.52</v>
       </c>
-      <c r="Q6" s="106" t="s">
+      <c r="Q6" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="74">
+      <c r="R6" s="122">
         <v>6.25</v>
       </c>
-      <c r="S6" s="75"/>
-      <c r="T6" s="74">
+      <c r="S6" s="123"/>
+      <c r="T6" s="122">
         <v>24.61</v>
       </c>
-      <c r="U6" s="75"/>
+      <c r="U6" s="123"/>
       <c r="V6" s="35">
         <v>0.13</v>
       </c>
       <c r="W6" s="35">
         <v>19.170000000000002</v>
       </c>
-      <c r="X6" s="74">
+      <c r="X6" s="122">
         <v>49.81</v>
       </c>
-      <c r="Y6" s="75"/>
-      <c r="Z6" s="78">
+      <c r="Y6" s="123"/>
+      <c r="Z6" s="124">
         <v>0.04</v>
       </c>
-      <c r="AA6" s="79"/>
-      <c r="AC6" s="83" t="s">
+      <c r="AA6" s="125"/>
+      <c r="AC6" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="83">
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="118">
         <v>46718</v>
       </c>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="87">
+      <c r="AF6" s="119"/>
+      <c r="AG6" s="120">
         <v>18550</v>
       </c>
-      <c r="AH6" s="88"/>
-      <c r="AI6" s="83">
+      <c r="AH6" s="121"/>
+      <c r="AI6" s="118">
         <v>65268</v>
       </c>
-      <c r="AJ6" s="84"/>
+      <c r="AJ6" s="119"/>
       <c r="AK6" s="41">
         <v>0.72</v>
       </c>
       <c r="AL6" s="41">
         <v>2.52</v>
       </c>
-      <c r="AN6" s="114" t="s">
+      <c r="AN6" s="76" t="s">
         <v>53</v>
       </c>
-      <c r="AO6" s="118">
+      <c r="AO6" s="80">
         <v>0.16</v>
       </c>
-      <c r="AP6" s="118">
+      <c r="AP6" s="80">
         <v>0.39</v>
       </c>
-      <c r="AQ6" s="118">
+      <c r="AQ6" s="80">
         <v>2</v>
       </c>
-      <c r="AR6" s="118">
+      <c r="AR6" s="80">
         <v>38.549999999999997</v>
       </c>
-      <c r="AS6" s="118">
+      <c r="AS6" s="80">
         <v>58.89</v>
       </c>
-      <c r="AT6" s="118">
+      <c r="AT6" s="80">
         <v>0</v>
       </c>
-      <c r="AV6" s="114" t="s">
+      <c r="AV6" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="AW6" s="123">
+      <c r="AW6" s="85">
         <v>381135</v>
       </c>
-      <c r="AX6" s="126">
+      <c r="AX6" s="88">
         <v>211925</v>
       </c>
-      <c r="AY6" s="125">
+      <c r="AY6" s="87">
         <v>593060</v>
       </c>
-      <c r="AZ6" s="109">
+      <c r="AZ6" s="57">
         <v>0.64</v>
       </c>
-      <c r="BA6" s="109">
+      <c r="BA6" s="57">
         <v>1.8</v>
       </c>
     </row>
@@ -4012,87 +4337,87 @@
       <c r="Q7" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="73">
+      <c r="R7" s="110">
         <v>2.48</v>
       </c>
-      <c r="S7" s="80"/>
-      <c r="T7" s="81">
+      <c r="S7" s="111"/>
+      <c r="T7" s="112">
         <v>1.78</v>
       </c>
-      <c r="U7" s="82"/>
+      <c r="U7" s="113"/>
       <c r="V7" s="35">
         <v>87.94</v>
       </c>
       <c r="W7" s="35">
         <v>0.93</v>
       </c>
-      <c r="X7" s="73">
+      <c r="X7" s="110">
         <v>6.87</v>
       </c>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="81">
+      <c r="Y7" s="111"/>
+      <c r="Z7" s="112">
         <v>0</v>
       </c>
-      <c r="AA7" s="82"/>
-      <c r="AC7" s="74" t="s">
+      <c r="AA7" s="113"/>
+      <c r="AC7" s="122" t="s">
         <v>13</v>
       </c>
-      <c r="AD7" s="75"/>
-      <c r="AE7" s="78">
+      <c r="AD7" s="123"/>
+      <c r="AE7" s="124">
         <v>6545</v>
       </c>
-      <c r="AF7" s="79"/>
-      <c r="AG7" s="78">
+      <c r="AF7" s="125"/>
+      <c r="AG7" s="124">
         <v>2816</v>
       </c>
-      <c r="AH7" s="79"/>
-      <c r="AI7" s="78">
+      <c r="AH7" s="125"/>
+      <c r="AI7" s="124">
         <v>9361</v>
       </c>
-      <c r="AJ7" s="79"/>
+      <c r="AJ7" s="125"/>
       <c r="AK7" s="35">
         <v>0.7</v>
       </c>
       <c r="AL7" s="35">
         <v>2.3199999999999998</v>
       </c>
-      <c r="AN7" s="114" t="s">
+      <c r="AN7" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="AO7" s="118">
+      <c r="AO7" s="80">
         <v>2.48</v>
       </c>
-      <c r="AP7" s="118">
+      <c r="AP7" s="80">
         <v>1.78</v>
       </c>
-      <c r="AQ7" s="118">
+      <c r="AQ7" s="80">
         <v>87.94</v>
       </c>
-      <c r="AR7" s="118">
+      <c r="AR7" s="80">
         <v>0.93</v>
       </c>
-      <c r="AS7" s="118">
+      <c r="AS7" s="80">
         <v>6.87</v>
       </c>
-      <c r="AT7" s="118">
+      <c r="AT7" s="80">
         <v>0</v>
       </c>
-      <c r="AV7" s="114" t="s">
+      <c r="AV7" s="76" t="s">
         <v>22</v>
       </c>
-      <c r="AW7" s="123">
+      <c r="AW7" s="85">
         <v>84764</v>
       </c>
-      <c r="AX7" s="124">
+      <c r="AX7" s="86">
         <v>49641</v>
       </c>
-      <c r="AY7" s="125">
+      <c r="AY7" s="87">
         <v>134405</v>
       </c>
-      <c r="AZ7" s="109">
+      <c r="AZ7" s="57">
         <v>0.63</v>
       </c>
-      <c r="BA7" s="109">
+      <c r="BA7" s="57">
         <v>1.71</v>
       </c>
     </row>
@@ -4139,87 +4464,87 @@
       <c r="Q8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="73">
+      <c r="R8" s="110">
         <v>2.0699999999999998</v>
       </c>
-      <c r="S8" s="80"/>
-      <c r="T8" s="73">
+      <c r="S8" s="111"/>
+      <c r="T8" s="110">
         <v>39.119999999999997</v>
       </c>
-      <c r="U8" s="80"/>
+      <c r="U8" s="111"/>
       <c r="V8" s="35">
         <v>0.28000000000000003</v>
       </c>
       <c r="W8" s="35">
         <v>1.84</v>
       </c>
-      <c r="X8" s="73">
+      <c r="X8" s="110">
         <v>56.58</v>
       </c>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="81">
+      <c r="Y8" s="111"/>
+      <c r="Z8" s="112">
         <v>0.11</v>
       </c>
-      <c r="AA8" s="82"/>
-      <c r="AC8" s="73" t="s">
+      <c r="AA8" s="113"/>
+      <c r="AC8" s="110" t="s">
         <v>17</v>
       </c>
-      <c r="AD8" s="80"/>
-      <c r="AE8" s="81">
+      <c r="AD8" s="111"/>
+      <c r="AE8" s="112">
         <v>5178</v>
       </c>
-      <c r="AF8" s="82"/>
-      <c r="AG8" s="81">
+      <c r="AF8" s="113"/>
+      <c r="AG8" s="112">
         <v>2243</v>
       </c>
-      <c r="AH8" s="82"/>
-      <c r="AI8" s="81">
+      <c r="AH8" s="113"/>
+      <c r="AI8" s="112">
         <v>7421</v>
       </c>
-      <c r="AJ8" s="82"/>
+      <c r="AJ8" s="113"/>
       <c r="AK8" s="35">
         <v>0.7</v>
       </c>
       <c r="AL8" s="35">
         <v>2.31</v>
       </c>
-      <c r="AN8" s="114" t="s">
+      <c r="AN8" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="AO8" s="118">
+      <c r="AO8" s="80">
         <v>1.31</v>
       </c>
-      <c r="AP8" s="118">
+      <c r="AP8" s="80">
         <v>32.119999999999997</v>
       </c>
-      <c r="AQ8" s="118">
+      <c r="AQ8" s="80">
         <v>0.46</v>
       </c>
-      <c r="AR8" s="118">
+      <c r="AR8" s="80">
         <v>1.31</v>
       </c>
-      <c r="AS8" s="118">
+      <c r="AS8" s="80">
         <v>64.8</v>
       </c>
-      <c r="AT8" s="118">
+      <c r="AT8" s="80">
         <v>0</v>
       </c>
-      <c r="AV8" s="116" t="s">
+      <c r="AV8" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="AW8" s="127">
+      <c r="AW8" s="89">
         <v>84316</v>
       </c>
-      <c r="AX8" s="128">
+      <c r="AX8" s="90">
         <v>49722</v>
       </c>
-      <c r="AY8" s="129">
+      <c r="AY8" s="91">
         <v>134038</v>
       </c>
-      <c r="AZ8" s="111">
+      <c r="AZ8" s="73">
         <v>0.63</v>
       </c>
-      <c r="BA8" s="111">
+      <c r="BA8" s="73">
         <v>1.7</v>
       </c>
     </row>
@@ -4266,69 +4591,69 @@
       <c r="Q9" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="R9" s="83">
+      <c r="R9" s="118">
         <v>2.52</v>
       </c>
-      <c r="S9" s="84"/>
-      <c r="T9" s="87">
+      <c r="S9" s="119"/>
+      <c r="T9" s="120">
         <v>1.71</v>
       </c>
-      <c r="U9" s="88"/>
+      <c r="U9" s="121"/>
       <c r="V9" s="41">
         <v>0.63</v>
       </c>
       <c r="W9" s="41">
         <v>2.19</v>
       </c>
-      <c r="X9" s="83">
+      <c r="X9" s="118">
         <v>92.95</v>
       </c>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="87">
+      <c r="Y9" s="119"/>
+      <c r="Z9" s="120">
         <v>0</v>
       </c>
-      <c r="AA9" s="88"/>
-      <c r="AC9" s="73" t="s">
+      <c r="AA9" s="121"/>
+      <c r="AC9" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="AD9" s="80"/>
-      <c r="AE9" s="73">
+      <c r="AD9" s="111"/>
+      <c r="AE9" s="110">
         <v>165426</v>
       </c>
-      <c r="AF9" s="80"/>
-      <c r="AG9" s="81">
+      <c r="AF9" s="111"/>
+      <c r="AG9" s="112">
         <v>74244</v>
       </c>
-      <c r="AH9" s="82"/>
-      <c r="AI9" s="73">
+      <c r="AH9" s="113"/>
+      <c r="AI9" s="110">
         <v>239670</v>
       </c>
-      <c r="AJ9" s="80"/>
+      <c r="AJ9" s="111"/>
       <c r="AK9" s="35">
         <v>0.69</v>
       </c>
       <c r="AL9" s="35">
         <v>2.23</v>
       </c>
-      <c r="AN9" s="114" t="s">
+      <c r="AN9" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="AO9" s="118">
+      <c r="AO9" s="80">
         <v>18.87</v>
       </c>
-      <c r="AP9" s="118">
+      <c r="AP9" s="80">
         <v>17.559999999999999</v>
       </c>
-      <c r="AQ9" s="118">
+      <c r="AQ9" s="80">
         <v>0.59</v>
       </c>
-      <c r="AR9" s="118">
+      <c r="AR9" s="80">
         <v>3.84</v>
       </c>
-      <c r="AS9" s="118">
+      <c r="AS9" s="80">
         <v>59.09</v>
       </c>
-      <c r="AT9" s="118">
+      <c r="AT9" s="80">
         <v>0.05</v>
       </c>
     </row>
@@ -4372,72 +4697,72 @@
       <c r="O10" s="44">
         <v>2.21</v>
       </c>
-      <c r="Q10" s="106" t="s">
+      <c r="Q10" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="74">
+      <c r="R10" s="122">
         <v>0.98</v>
       </c>
-      <c r="S10" s="75"/>
-      <c r="T10" s="74">
+      <c r="S10" s="123"/>
+      <c r="T10" s="122">
         <v>30.72</v>
       </c>
-      <c r="U10" s="75"/>
+      <c r="U10" s="123"/>
       <c r="V10" s="35">
         <v>1.0900000000000001</v>
       </c>
       <c r="W10" s="35">
         <v>23.46</v>
       </c>
-      <c r="X10" s="74">
+      <c r="X10" s="122">
         <v>43.75</v>
       </c>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="78">
+      <c r="Y10" s="123"/>
+      <c r="Z10" s="124">
         <v>0</v>
       </c>
-      <c r="AA10" s="79"/>
-      <c r="AC10" s="73" t="s">
+      <c r="AA10" s="125"/>
+      <c r="AC10" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="AD10" s="80"/>
-      <c r="AE10" s="73">
+      <c r="AD10" s="111"/>
+      <c r="AE10" s="110">
         <v>63532</v>
       </c>
-      <c r="AF10" s="80"/>
-      <c r="AG10" s="81">
+      <c r="AF10" s="111"/>
+      <c r="AG10" s="112">
         <v>28768</v>
       </c>
-      <c r="AH10" s="82"/>
-      <c r="AI10" s="73">
+      <c r="AH10" s="113"/>
+      <c r="AI10" s="110">
         <v>92300</v>
       </c>
-      <c r="AJ10" s="80"/>
+      <c r="AJ10" s="111"/>
       <c r="AK10" s="35">
         <v>0.69</v>
       </c>
       <c r="AL10" s="35">
         <v>2.21</v>
       </c>
-      <c r="AN10" s="114" t="s">
+      <c r="AN10" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="AO10" s="118">
+      <c r="AO10" s="80">
         <v>3.01</v>
       </c>
-      <c r="AP10" s="118">
+      <c r="AP10" s="80">
         <v>18.239999999999998</v>
       </c>
-      <c r="AQ10" s="118">
+      <c r="AQ10" s="80">
         <v>38.14</v>
       </c>
-      <c r="AR10" s="118">
+      <c r="AR10" s="80">
         <v>0.44</v>
       </c>
-      <c r="AS10" s="118">
+      <c r="AS10" s="80">
         <v>39.590000000000003</v>
       </c>
-      <c r="AT10" s="118">
+      <c r="AT10" s="80">
         <v>0.59</v>
       </c>
     </row>
@@ -4484,69 +4809,69 @@
       <c r="Q11" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="73">
+      <c r="R11" s="110">
         <v>19.53</v>
       </c>
-      <c r="S11" s="80"/>
-      <c r="T11" s="73">
+      <c r="S11" s="111"/>
+      <c r="T11" s="110">
         <v>14.23</v>
       </c>
-      <c r="U11" s="80"/>
+      <c r="U11" s="111"/>
       <c r="V11" s="35">
         <v>0.75</v>
       </c>
       <c r="W11" s="35">
         <v>22.96</v>
       </c>
-      <c r="X11" s="73">
+      <c r="X11" s="110">
         <v>42.51</v>
       </c>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="81">
+      <c r="Y11" s="111"/>
+      <c r="Z11" s="112">
         <v>0.02</v>
       </c>
-      <c r="AA11" s="82"/>
-      <c r="AC11" s="73" t="s">
+      <c r="AA11" s="113"/>
+      <c r="AC11" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="AD11" s="80"/>
-      <c r="AE11" s="73">
+      <c r="AD11" s="111"/>
+      <c r="AE11" s="110">
         <v>30339</v>
       </c>
-      <c r="AF11" s="80"/>
-      <c r="AG11" s="81">
+      <c r="AF11" s="111"/>
+      <c r="AG11" s="112">
         <v>14530</v>
       </c>
-      <c r="AH11" s="82"/>
-      <c r="AI11" s="73">
+      <c r="AH11" s="113"/>
+      <c r="AI11" s="110">
         <v>44869</v>
       </c>
-      <c r="AJ11" s="80"/>
+      <c r="AJ11" s="111"/>
       <c r="AK11" s="35">
         <v>0.68</v>
       </c>
       <c r="AL11" s="35">
         <v>2.09</v>
       </c>
-      <c r="AN11" s="114" t="s">
+      <c r="AN11" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="AO11" s="118">
+      <c r="AO11" s="80">
         <v>3.05</v>
       </c>
-      <c r="AP11" s="118">
+      <c r="AP11" s="80">
         <v>52.19</v>
       </c>
-      <c r="AQ11" s="118">
+      <c r="AQ11" s="80">
         <v>1.03</v>
       </c>
-      <c r="AR11" s="118">
+      <c r="AR11" s="80">
         <v>1.71</v>
       </c>
-      <c r="AS11" s="118">
+      <c r="AS11" s="80">
         <v>5.23</v>
       </c>
-      <c r="AT11" s="118">
+      <c r="AT11" s="80">
         <v>36.799999999999997</v>
       </c>
     </row>
@@ -4593,69 +4918,69 @@
       <c r="Q12" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="R12" s="73">
+      <c r="R12" s="110">
         <v>1.7</v>
       </c>
-      <c r="S12" s="80"/>
-      <c r="T12" s="73">
+      <c r="S12" s="111"/>
+      <c r="T12" s="110">
         <v>35.04</v>
       </c>
-      <c r="U12" s="80"/>
+      <c r="U12" s="111"/>
       <c r="V12" s="35">
         <v>0.22</v>
       </c>
       <c r="W12" s="35">
         <v>1.28</v>
       </c>
-      <c r="X12" s="73">
+      <c r="X12" s="110">
         <v>61.77</v>
       </c>
-      <c r="Y12" s="80"/>
-      <c r="Z12" s="81">
+      <c r="Y12" s="111"/>
+      <c r="Z12" s="112">
         <v>0</v>
       </c>
-      <c r="AA12" s="82"/>
-      <c r="AC12" s="104" t="s">
+      <c r="AA12" s="113"/>
+      <c r="AC12" s="126" t="s">
         <v>9</v>
       </c>
-      <c r="AD12" s="105"/>
-      <c r="AE12" s="83">
+      <c r="AD12" s="127"/>
+      <c r="AE12" s="118">
         <v>25704</v>
       </c>
-      <c r="AF12" s="84"/>
-      <c r="AG12" s="87">
+      <c r="AF12" s="119"/>
+      <c r="AG12" s="120">
         <v>12814</v>
       </c>
-      <c r="AH12" s="88"/>
-      <c r="AI12" s="83">
+      <c r="AH12" s="121"/>
+      <c r="AI12" s="118">
         <v>38518</v>
       </c>
-      <c r="AJ12" s="84"/>
+      <c r="AJ12" s="119"/>
       <c r="AK12" s="41">
         <v>0.67</v>
       </c>
       <c r="AL12" s="41">
         <v>2.0099999999999998</v>
       </c>
-      <c r="AN12" s="114" t="s">
+      <c r="AN12" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="AO12" s="118">
+      <c r="AO12" s="80">
         <v>2.67</v>
       </c>
-      <c r="AP12" s="118">
+      <c r="AP12" s="80">
         <v>18.48</v>
       </c>
-      <c r="AQ12" s="118">
+      <c r="AQ12" s="80">
         <v>29.94</v>
       </c>
-      <c r="AR12" s="118">
+      <c r="AR12" s="80">
         <v>0.98</v>
       </c>
-      <c r="AS12" s="118">
+      <c r="AS12" s="80">
         <v>47.79</v>
       </c>
-      <c r="AT12" s="118">
+      <c r="AT12" s="80">
         <v>0.14000000000000001</v>
       </c>
     </row>
@@ -4702,69 +5027,69 @@
       <c r="Q13" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="R13" s="83">
+      <c r="R13" s="118">
         <v>0.16</v>
       </c>
-      <c r="S13" s="84"/>
-      <c r="T13" s="87">
+      <c r="S13" s="119"/>
+      <c r="T13" s="120">
         <v>0.39</v>
       </c>
-      <c r="U13" s="88"/>
+      <c r="U13" s="121"/>
       <c r="V13" s="41">
         <v>2</v>
       </c>
       <c r="W13" s="41">
         <v>38.549999999999997</v>
       </c>
-      <c r="X13" s="83">
+      <c r="X13" s="118">
         <v>58.89</v>
       </c>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="87">
+      <c r="Y13" s="119"/>
+      <c r="Z13" s="120">
         <v>0</v>
       </c>
-      <c r="AA13" s="88"/>
-      <c r="AC13" s="74" t="s">
+      <c r="AA13" s="121"/>
+      <c r="AC13" s="122" t="s">
         <v>3</v>
       </c>
-      <c r="AD13" s="75"/>
-      <c r="AE13" s="78">
+      <c r="AD13" s="123"/>
+      <c r="AE13" s="124">
         <v>4429</v>
       </c>
-      <c r="AF13" s="79"/>
-      <c r="AG13" s="78">
+      <c r="AF13" s="125"/>
+      <c r="AG13" s="124">
         <v>2264</v>
       </c>
-      <c r="AH13" s="79"/>
-      <c r="AI13" s="78">
+      <c r="AH13" s="125"/>
+      <c r="AI13" s="124">
         <v>6693</v>
       </c>
-      <c r="AJ13" s="79"/>
+      <c r="AJ13" s="125"/>
       <c r="AK13" s="35">
         <v>0.66</v>
       </c>
       <c r="AL13" s="35">
         <v>1.96</v>
       </c>
-      <c r="AN13" s="115" t="s">
+      <c r="AN13" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="AO13" s="118">
+      <c r="AO13" s="80">
         <v>2.2999999999999998</v>
       </c>
-      <c r="AP13" s="118">
+      <c r="AP13" s="80">
         <v>25.07</v>
       </c>
-      <c r="AQ13" s="118">
+      <c r="AQ13" s="80">
         <v>5.24</v>
       </c>
-      <c r="AR13" s="118">
+      <c r="AR13" s="80">
         <v>0.88</v>
       </c>
-      <c r="AS13" s="118">
+      <c r="AS13" s="80">
         <v>66.510000000000005</v>
       </c>
-      <c r="AT13" s="118">
+      <c r="AT13" s="80">
         <v>0</v>
       </c>
     </row>
@@ -4808,72 +5133,72 @@
       <c r="O14" s="44">
         <v>1.88</v>
       </c>
-      <c r="Q14" s="106" t="s">
+      <c r="Q14" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="R14" s="74">
+      <c r="R14" s="122">
         <v>3.05</v>
       </c>
-      <c r="S14" s="75"/>
-      <c r="T14" s="74">
+      <c r="S14" s="123"/>
+      <c r="T14" s="122">
         <v>52.19</v>
       </c>
-      <c r="U14" s="75"/>
+      <c r="U14" s="123"/>
       <c r="V14" s="35">
         <v>1.03</v>
       </c>
       <c r="W14" s="35">
         <v>1.71</v>
       </c>
-      <c r="X14" s="74">
+      <c r="X14" s="122">
         <v>5.23</v>
       </c>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="78">
+      <c r="Y14" s="123"/>
+      <c r="Z14" s="124">
         <v>36.799999999999997</v>
       </c>
-      <c r="AA14" s="79"/>
-      <c r="AC14" s="73" t="s">
+      <c r="AA14" s="125"/>
+      <c r="AC14" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="AD14" s="80"/>
-      <c r="AE14" s="73">
+      <c r="AD14" s="111"/>
+      <c r="AE14" s="110">
         <v>19503</v>
       </c>
-      <c r="AF14" s="80"/>
-      <c r="AG14" s="81">
+      <c r="AF14" s="111"/>
+      <c r="AG14" s="112">
         <v>10372</v>
       </c>
-      <c r="AH14" s="82"/>
-      <c r="AI14" s="73">
+      <c r="AH14" s="113"/>
+      <c r="AI14" s="110">
         <v>29875</v>
       </c>
-      <c r="AJ14" s="80"/>
+      <c r="AJ14" s="111"/>
       <c r="AK14" s="35">
         <v>0.65</v>
       </c>
       <c r="AL14" s="35">
         <v>1.88</v>
       </c>
-      <c r="AN14" s="114" t="s">
+      <c r="AN14" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="AO14" s="118">
+      <c r="AO14" s="80">
         <v>2.0699999999999998</v>
       </c>
-      <c r="AP14" s="118">
+      <c r="AP14" s="80">
         <v>39.119999999999997</v>
       </c>
-      <c r="AQ14" s="118">
+      <c r="AQ14" s="80">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AR14" s="118">
+      <c r="AR14" s="80">
         <v>1.84</v>
       </c>
-      <c r="AS14" s="118">
+      <c r="AS14" s="80">
         <v>56.58</v>
       </c>
-      <c r="AT14" s="118">
+      <c r="AT14" s="80">
         <v>0.11</v>
       </c>
     </row>
@@ -4920,69 +5245,69 @@
       <c r="Q15" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="73">
+      <c r="R15" s="110">
         <v>2.67</v>
       </c>
-      <c r="S15" s="80"/>
-      <c r="T15" s="73">
+      <c r="S15" s="111"/>
+      <c r="T15" s="110">
         <v>18.48</v>
       </c>
-      <c r="U15" s="80"/>
+      <c r="U15" s="111"/>
       <c r="V15" s="35">
         <v>29.94</v>
       </c>
       <c r="W15" s="35">
         <v>0.98</v>
       </c>
-      <c r="X15" s="73">
+      <c r="X15" s="110">
         <v>47.79</v>
       </c>
-      <c r="Y15" s="80"/>
-      <c r="Z15" s="81">
+      <c r="Y15" s="111"/>
+      <c r="Z15" s="112">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AA15" s="82"/>
-      <c r="AC15" s="73" t="s">
+      <c r="AA15" s="113"/>
+      <c r="AC15" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="AD15" s="80"/>
-      <c r="AE15" s="73">
+      <c r="AD15" s="111"/>
+      <c r="AE15" s="110">
         <v>161383</v>
       </c>
-      <c r="AF15" s="80"/>
-      <c r="AG15" s="81">
+      <c r="AF15" s="111"/>
+      <c r="AG15" s="112">
         <v>87123</v>
       </c>
-      <c r="AH15" s="82"/>
-      <c r="AI15" s="73">
+      <c r="AH15" s="113"/>
+      <c r="AI15" s="110">
         <v>248506</v>
       </c>
-      <c r="AJ15" s="80"/>
+      <c r="AJ15" s="111"/>
       <c r="AK15" s="35">
         <v>0.65</v>
       </c>
       <c r="AL15" s="35">
         <v>1.85</v>
       </c>
-      <c r="AN15" s="114" t="s">
+      <c r="AN15" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="AO15" s="118">
+      <c r="AO15" s="80">
         <v>29.4</v>
       </c>
-      <c r="AP15" s="118">
+      <c r="AP15" s="80">
         <v>23.98</v>
       </c>
-      <c r="AQ15" s="118">
+      <c r="AQ15" s="80">
         <v>0.13</v>
       </c>
-      <c r="AR15" s="118">
+      <c r="AR15" s="80">
         <v>1.9</v>
       </c>
-      <c r="AS15" s="118">
+      <c r="AS15" s="80">
         <v>44.57</v>
       </c>
-      <c r="AT15" s="118">
+      <c r="AT15" s="80">
         <v>0.02</v>
       </c>
     </row>
@@ -5029,69 +5354,69 @@
       <c r="Q16" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="R16" s="73">
+      <c r="R16" s="110">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S16" s="80"/>
-      <c r="T16" s="73">
+      <c r="S16" s="111"/>
+      <c r="T16" s="110">
         <v>25.07</v>
       </c>
-      <c r="U16" s="80"/>
+      <c r="U16" s="111"/>
       <c r="V16" s="35">
         <v>5.24</v>
       </c>
       <c r="W16" s="35">
         <v>0.88</v>
       </c>
-      <c r="X16" s="73">
+      <c r="X16" s="110">
         <v>66.510000000000005</v>
       </c>
-      <c r="Y16" s="80"/>
-      <c r="Z16" s="81">
+      <c r="Y16" s="111"/>
+      <c r="Z16" s="112">
         <v>0</v>
       </c>
-      <c r="AA16" s="82"/>
-      <c r="AC16" s="73" t="s">
+      <c r="AA16" s="113"/>
+      <c r="AC16" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="AD16" s="80"/>
-      <c r="AE16" s="73">
+      <c r="AD16" s="111"/>
+      <c r="AE16" s="110">
         <v>27880</v>
       </c>
-      <c r="AF16" s="80"/>
-      <c r="AG16" s="81">
+      <c r="AF16" s="111"/>
+      <c r="AG16" s="112">
         <v>15169</v>
       </c>
-      <c r="AH16" s="82"/>
-      <c r="AI16" s="73">
+      <c r="AH16" s="113"/>
+      <c r="AI16" s="110">
         <v>43049</v>
       </c>
-      <c r="AJ16" s="80"/>
+      <c r="AJ16" s="111"/>
       <c r="AK16" s="35">
         <v>0.65</v>
       </c>
       <c r="AL16" s="35">
         <v>1.84</v>
       </c>
-      <c r="AN16" s="114" t="s">
+      <c r="AN16" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="AO16" s="118">
+      <c r="AO16" s="80">
         <v>3.99</v>
       </c>
-      <c r="AP16" s="118">
+      <c r="AP16" s="80">
         <v>23.28</v>
       </c>
-      <c r="AQ16" s="118">
+      <c r="AQ16" s="80">
         <v>0.37</v>
       </c>
-      <c r="AR16" s="118">
+      <c r="AR16" s="80">
         <v>14.9</v>
       </c>
-      <c r="AS16" s="118">
+      <c r="AS16" s="80">
         <v>57.41</v>
       </c>
-      <c r="AT16" s="118">
+      <c r="AT16" s="80">
         <v>0.05</v>
       </c>
     </row>
@@ -5138,69 +5463,69 @@
       <c r="Q17" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="R17" s="83">
+      <c r="R17" s="118">
         <v>3.01</v>
       </c>
-      <c r="S17" s="84"/>
-      <c r="T17" s="83">
+      <c r="S17" s="119"/>
+      <c r="T17" s="118">
         <v>18.239999999999998</v>
       </c>
-      <c r="U17" s="84"/>
+      <c r="U17" s="119"/>
       <c r="V17" s="41">
         <v>38.14</v>
       </c>
       <c r="W17" s="41">
         <v>0.44</v>
       </c>
-      <c r="X17" s="83">
+      <c r="X17" s="118">
         <v>39.590000000000003</v>
       </c>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="87">
+      <c r="Y17" s="119"/>
+      <c r="Z17" s="120">
         <v>0.59</v>
       </c>
-      <c r="AA17" s="88"/>
-      <c r="AC17" s="73" t="s">
+      <c r="AA17" s="121"/>
+      <c r="AC17" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="AD17" s="80"/>
-      <c r="AE17" s="81">
+      <c r="AD17" s="111"/>
+      <c r="AE17" s="112">
         <v>4922</v>
       </c>
-      <c r="AF17" s="82"/>
-      <c r="AG17" s="81">
+      <c r="AF17" s="113"/>
+      <c r="AG17" s="112">
         <v>2722</v>
       </c>
-      <c r="AH17" s="82"/>
-      <c r="AI17" s="81">
+      <c r="AH17" s="113"/>
+      <c r="AI17" s="112">
         <v>7644</v>
       </c>
-      <c r="AJ17" s="82"/>
+      <c r="AJ17" s="113"/>
       <c r="AK17" s="35">
         <v>0.64</v>
       </c>
       <c r="AL17" s="35">
         <v>1.81</v>
       </c>
-      <c r="AN17" s="114" t="s">
+      <c r="AN17" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="AO17" s="118">
+      <c r="AO17" s="80">
         <v>2.52</v>
       </c>
-      <c r="AP17" s="118">
+      <c r="AP17" s="80">
         <v>1.71</v>
       </c>
-      <c r="AQ17" s="118">
+      <c r="AQ17" s="80">
         <v>0.63</v>
       </c>
-      <c r="AR17" s="118">
+      <c r="AR17" s="80">
         <v>2.19</v>
       </c>
-      <c r="AS17" s="118">
+      <c r="AS17" s="80">
         <v>92.95</v>
       </c>
-      <c r="AT17" s="118">
+      <c r="AT17" s="80">
         <v>0</v>
       </c>
     </row>
@@ -5244,72 +5569,72 @@
       <c r="O18" s="46">
         <v>1.81</v>
       </c>
-      <c r="Q18" s="106" t="s">
+      <c r="Q18" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="R18" s="74">
+      <c r="R18" s="122">
         <v>33.44</v>
       </c>
-      <c r="S18" s="75"/>
-      <c r="T18" s="74">
+      <c r="S18" s="123"/>
+      <c r="T18" s="122">
         <v>18.46</v>
       </c>
-      <c r="U18" s="75"/>
+      <c r="U18" s="123"/>
       <c r="V18" s="35">
         <v>1.1499999999999999</v>
       </c>
       <c r="W18" s="35">
         <v>2.15</v>
       </c>
-      <c r="X18" s="74">
+      <c r="X18" s="122">
         <v>44.75</v>
       </c>
-      <c r="Y18" s="75"/>
-      <c r="Z18" s="78">
+      <c r="Y18" s="123"/>
+      <c r="Z18" s="124">
         <v>0.04</v>
       </c>
-      <c r="AA18" s="79"/>
-      <c r="AC18" s="83" t="s">
+      <c r="AA18" s="125"/>
+      <c r="AC18" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="AD18" s="84"/>
-      <c r="AE18" s="83">
+      <c r="AD18" s="119"/>
+      <c r="AE18" s="118">
         <v>99276</v>
       </c>
-      <c r="AF18" s="84"/>
-      <c r="AG18" s="87">
+      <c r="AF18" s="119"/>
+      <c r="AG18" s="120">
         <v>54831</v>
       </c>
-      <c r="AH18" s="88"/>
-      <c r="AI18" s="83">
+      <c r="AH18" s="121"/>
+      <c r="AI18" s="118">
         <v>154107</v>
       </c>
-      <c r="AJ18" s="84"/>
+      <c r="AJ18" s="119"/>
       <c r="AK18" s="41">
         <v>0.64</v>
       </c>
       <c r="AL18" s="41">
         <v>1.81</v>
       </c>
-      <c r="AN18" s="114" t="s">
+      <c r="AN18" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="AO18" s="118">
+      <c r="AO18" s="80">
         <v>1.86</v>
       </c>
-      <c r="AP18" s="118">
+      <c r="AP18" s="80">
         <v>10.82</v>
       </c>
-      <c r="AQ18" s="118">
+      <c r="AQ18" s="80">
         <v>0.8</v>
       </c>
-      <c r="AR18" s="118">
+      <c r="AR18" s="80">
         <v>24.7</v>
       </c>
-      <c r="AS18" s="118">
+      <c r="AS18" s="80">
         <v>61.46</v>
       </c>
-      <c r="AT18" s="118">
+      <c r="AT18" s="80">
         <v>0.37</v>
       </c>
     </row>
@@ -5356,69 +5681,69 @@
       <c r="Q19" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="R19" s="73">
+      <c r="R19" s="110">
         <v>1.56</v>
       </c>
-      <c r="S19" s="80"/>
-      <c r="T19" s="73">
+      <c r="S19" s="111"/>
+      <c r="T19" s="110">
         <v>14.61</v>
       </c>
-      <c r="U19" s="80"/>
+      <c r="U19" s="111"/>
       <c r="V19" s="35">
         <v>14.49</v>
       </c>
       <c r="W19" s="35">
         <v>21.91</v>
       </c>
-      <c r="X19" s="73">
+      <c r="X19" s="110">
         <v>46.84</v>
       </c>
-      <c r="Y19" s="80"/>
-      <c r="Z19" s="81">
+      <c r="Y19" s="111"/>
+      <c r="Z19" s="112">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AA19" s="82"/>
-      <c r="AC19" s="74" t="s">
+      <c r="AA19" s="113"/>
+      <c r="AC19" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="AD19" s="75"/>
-      <c r="AE19" s="74">
+      <c r="AD19" s="123"/>
+      <c r="AE19" s="122">
         <v>19246</v>
       </c>
-      <c r="AF19" s="75"/>
-      <c r="AG19" s="78">
+      <c r="AF19" s="123"/>
+      <c r="AG19" s="124">
         <v>13652</v>
       </c>
-      <c r="AH19" s="79"/>
-      <c r="AI19" s="74">
+      <c r="AH19" s="125"/>
+      <c r="AI19" s="122">
         <v>32898</v>
       </c>
-      <c r="AJ19" s="75"/>
+      <c r="AJ19" s="123"/>
       <c r="AK19" s="35">
         <v>0.59</v>
       </c>
       <c r="AL19" s="35">
         <v>1.41</v>
       </c>
-      <c r="AN19" s="114" t="s">
+      <c r="AN19" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="AO19" s="118">
+      <c r="AO19" s="80">
         <v>0.98</v>
       </c>
-      <c r="AP19" s="118">
+      <c r="AP19" s="80">
         <v>30.72</v>
       </c>
-      <c r="AQ19" s="118">
+      <c r="AQ19" s="80">
         <v>1.0900000000000001</v>
       </c>
-      <c r="AR19" s="118">
+      <c r="AR19" s="80">
         <v>23.46</v>
       </c>
-      <c r="AS19" s="118">
+      <c r="AS19" s="80">
         <v>43.75</v>
       </c>
-      <c r="AT19" s="118">
+      <c r="AT19" s="80">
         <v>0</v>
       </c>
     </row>
@@ -5465,69 +5790,69 @@
       <c r="Q20" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="R20" s="73">
+      <c r="R20" s="110">
         <v>1.31</v>
       </c>
-      <c r="S20" s="80"/>
-      <c r="T20" s="73">
+      <c r="S20" s="111"/>
+      <c r="T20" s="110">
         <v>32.119999999999997</v>
       </c>
-      <c r="U20" s="80"/>
+      <c r="U20" s="111"/>
       <c r="V20" s="35">
         <v>0.46</v>
       </c>
       <c r="W20" s="35">
         <v>1.31</v>
       </c>
-      <c r="X20" s="73">
+      <c r="X20" s="110">
         <v>64.8</v>
       </c>
-      <c r="Y20" s="80"/>
-      <c r="Z20" s="81">
+      <c r="Y20" s="111"/>
+      <c r="Z20" s="112">
         <v>0</v>
       </c>
-      <c r="AA20" s="82"/>
-      <c r="AC20" s="73" t="s">
+      <c r="AA20" s="113"/>
+      <c r="AC20" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="AD20" s="80"/>
-      <c r="AE20" s="73">
+      <c r="AD20" s="111"/>
+      <c r="AE20" s="110">
         <v>25305</v>
       </c>
-      <c r="AF20" s="80"/>
-      <c r="AG20" s="81">
+      <c r="AF20" s="111"/>
+      <c r="AG20" s="112">
         <v>19151</v>
       </c>
-      <c r="AH20" s="82"/>
-      <c r="AI20" s="73">
+      <c r="AH20" s="113"/>
+      <c r="AI20" s="110">
         <v>44456</v>
       </c>
-      <c r="AJ20" s="80"/>
+      <c r="AJ20" s="111"/>
       <c r="AK20" s="35">
         <v>0.56999999999999995</v>
       </c>
       <c r="AL20" s="35">
         <v>1.32</v>
       </c>
-      <c r="AN20" s="114" t="s">
+      <c r="AN20" s="76" t="s">
         <v>16</v>
       </c>
-      <c r="AO20" s="118">
+      <c r="AO20" s="80">
         <v>19.53</v>
       </c>
-      <c r="AP20" s="118">
+      <c r="AP20" s="80">
         <v>14.23</v>
       </c>
-      <c r="AQ20" s="118">
+      <c r="AQ20" s="80">
         <v>0.75</v>
       </c>
-      <c r="AR20" s="118">
+      <c r="AR20" s="80">
         <v>22.96</v>
       </c>
-      <c r="AS20" s="118">
+      <c r="AS20" s="80">
         <v>42.51</v>
       </c>
-      <c r="AT20" s="118">
+      <c r="AT20" s="80">
         <v>0.02</v>
       </c>
     </row>
@@ -5574,69 +5899,69 @@
       <c r="Q21" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="R21" s="83">
+      <c r="R21" s="118">
         <v>18.87</v>
       </c>
-      <c r="S21" s="84"/>
-      <c r="T21" s="83">
+      <c r="S21" s="119"/>
+      <c r="T21" s="118">
         <v>17.559999999999999</v>
       </c>
-      <c r="U21" s="84"/>
+      <c r="U21" s="119"/>
       <c r="V21" s="41">
         <v>0.59</v>
       </c>
       <c r="W21" s="41">
         <v>3.84</v>
       </c>
-      <c r="X21" s="83">
+      <c r="X21" s="118">
         <v>59.09</v>
       </c>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="87">
+      <c r="Y21" s="119"/>
+      <c r="Z21" s="120">
         <v>0.05</v>
       </c>
-      <c r="AA21" s="88"/>
-      <c r="AC21" s="91" t="s">
+      <c r="AA21" s="121"/>
+      <c r="AC21" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="AD21" s="101"/>
-      <c r="AE21" s="91">
+      <c r="AD21" s="115"/>
+      <c r="AE21" s="114">
         <v>40221</v>
       </c>
-      <c r="AF21" s="101"/>
-      <c r="AG21" s="102">
+      <c r="AF21" s="115"/>
+      <c r="AG21" s="116">
         <v>33779</v>
       </c>
-      <c r="AH21" s="103"/>
-      <c r="AI21" s="91">
+      <c r="AH21" s="117"/>
+      <c r="AI21" s="114">
         <v>74000</v>
       </c>
-      <c r="AJ21" s="101"/>
+      <c r="AJ21" s="115"/>
       <c r="AK21" s="39">
         <v>0.54</v>
       </c>
       <c r="AL21" s="39">
         <v>1.19</v>
       </c>
-      <c r="AN21" s="116" t="s">
+      <c r="AN21" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="AO21" s="119">
+      <c r="AO21" s="81">
         <v>1.7</v>
       </c>
-      <c r="AP21" s="119">
+      <c r="AP21" s="81">
         <v>35.04</v>
       </c>
-      <c r="AQ21" s="119">
+      <c r="AQ21" s="81">
         <v>0.22</v>
       </c>
-      <c r="AR21" s="119">
+      <c r="AR21" s="81">
         <v>1.28</v>
       </c>
-      <c r="AS21" s="119">
+      <c r="AS21" s="81">
         <v>61.77</v>
       </c>
-      <c r="AT21" s="119">
+      <c r="AT21" s="81">
         <v>0</v>
       </c>
     </row>
@@ -5722,6 +6047,147 @@
     </row>
   </sheetData>
   <mergeCells count="157">
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="X8:Y8"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="X9:Y9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="X6:Y6"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="X7:Y7"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
     <mergeCell ref="AC20:AD20"/>
     <mergeCell ref="AE20:AF20"/>
     <mergeCell ref="AG20:AH20"/>
@@ -5738,147 +6204,6 @@
     <mergeCell ref="AE19:AF19"/>
     <mergeCell ref="AG19:AH19"/>
     <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="X8:Y8"/>
-    <mergeCell ref="Z8:AA8"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="X9:Y9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="X6:Y6"/>
-    <mergeCell ref="Z6:AA6"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="X7:Y7"/>
-    <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5888,7 +6213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{650DBD0C-E1B6-E445-958E-7EE735A79C3A}">
   <dimension ref="A1:BI232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
@@ -5898,7 +6223,7 @@
       <c r="A1" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="93" t="s">
         <v>62</v>
       </c>
       <c r="C1" s="57" t="s">
@@ -5919,12 +6244,12 @@
       <c r="I1" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="76" t="s">
+      <c r="J1" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
+      <c r="K1" s="138"/>
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
       <c r="N1" s="57" t="s">
         <v>65</v>
       </c>
@@ -5934,7 +6259,7 @@
       <c r="Q1" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="R1" s="131" t="s">
+      <c r="R1" s="93" t="s">
         <v>62</v>
       </c>
       <c r="S1" s="57" t="s">
@@ -5955,65 +6280,65 @@
       <c r="Y1" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="76" t="s">
+      <c r="Z1" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
       <c r="AD1" s="57" t="s">
         <v>65</v>
       </c>
       <c r="AE1" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="76" t="s">
+      <c r="AG1" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="140" t="s">
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="175" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="140"/>
-      <c r="AK1" s="76" t="s">
+      <c r="AJ1" s="175"/>
+      <c r="AK1" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="AL1" s="76"/>
-      <c r="AM1" s="76"/>
-      <c r="AN1" s="76" t="s">
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138" t="s">
         <v>63</v>
       </c>
-      <c r="AO1" s="76"/>
-      <c r="AP1" s="76" t="s">
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138" t="s">
         <v>64</v>
       </c>
-      <c r="AQ1" s="76"/>
-      <c r="AR1" s="76" t="s">
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="76"/>
+      <c r="AS1" s="138"/>
       <c r="AT1" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="AV1" s="76" t="s">
+      <c r="AV1" s="138" t="s">
         <v>61</v>
       </c>
-      <c r="AW1" s="76"/>
-      <c r="AX1" s="76" t="s">
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138" t="s">
         <v>67</v>
       </c>
-      <c r="AY1" s="76"/>
-      <c r="AZ1" s="76"/>
-      <c r="BA1" s="76"/>
-      <c r="BB1" s="76"/>
-      <c r="BC1" s="76"/>
-      <c r="BD1" s="76"/>
-      <c r="BE1" s="76"/>
-      <c r="BF1" s="76"/>
-      <c r="BG1" s="76" t="s">
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
+      <c r="BA1" s="138"/>
+      <c r="BB1" s="138"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="138" t="s">
         <v>49</v>
       </c>
-      <c r="BH1" s="76"/>
+      <c r="BH1" s="138"/>
       <c r="BI1" s="59" t="s">
         <v>59</v>
       </c>
@@ -6022,7 +6347,7 @@
       <c r="A2" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="94" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="57">
@@ -6034,7 +6359,7 @@
       <c r="E2" s="57">
         <v>4628</v>
       </c>
-      <c r="F2" s="133">
+      <c r="F2" s="95">
         <v>0.41</v>
       </c>
       <c r="G2" s="59">
@@ -6043,13 +6368,13 @@
       <c r="I2" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="76" t="s">
+      <c r="J2" s="138" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="133">
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="95">
         <v>0.47</v>
       </c>
       <c r="O2" s="59">
@@ -6058,7 +6383,7 @@
       <c r="Q2" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="132" t="s">
+      <c r="R2" s="94" t="s">
         <v>0</v>
       </c>
       <c r="S2" s="57">
@@ -6070,7 +6395,7 @@
       <c r="U2" s="57">
         <v>14183</v>
       </c>
-      <c r="V2" s="133">
+      <c r="V2" s="95">
         <v>0.51</v>
       </c>
       <c r="W2" s="59">
@@ -6079,65 +6404,65 @@
       <c r="Y2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="76" t="s">
+      <c r="Z2" s="138" t="s">
         <v>89</v>
       </c>
-      <c r="AA2" s="76"/>
-      <c r="AB2" s="76"/>
-      <c r="AC2" s="76"/>
-      <c r="AD2" s="133">
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="95">
         <v>0.65</v>
       </c>
       <c r="AE2" s="59">
         <v>1.88</v>
       </c>
-      <c r="AG2" s="134" t="s">
+      <c r="AG2" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="134"/>
-      <c r="AI2" s="141" t="s">
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="AJ2" s="141"/>
-      <c r="AK2" s="76">
+      <c r="AJ2" s="174"/>
+      <c r="AK2" s="138">
         <v>19095</v>
       </c>
-      <c r="AL2" s="76"/>
-      <c r="AM2" s="76"/>
-      <c r="AN2" s="76">
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138">
         <v>17761</v>
       </c>
-      <c r="AO2" s="76"/>
-      <c r="AP2" s="76">
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138">
         <v>36856</v>
       </c>
-      <c r="AQ2" s="76"/>
-      <c r="AR2" s="76">
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138">
         <v>0.52</v>
       </c>
-      <c r="AS2" s="76"/>
+      <c r="AS2" s="138"/>
       <c r="AT2" s="59">
         <v>1.08</v>
       </c>
-      <c r="AV2" s="135" t="s">
+      <c r="AV2" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AW2" s="135"/>
-      <c r="AX2" s="76" t="s">
+      <c r="AW2" s="164"/>
+      <c r="AX2" s="138" t="s">
         <v>110</v>
       </c>
-      <c r="AY2" s="76"/>
-      <c r="AZ2" s="76"/>
-      <c r="BA2" s="76"/>
-      <c r="BB2" s="76"/>
-      <c r="BC2" s="76"/>
-      <c r="BD2" s="76"/>
-      <c r="BE2" s="76"/>
-      <c r="BF2" s="76"/>
-      <c r="BG2" s="76">
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
+      <c r="BB2" s="138"/>
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138"/>
+      <c r="BG2" s="138">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BH2" s="76"/>
+      <c r="BH2" s="138"/>
       <c r="BI2" s="59">
         <v>1.23</v>
       </c>
@@ -6146,7 +6471,7 @@
       <c r="A3" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="132" t="s">
+      <c r="B3" s="94" t="s">
         <v>51</v>
       </c>
       <c r="C3" s="57">
@@ -6158,7 +6483,7 @@
       <c r="E3" s="57">
         <v>30861</v>
       </c>
-      <c r="F3" s="133">
+      <c r="F3" s="95">
         <v>0.68</v>
       </c>
       <c r="G3" s="59">
@@ -6167,13 +6492,13 @@
       <c r="I3" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="138" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="133">
+      <c r="K3" s="138"/>
+      <c r="L3" s="138"/>
+      <c r="M3" s="138"/>
+      <c r="N3" s="95">
         <v>0.63</v>
       </c>
       <c r="O3" s="59">
@@ -6182,7 +6507,7 @@
       <c r="Q3" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="R3" s="132" t="s">
+      <c r="R3" s="94" t="s">
         <v>51</v>
       </c>
       <c r="S3" s="57">
@@ -6194,7 +6519,7 @@
       <c r="U3" s="57">
         <v>1988</v>
       </c>
-      <c r="V3" s="133">
+      <c r="V3" s="95">
         <v>0.54</v>
       </c>
       <c r="W3" s="59">
@@ -6203,65 +6528,65 @@
       <c r="Y3" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z3" s="76" t="s">
+      <c r="Z3" s="138" t="s">
         <v>90</v>
       </c>
-      <c r="AA3" s="76"/>
-      <c r="AB3" s="76"/>
-      <c r="AC3" s="76"/>
-      <c r="AD3" s="133">
+      <c r="AA3" s="138"/>
+      <c r="AB3" s="138"/>
+      <c r="AC3" s="138"/>
+      <c r="AD3" s="95">
         <v>0.76</v>
       </c>
       <c r="AE3" s="59">
         <v>3.18</v>
       </c>
-      <c r="AG3" s="134" t="s">
+      <c r="AG3" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AH3" s="134"/>
-      <c r="AI3" s="141" t="s">
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="AJ3" s="141"/>
-      <c r="AK3" s="76">
+      <c r="AJ3" s="174"/>
+      <c r="AK3" s="138">
         <v>27918</v>
       </c>
-      <c r="AL3" s="76"/>
-      <c r="AM3" s="76"/>
-      <c r="AN3" s="76">
+      <c r="AL3" s="138"/>
+      <c r="AM3" s="138"/>
+      <c r="AN3" s="138">
         <v>13387</v>
       </c>
-      <c r="AO3" s="76"/>
-      <c r="AP3" s="76">
+      <c r="AO3" s="138"/>
+      <c r="AP3" s="138">
         <v>41305</v>
       </c>
-      <c r="AQ3" s="76"/>
-      <c r="AR3" s="76">
+      <c r="AQ3" s="138"/>
+      <c r="AR3" s="138">
         <v>0.68</v>
       </c>
-      <c r="AS3" s="76"/>
+      <c r="AS3" s="138"/>
       <c r="AT3" s="59">
         <v>2.09</v>
       </c>
-      <c r="AV3" s="135" t="s">
+      <c r="AV3" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AW3" s="135"/>
-      <c r="AX3" s="76" t="s">
+      <c r="AW3" s="164"/>
+      <c r="AX3" s="138" t="s">
         <v>111</v>
       </c>
-      <c r="AY3" s="76"/>
-      <c r="AZ3" s="76"/>
-      <c r="BA3" s="76"/>
-      <c r="BB3" s="76"/>
-      <c r="BC3" s="76"/>
-      <c r="BD3" s="76"/>
-      <c r="BE3" s="76"/>
-      <c r="BF3" s="76"/>
-      <c r="BG3" s="76">
+      <c r="AY3" s="138"/>
+      <c r="AZ3" s="138"/>
+      <c r="BA3" s="138"/>
+      <c r="BB3" s="138"/>
+      <c r="BC3" s="138"/>
+      <c r="BD3" s="138"/>
+      <c r="BE3" s="138"/>
+      <c r="BF3" s="138"/>
+      <c r="BG3" s="138">
         <v>0.61</v>
       </c>
-      <c r="BH3" s="76"/>
+      <c r="BH3" s="138"/>
       <c r="BI3" s="59">
         <v>1.53</v>
       </c>
@@ -6270,7 +6595,7 @@
       <c r="A4" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="132" t="s">
+      <c r="B4" s="94" t="s">
         <v>52</v>
       </c>
       <c r="C4" s="57">
@@ -6282,7 +6607,7 @@
       <c r="E4" s="57">
         <v>3875</v>
       </c>
-      <c r="F4" s="133">
+      <c r="F4" s="95">
         <v>0.43</v>
       </c>
       <c r="G4" s="59">
@@ -6291,13 +6616,13 @@
       <c r="I4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="138" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="133">
+      <c r="K4" s="138"/>
+      <c r="L4" s="138"/>
+      <c r="M4" s="138"/>
+      <c r="N4" s="95">
         <v>0.64</v>
       </c>
       <c r="O4" s="59">
@@ -6306,7 +6631,7 @@
       <c r="Q4" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="132" t="s">
+      <c r="R4" s="94" t="s">
         <v>52</v>
       </c>
       <c r="S4" s="57">
@@ -6318,7 +6643,7 @@
       <c r="U4" s="57">
         <v>54457</v>
       </c>
-      <c r="V4" s="133">
+      <c r="V4" s="95">
         <v>0.66</v>
       </c>
       <c r="W4" s="59">
@@ -6327,65 +6652,65 @@
       <c r="Y4" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="76" t="s">
+      <c r="Z4" s="138" t="s">
         <v>91</v>
       </c>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="133">
+      <c r="AA4" s="138"/>
+      <c r="AB4" s="138"/>
+      <c r="AC4" s="138"/>
+      <c r="AD4" s="95">
         <v>0.71</v>
       </c>
       <c r="AE4" s="59">
         <v>2.39</v>
       </c>
-      <c r="AG4" s="134" t="s">
+      <c r="AG4" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AH4" s="134"/>
-      <c r="AI4" s="141" t="s">
+      <c r="AH4" s="139"/>
+      <c r="AI4" s="174" t="s">
         <v>52</v>
       </c>
-      <c r="AJ4" s="141"/>
-      <c r="AK4" s="76">
+      <c r="AJ4" s="174"/>
+      <c r="AK4" s="138">
         <v>74330</v>
       </c>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="76">
+      <c r="AL4" s="138"/>
+      <c r="AM4" s="138"/>
+      <c r="AN4" s="138">
         <v>42077</v>
       </c>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="76">
+      <c r="AO4" s="138"/>
+      <c r="AP4" s="138">
         <v>116407</v>
       </c>
-      <c r="AQ4" s="76"/>
-      <c r="AR4" s="76">
+      <c r="AQ4" s="138"/>
+      <c r="AR4" s="138">
         <v>0.64</v>
       </c>
-      <c r="AS4" s="76"/>
+      <c r="AS4" s="138"/>
       <c r="AT4" s="59">
         <v>1.77</v>
       </c>
-      <c r="AV4" s="135" t="s">
+      <c r="AV4" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AW4" s="135"/>
-      <c r="AX4" s="76" t="s">
+      <c r="AW4" s="164"/>
+      <c r="AX4" s="138" t="s">
         <v>112</v>
       </c>
-      <c r="AY4" s="76"/>
-      <c r="AZ4" s="76"/>
-      <c r="BA4" s="76"/>
-      <c r="BB4" s="76"/>
-      <c r="BC4" s="76"/>
-      <c r="BD4" s="76"/>
-      <c r="BE4" s="76"/>
-      <c r="BF4" s="76"/>
-      <c r="BG4" s="76">
+      <c r="AY4" s="138"/>
+      <c r="AZ4" s="138"/>
+      <c r="BA4" s="138"/>
+      <c r="BB4" s="138"/>
+      <c r="BC4" s="138"/>
+      <c r="BD4" s="138"/>
+      <c r="BE4" s="138"/>
+      <c r="BF4" s="138"/>
+      <c r="BG4" s="138">
         <v>0.77</v>
       </c>
-      <c r="BH4" s="76"/>
+      <c r="BH4" s="138"/>
       <c r="BI4" s="59">
         <v>3.31</v>
       </c>
@@ -6394,19 +6719,19 @@
       <c r="A5" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B5" s="94" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="133">
+      <c r="C5" s="95">
         <v>4</v>
       </c>
-      <c r="D5" s="133">
+      <c r="D5" s="95">
         <v>2</v>
       </c>
-      <c r="E5" s="133">
+      <c r="E5" s="95">
         <v>6</v>
       </c>
-      <c r="F5" s="133">
+      <c r="F5" s="95">
         <v>0.67</v>
       </c>
       <c r="G5" s="59">
@@ -6415,13 +6740,13 @@
       <c r="I5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="76" t="s">
+      <c r="J5" s="138" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="133">
+      <c r="K5" s="138"/>
+      <c r="L5" s="138"/>
+      <c r="M5" s="138"/>
+      <c r="N5" s="95">
         <v>0.71</v>
       </c>
       <c r="O5" s="59">
@@ -6430,7 +6755,7 @@
       <c r="Q5" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="R5" s="132" t="s">
+      <c r="R5" s="94" t="s">
         <v>53</v>
       </c>
       <c r="S5" s="57">
@@ -6442,7 +6767,7 @@
       <c r="U5" s="57">
         <v>1465</v>
       </c>
-      <c r="V5" s="133">
+      <c r="V5" s="95">
         <v>0.82</v>
       </c>
       <c r="W5" s="59">
@@ -6451,65 +6776,65 @@
       <c r="Y5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="76" t="s">
+      <c r="Z5" s="138" t="s">
         <v>92</v>
       </c>
-      <c r="AA5" s="76"/>
-      <c r="AB5" s="76"/>
-      <c r="AC5" s="76"/>
-      <c r="AD5" s="133">
+      <c r="AA5" s="138"/>
+      <c r="AB5" s="138"/>
+      <c r="AC5" s="138"/>
+      <c r="AD5" s="95">
         <v>0.6</v>
       </c>
       <c r="AE5" s="59">
         <v>1.5</v>
       </c>
-      <c r="AG5" s="134" t="s">
+      <c r="AG5" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AH5" s="134"/>
-      <c r="AI5" s="141" t="s">
+      <c r="AH5" s="139"/>
+      <c r="AI5" s="174" t="s">
         <v>53</v>
       </c>
-      <c r="AJ5" s="141"/>
-      <c r="AK5" s="76">
+      <c r="AJ5" s="174"/>
+      <c r="AK5" s="138">
         <v>1590</v>
       </c>
-      <c r="AL5" s="76"/>
-      <c r="AM5" s="76"/>
-      <c r="AN5" s="76">
+      <c r="AL5" s="138"/>
+      <c r="AM5" s="138"/>
+      <c r="AN5" s="138">
         <v>648</v>
       </c>
-      <c r="AO5" s="76"/>
-      <c r="AP5" s="76">
+      <c r="AO5" s="138"/>
+      <c r="AP5" s="138">
         <v>2238</v>
       </c>
-      <c r="AQ5" s="76"/>
-      <c r="AR5" s="76">
+      <c r="AQ5" s="138"/>
+      <c r="AR5" s="138">
         <v>0.71</v>
       </c>
-      <c r="AS5" s="76"/>
+      <c r="AS5" s="138"/>
       <c r="AT5" s="59">
         <v>2.4500000000000002</v>
       </c>
-      <c r="AV5" s="135" t="s">
+      <c r="AV5" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AW5" s="135"/>
-      <c r="AX5" s="76" t="s">
+      <c r="AW5" s="164"/>
+      <c r="AX5" s="138" t="s">
         <v>113</v>
       </c>
-      <c r="AY5" s="76"/>
-      <c r="AZ5" s="76"/>
-      <c r="BA5" s="76"/>
-      <c r="BB5" s="76"/>
-      <c r="BC5" s="76"/>
-      <c r="BD5" s="76"/>
-      <c r="BE5" s="76"/>
-      <c r="BF5" s="76"/>
-      <c r="BG5" s="76">
+      <c r="AY5" s="138"/>
+      <c r="AZ5" s="138"/>
+      <c r="BA5" s="138"/>
+      <c r="BB5" s="138"/>
+      <c r="BC5" s="138"/>
+      <c r="BD5" s="138"/>
+      <c r="BE5" s="138"/>
+      <c r="BF5" s="138"/>
+      <c r="BG5" s="138">
         <v>0</v>
       </c>
-      <c r="BH5" s="76"/>
+      <c r="BH5" s="138"/>
       <c r="BI5" s="59">
         <v>0</v>
       </c>
@@ -6524,13 +6849,13 @@
       <c r="C6" s="57">
         <v>94</v>
       </c>
-      <c r="D6" s="133">
+      <c r="D6" s="95">
         <v>72</v>
       </c>
       <c r="E6" s="57">
         <v>166</v>
       </c>
-      <c r="F6" s="133">
+      <c r="F6" s="95">
         <v>0.56999999999999995</v>
       </c>
       <c r="G6" s="59">
@@ -6539,13 +6864,13 @@
       <c r="I6" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="76" t="s">
+      <c r="J6" s="138" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="133">
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
+      <c r="M6" s="138"/>
+      <c r="N6" s="95">
         <v>0.67</v>
       </c>
       <c r="O6" s="59">
@@ -6560,13 +6885,13 @@
       <c r="S6" s="57">
         <v>37</v>
       </c>
-      <c r="T6" s="133">
+      <c r="T6" s="95">
         <v>25</v>
       </c>
       <c r="U6" s="57">
         <v>62</v>
       </c>
-      <c r="V6" s="133">
+      <c r="V6" s="95">
         <v>0.6</v>
       </c>
       <c r="W6" s="59">
@@ -6575,65 +6900,65 @@
       <c r="Y6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z6" s="76" t="s">
+      <c r="Z6" s="138" t="s">
         <v>93</v>
       </c>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="133">
+      <c r="AA6" s="138"/>
+      <c r="AB6" s="138"/>
+      <c r="AC6" s="138"/>
+      <c r="AD6" s="95">
         <v>0.65</v>
       </c>
       <c r="AE6" s="59">
         <v>1.83</v>
       </c>
-      <c r="AG6" s="134" t="s">
+      <c r="AG6" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AH6" s="134"/>
-      <c r="AI6" s="76" t="s">
+      <c r="AH6" s="139"/>
+      <c r="AI6" s="138" t="s">
         <v>3</v>
       </c>
-      <c r="AJ6" s="76"/>
-      <c r="AK6" s="76">
+      <c r="AJ6" s="138"/>
+      <c r="AK6" s="138">
         <v>289</v>
       </c>
-      <c r="AL6" s="76"/>
-      <c r="AM6" s="76"/>
-      <c r="AN6" s="76">
+      <c r="AL6" s="138"/>
+      <c r="AM6" s="138"/>
+      <c r="AN6" s="138">
         <v>171</v>
       </c>
-      <c r="AO6" s="76"/>
-      <c r="AP6" s="134">
+      <c r="AO6" s="138"/>
+      <c r="AP6" s="139">
         <v>460</v>
       </c>
-      <c r="AQ6" s="134"/>
-      <c r="AR6" s="76">
+      <c r="AQ6" s="139"/>
+      <c r="AR6" s="138">
         <v>0.63</v>
       </c>
-      <c r="AS6" s="76"/>
+      <c r="AS6" s="138"/>
       <c r="AT6" s="59">
         <v>1.69</v>
       </c>
-      <c r="AV6" s="135" t="s">
+      <c r="AV6" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AW6" s="135"/>
-      <c r="AX6" s="76" t="s">
+      <c r="AW6" s="164"/>
+      <c r="AX6" s="138" t="s">
         <v>114</v>
       </c>
-      <c r="AY6" s="76"/>
-      <c r="AZ6" s="76"/>
-      <c r="BA6" s="76"/>
-      <c r="BB6" s="76"/>
-      <c r="BC6" s="76"/>
-      <c r="BD6" s="76"/>
-      <c r="BE6" s="76"/>
-      <c r="BF6" s="76"/>
-      <c r="BG6" s="76">
+      <c r="AY6" s="138"/>
+      <c r="AZ6" s="138"/>
+      <c r="BA6" s="138"/>
+      <c r="BB6" s="138"/>
+      <c r="BC6" s="138"/>
+      <c r="BD6" s="138"/>
+      <c r="BE6" s="138"/>
+      <c r="BF6" s="138"/>
+      <c r="BG6" s="138">
         <v>0</v>
       </c>
-      <c r="BH6" s="76"/>
+      <c r="BH6" s="138"/>
       <c r="BI6" s="59">
         <v>0</v>
       </c>
@@ -6642,7 +6967,7 @@
       <c r="A7" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="94" t="s">
         <v>54</v>
       </c>
       <c r="C7" s="57">
@@ -6654,7 +6979,7 @@
       <c r="E7" s="57">
         <v>588</v>
       </c>
-      <c r="F7" s="133">
+      <c r="F7" s="95">
         <v>0.53</v>
       </c>
       <c r="G7" s="59">
@@ -6663,13 +6988,13 @@
       <c r="I7" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="76" t="s">
+      <c r="J7" s="138" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="76"/>
-      <c r="L7" s="76"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="133">
+      <c r="K7" s="138"/>
+      <c r="L7" s="138"/>
+      <c r="M7" s="138"/>
+      <c r="N7" s="95">
         <v>0.64</v>
       </c>
       <c r="O7" s="59">
@@ -6678,7 +7003,7 @@
       <c r="Q7" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="132" t="s">
+      <c r="R7" s="94" t="s">
         <v>54</v>
       </c>
       <c r="S7" s="57">
@@ -6690,7 +7015,7 @@
       <c r="U7" s="57">
         <v>588</v>
       </c>
-      <c r="V7" s="133">
+      <c r="V7" s="95">
         <v>0.59</v>
       </c>
       <c r="W7" s="59">
@@ -6699,65 +7024,65 @@
       <c r="Y7" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z7" s="76" t="s">
+      <c r="Z7" s="138" t="s">
         <v>94</v>
       </c>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="76"/>
-      <c r="AD7" s="133">
+      <c r="AA7" s="138"/>
+      <c r="AB7" s="138"/>
+      <c r="AC7" s="138"/>
+      <c r="AD7" s="95">
         <v>0.74</v>
       </c>
       <c r="AE7" s="59">
         <v>2.84</v>
       </c>
-      <c r="AG7" s="134" t="s">
+      <c r="AG7" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="134"/>
-      <c r="AI7" s="141" t="s">
+      <c r="AH7" s="139"/>
+      <c r="AI7" s="174" t="s">
         <v>54</v>
       </c>
-      <c r="AJ7" s="141"/>
-      <c r="AK7" s="76">
+      <c r="AJ7" s="174"/>
+      <c r="AK7" s="138">
         <v>18888</v>
       </c>
-      <c r="AL7" s="76"/>
-      <c r="AM7" s="76"/>
-      <c r="AN7" s="76">
+      <c r="AL7" s="138"/>
+      <c r="AM7" s="138"/>
+      <c r="AN7" s="138">
         <v>10189</v>
       </c>
-      <c r="AO7" s="76"/>
-      <c r="AP7" s="76">
+      <c r="AO7" s="138"/>
+      <c r="AP7" s="138">
         <v>29077</v>
       </c>
-      <c r="AQ7" s="76"/>
-      <c r="AR7" s="76">
+      <c r="AQ7" s="138"/>
+      <c r="AR7" s="138">
         <v>0.65</v>
       </c>
-      <c r="AS7" s="76"/>
+      <c r="AS7" s="138"/>
       <c r="AT7" s="59">
         <v>1.85</v>
       </c>
-      <c r="AV7" s="135" t="s">
+      <c r="AV7" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AW7" s="135"/>
-      <c r="AX7" s="76" t="s">
+      <c r="AW7" s="164"/>
+      <c r="AX7" s="138" t="s">
         <v>115</v>
       </c>
-      <c r="AY7" s="76"/>
-      <c r="AZ7" s="76"/>
-      <c r="BA7" s="76"/>
-      <c r="BB7" s="76"/>
-      <c r="BC7" s="76"/>
-      <c r="BD7" s="76"/>
-      <c r="BE7" s="76"/>
-      <c r="BF7" s="76"/>
-      <c r="BG7" s="76">
+      <c r="AY7" s="138"/>
+      <c r="AZ7" s="138"/>
+      <c r="BA7" s="138"/>
+      <c r="BB7" s="138"/>
+      <c r="BC7" s="138"/>
+      <c r="BD7" s="138"/>
+      <c r="BE7" s="138"/>
+      <c r="BF7" s="138"/>
+      <c r="BG7" s="138">
         <v>0</v>
       </c>
-      <c r="BH7" s="76"/>
+      <c r="BH7" s="138"/>
       <c r="BI7" s="59">
         <v>0</v>
       </c>
@@ -6778,7 +7103,7 @@
       <c r="E8" s="57">
         <v>45230</v>
       </c>
-      <c r="F8" s="133">
+      <c r="F8" s="95">
         <v>0.66</v>
       </c>
       <c r="G8" s="59">
@@ -6787,13 +7112,13 @@
       <c r="I8" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="138" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="76"/>
-      <c r="L8" s="76"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="133">
+      <c r="K8" s="138"/>
+      <c r="L8" s="138"/>
+      <c r="M8" s="138"/>
+      <c r="N8" s="95">
         <v>0.61</v>
       </c>
       <c r="O8" s="59">
@@ -6814,7 +7139,7 @@
       <c r="U8" s="57">
         <v>9207</v>
       </c>
-      <c r="V8" s="133">
+      <c r="V8" s="95">
         <v>0.54</v>
       </c>
       <c r="W8" s="59">
@@ -6823,65 +7148,65 @@
       <c r="Y8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="76" t="s">
+      <c r="Z8" s="138" t="s">
         <v>95</v>
       </c>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="76"/>
-      <c r="AC8" s="76"/>
-      <c r="AD8" s="133">
+      <c r="AA8" s="138"/>
+      <c r="AB8" s="138"/>
+      <c r="AC8" s="138"/>
+      <c r="AD8" s="95">
         <v>0.77</v>
       </c>
       <c r="AE8" s="59">
         <v>3.32</v>
       </c>
-      <c r="AG8" s="134" t="s">
+      <c r="AG8" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AH8" s="134"/>
-      <c r="AI8" s="76" t="s">
+      <c r="AH8" s="139"/>
+      <c r="AI8" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="AJ8" s="76"/>
-      <c r="AK8" s="76">
+      <c r="AJ8" s="138"/>
+      <c r="AK8" s="138">
         <v>97213</v>
       </c>
-      <c r="AL8" s="76"/>
-      <c r="AM8" s="76"/>
-      <c r="AN8" s="76">
+      <c r="AL8" s="138"/>
+      <c r="AM8" s="138"/>
+      <c r="AN8" s="138">
         <v>44417</v>
       </c>
-      <c r="AO8" s="76"/>
-      <c r="AP8" s="76">
+      <c r="AO8" s="138"/>
+      <c r="AP8" s="138">
         <v>141630</v>
       </c>
-      <c r="AQ8" s="76"/>
-      <c r="AR8" s="76">
+      <c r="AQ8" s="138"/>
+      <c r="AR8" s="138">
         <v>0.69</v>
       </c>
-      <c r="AS8" s="76"/>
+      <c r="AS8" s="138"/>
       <c r="AT8" s="59">
         <v>2.19</v>
       </c>
-      <c r="AV8" s="135" t="s">
+      <c r="AV8" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AW8" s="135"/>
-      <c r="AX8" s="76" t="s">
+      <c r="AW8" s="164"/>
+      <c r="AX8" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="AY8" s="76"/>
-      <c r="AZ8" s="76"/>
-      <c r="BA8" s="76"/>
-      <c r="BB8" s="76"/>
-      <c r="BC8" s="76"/>
-      <c r="BD8" s="76"/>
-      <c r="BE8" s="76"/>
-      <c r="BF8" s="76"/>
-      <c r="BG8" s="76">
+      <c r="AY8" s="138"/>
+      <c r="AZ8" s="138"/>
+      <c r="BA8" s="138"/>
+      <c r="BB8" s="138"/>
+      <c r="BC8" s="138"/>
+      <c r="BD8" s="138"/>
+      <c r="BE8" s="138"/>
+      <c r="BF8" s="138"/>
+      <c r="BG8" s="138">
         <v>0.61</v>
       </c>
-      <c r="BH8" s="76"/>
+      <c r="BH8" s="138"/>
       <c r="BI8" s="59">
         <v>1.57</v>
       </c>
@@ -6890,7 +7215,7 @@
       <c r="A9" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="133" t="s">
+      <c r="B9" s="95" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="57">
@@ -6902,7 +7227,7 @@
       <c r="E9" s="57">
         <v>1966</v>
       </c>
-      <c r="F9" s="133">
+      <c r="F9" s="95">
         <v>0.55000000000000004</v>
       </c>
       <c r="G9" s="59">
@@ -6911,13 +7236,13 @@
       <c r="I9" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="76" t="s">
+      <c r="J9" s="138" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="133">
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="95">
         <v>0.7</v>
       </c>
       <c r="O9" s="59">
@@ -6926,7 +7251,7 @@
       <c r="Q9" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="R9" s="133" t="s">
+      <c r="R9" s="95" t="s">
         <v>6</v>
       </c>
       <c r="S9" s="57">
@@ -6938,7 +7263,7 @@
       <c r="U9" s="57">
         <v>288</v>
       </c>
-      <c r="V9" s="133">
+      <c r="V9" s="95">
         <v>0.55000000000000004</v>
       </c>
       <c r="W9" s="59">
@@ -6947,65 +7272,65 @@
       <c r="Y9" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="76" t="s">
+      <c r="Z9" s="138" t="s">
         <v>96</v>
       </c>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="133">
+      <c r="AA9" s="138"/>
+      <c r="AB9" s="138"/>
+      <c r="AC9" s="138"/>
+      <c r="AD9" s="95">
         <v>0.79</v>
       </c>
       <c r="AE9" s="59">
         <v>3.78</v>
       </c>
-      <c r="AG9" s="134" t="s">
+      <c r="AG9" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AH9" s="134"/>
-      <c r="AI9" s="134" t="s">
+      <c r="AH9" s="139"/>
+      <c r="AI9" s="139" t="s">
         <v>6</v>
       </c>
-      <c r="AJ9" s="134"/>
-      <c r="AK9" s="76">
+      <c r="AJ9" s="139"/>
+      <c r="AK9" s="138">
         <v>18418</v>
       </c>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="76"/>
-      <c r="AN9" s="76">
+      <c r="AL9" s="138"/>
+      <c r="AM9" s="138"/>
+      <c r="AN9" s="138">
         <v>7419</v>
       </c>
-      <c r="AO9" s="76"/>
-      <c r="AP9" s="76">
+      <c r="AO9" s="138"/>
+      <c r="AP9" s="138">
         <v>25837</v>
       </c>
-      <c r="AQ9" s="76"/>
-      <c r="AR9" s="76">
+      <c r="AQ9" s="138"/>
+      <c r="AR9" s="138">
         <v>0.71</v>
       </c>
-      <c r="AS9" s="76"/>
+      <c r="AS9" s="138"/>
       <c r="AT9" s="59">
         <v>2.48</v>
       </c>
-      <c r="AV9" s="135" t="s">
+      <c r="AV9" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AW9" s="135"/>
-      <c r="AX9" s="76" t="s">
+      <c r="AW9" s="164"/>
+      <c r="AX9" s="138" t="s">
         <v>117</v>
       </c>
-      <c r="AY9" s="76"/>
-      <c r="AZ9" s="76"/>
-      <c r="BA9" s="76"/>
-      <c r="BB9" s="76"/>
-      <c r="BC9" s="76"/>
-      <c r="BD9" s="76"/>
-      <c r="BE9" s="76"/>
-      <c r="BF9" s="76"/>
-      <c r="BG9" s="76">
+      <c r="AY9" s="138"/>
+      <c r="AZ9" s="138"/>
+      <c r="BA9" s="138"/>
+      <c r="BB9" s="138"/>
+      <c r="BC9" s="138"/>
+      <c r="BD9" s="138"/>
+      <c r="BE9" s="138"/>
+      <c r="BF9" s="138"/>
+      <c r="BG9" s="138">
         <v>0.75</v>
       </c>
-      <c r="BH9" s="76"/>
+      <c r="BH9" s="138"/>
       <c r="BI9" s="59">
         <v>3.03</v>
       </c>
@@ -7014,7 +7339,7 @@
       <c r="A10" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="133" t="s">
+      <c r="B10" s="95" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="57">
@@ -7026,7 +7351,7 @@
       <c r="E10" s="57">
         <v>1805</v>
       </c>
-      <c r="F10" s="133">
+      <c r="F10" s="95">
         <v>0.66</v>
       </c>
       <c r="G10" s="59">
@@ -7035,13 +7360,13 @@
       <c r="I10" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="76" t="s">
+      <c r="J10" s="138" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="133">
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="95">
         <v>0.63</v>
       </c>
       <c r="O10" s="59">
@@ -7050,7 +7375,7 @@
       <c r="Q10" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="R10" s="133" t="s">
+      <c r="R10" s="95" t="s">
         <v>7</v>
       </c>
       <c r="S10" s="57">
@@ -7062,7 +7387,7 @@
       <c r="U10" s="57">
         <v>1011</v>
       </c>
-      <c r="V10" s="133">
+      <c r="V10" s="95">
         <v>0.67</v>
       </c>
       <c r="W10" s="59">
@@ -7071,65 +7396,65 @@
       <c r="Y10" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="76" t="s">
+      <c r="Z10" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="133">
+      <c r="AA10" s="138"/>
+      <c r="AB10" s="138"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="95">
         <v>0.77</v>
       </c>
       <c r="AE10" s="59">
         <v>3.35</v>
       </c>
-      <c r="AG10" s="134" t="s">
+      <c r="AG10" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AH10" s="134"/>
-      <c r="AI10" s="134" t="s">
+      <c r="AH10" s="139"/>
+      <c r="AI10" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="AJ10" s="134"/>
-      <c r="AK10" s="76">
+      <c r="AJ10" s="139"/>
+      <c r="AK10" s="138">
         <v>1860</v>
       </c>
-      <c r="AL10" s="76"/>
-      <c r="AM10" s="76"/>
-      <c r="AN10" s="76">
+      <c r="AL10" s="138"/>
+      <c r="AM10" s="138"/>
+      <c r="AN10" s="138">
         <v>1235</v>
       </c>
-      <c r="AO10" s="76"/>
-      <c r="AP10" s="76">
+      <c r="AO10" s="138"/>
+      <c r="AP10" s="138">
         <v>3095</v>
       </c>
-      <c r="AQ10" s="76"/>
-      <c r="AR10" s="76">
+      <c r="AQ10" s="138"/>
+      <c r="AR10" s="138">
         <v>0.6</v>
       </c>
-      <c r="AS10" s="76"/>
+      <c r="AS10" s="138"/>
       <c r="AT10" s="59">
         <v>1.51</v>
       </c>
-      <c r="AV10" s="135" t="s">
+      <c r="AV10" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AW10" s="135"/>
-      <c r="AX10" s="76" t="s">
+      <c r="AW10" s="164"/>
+      <c r="AX10" s="138" t="s">
         <v>118</v>
       </c>
-      <c r="AY10" s="76"/>
-      <c r="AZ10" s="76"/>
-      <c r="BA10" s="76"/>
-      <c r="BB10" s="76"/>
-      <c r="BC10" s="76"/>
-      <c r="BD10" s="76"/>
-      <c r="BE10" s="76"/>
-      <c r="BF10" s="76"/>
-      <c r="BG10" s="76">
+      <c r="AY10" s="138"/>
+      <c r="AZ10" s="138"/>
+      <c r="BA10" s="138"/>
+      <c r="BB10" s="138"/>
+      <c r="BC10" s="138"/>
+      <c r="BD10" s="138"/>
+      <c r="BE10" s="138"/>
+      <c r="BF10" s="138"/>
+      <c r="BG10" s="138">
         <v>0.7</v>
       </c>
-      <c r="BH10" s="76"/>
+      <c r="BH10" s="138"/>
       <c r="BI10" s="59">
         <v>2.34</v>
       </c>
@@ -7138,7 +7463,7 @@
       <c r="A11" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="94" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="57">
@@ -7150,7 +7475,7 @@
       <c r="E11" s="57">
         <v>1151</v>
       </c>
-      <c r="F11" s="133">
+      <c r="F11" s="95">
         <v>0.54</v>
       </c>
       <c r="G11" s="59">
@@ -7159,13 +7484,13 @@
       <c r="I11" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="76" t="s">
+      <c r="J11" s="138" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="76"/>
-      <c r="L11" s="76"/>
-      <c r="M11" s="76"/>
-      <c r="N11" s="133">
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="95">
         <v>0.66</v>
       </c>
       <c r="O11" s="59">
@@ -7174,7 +7499,7 @@
       <c r="Q11" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="R11" s="132" t="s">
+      <c r="R11" s="94" t="s">
         <v>8</v>
       </c>
       <c r="S11" s="57">
@@ -7186,7 +7511,7 @@
       <c r="U11" s="57">
         <v>421</v>
       </c>
-      <c r="V11" s="133">
+      <c r="V11" s="95">
         <v>0.54</v>
       </c>
       <c r="W11" s="59">
@@ -7195,65 +7520,65 @@
       <c r="Y11" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z11" s="76" t="s">
+      <c r="Z11" s="138" t="s">
         <v>98</v>
       </c>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="133">
+      <c r="AA11" s="138"/>
+      <c r="AB11" s="138"/>
+      <c r="AC11" s="138"/>
+      <c r="AD11" s="95">
         <v>0.74</v>
       </c>
       <c r="AE11" s="59">
         <v>2.8</v>
       </c>
-      <c r="AG11" s="134" t="s">
+      <c r="AG11" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AH11" s="134"/>
-      <c r="AI11" s="141" t="s">
+      <c r="AH11" s="139"/>
+      <c r="AI11" s="174" t="s">
         <v>8</v>
       </c>
-      <c r="AJ11" s="141"/>
-      <c r="AK11" s="76">
+      <c r="AJ11" s="174"/>
+      <c r="AK11" s="138">
         <v>12657</v>
       </c>
-      <c r="AL11" s="76"/>
-      <c r="AM11" s="76"/>
-      <c r="AN11" s="76">
+      <c r="AL11" s="138"/>
+      <c r="AM11" s="138"/>
+      <c r="AN11" s="138">
         <v>7914</v>
       </c>
-      <c r="AO11" s="76"/>
-      <c r="AP11" s="76">
+      <c r="AO11" s="138"/>
+      <c r="AP11" s="138">
         <v>20571</v>
       </c>
-      <c r="AQ11" s="76"/>
-      <c r="AR11" s="76">
+      <c r="AQ11" s="138"/>
+      <c r="AR11" s="138">
         <v>0.62</v>
       </c>
-      <c r="AS11" s="76"/>
+      <c r="AS11" s="138"/>
       <c r="AT11" s="59">
         <v>1.6</v>
       </c>
-      <c r="AV11" s="135" t="s">
+      <c r="AV11" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AW11" s="135"/>
-      <c r="AX11" s="76" t="s">
+      <c r="AW11" s="164"/>
+      <c r="AX11" s="138" t="s">
         <v>119</v>
       </c>
-      <c r="AY11" s="76"/>
-      <c r="AZ11" s="76"/>
-      <c r="BA11" s="76"/>
-      <c r="BB11" s="76"/>
-      <c r="BC11" s="76"/>
-      <c r="BD11" s="76"/>
-      <c r="BE11" s="76"/>
-      <c r="BF11" s="76"/>
-      <c r="BG11" s="76">
+      <c r="AY11" s="138"/>
+      <c r="AZ11" s="138"/>
+      <c r="BA11" s="138"/>
+      <c r="BB11" s="138"/>
+      <c r="BC11" s="138"/>
+      <c r="BD11" s="138"/>
+      <c r="BE11" s="138"/>
+      <c r="BF11" s="138"/>
+      <c r="BG11" s="138">
         <v>0.59</v>
       </c>
-      <c r="BH11" s="76"/>
+      <c r="BH11" s="138"/>
       <c r="BI11" s="59">
         <v>1.44</v>
       </c>
@@ -7274,7 +7599,7 @@
       <c r="E12" s="57">
         <v>884</v>
       </c>
-      <c r="F12" s="133">
+      <c r="F12" s="95">
         <v>0.56000000000000005</v>
       </c>
       <c r="G12" s="59">
@@ -7283,13 +7608,13 @@
       <c r="I12" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="76" t="s">
+      <c r="J12" s="138" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="133">
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="95">
         <v>0.62</v>
       </c>
       <c r="O12" s="59">
@@ -7310,7 +7635,7 @@
       <c r="U12" s="57">
         <v>339</v>
       </c>
-      <c r="V12" s="133">
+      <c r="V12" s="95">
         <v>0.65</v>
       </c>
       <c r="W12" s="59">
@@ -7319,65 +7644,65 @@
       <c r="Y12" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z12" s="76" t="s">
+      <c r="Z12" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="133">
+      <c r="AA12" s="138"/>
+      <c r="AB12" s="138"/>
+      <c r="AC12" s="138"/>
+      <c r="AD12" s="95">
         <v>0.74</v>
       </c>
       <c r="AE12" s="59">
         <v>2.8</v>
       </c>
-      <c r="AG12" s="134" t="s">
+      <c r="AG12" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AH12" s="134"/>
-      <c r="AI12" s="76" t="s">
+      <c r="AH12" s="139"/>
+      <c r="AI12" s="138" t="s">
         <v>9</v>
       </c>
-      <c r="AJ12" s="76"/>
-      <c r="AK12" s="76">
+      <c r="AJ12" s="138"/>
+      <c r="AK12" s="138">
         <v>16629</v>
       </c>
-      <c r="AL12" s="76"/>
-      <c r="AM12" s="76"/>
-      <c r="AN12" s="76">
+      <c r="AL12" s="138"/>
+      <c r="AM12" s="138"/>
+      <c r="AN12" s="138">
         <v>8990</v>
       </c>
-      <c r="AO12" s="76"/>
-      <c r="AP12" s="76">
+      <c r="AO12" s="138"/>
+      <c r="AP12" s="138">
         <v>25619</v>
       </c>
-      <c r="AQ12" s="76"/>
-      <c r="AR12" s="76">
+      <c r="AQ12" s="138"/>
+      <c r="AR12" s="138">
         <v>0.65</v>
       </c>
-      <c r="AS12" s="76"/>
+      <c r="AS12" s="138"/>
       <c r="AT12" s="59">
         <v>1.85</v>
       </c>
-      <c r="AV12" s="135" t="s">
+      <c r="AV12" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AW12" s="135"/>
-      <c r="AX12" s="76" t="s">
+      <c r="AW12" s="164"/>
+      <c r="AX12" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="AY12" s="76"/>
-      <c r="AZ12" s="76"/>
-      <c r="BA12" s="76"/>
-      <c r="BB12" s="76"/>
-      <c r="BC12" s="76"/>
-      <c r="BD12" s="76"/>
-      <c r="BE12" s="76"/>
-      <c r="BF12" s="76"/>
-      <c r="BG12" s="76">
+      <c r="AY12" s="138"/>
+      <c r="AZ12" s="138"/>
+      <c r="BA12" s="138"/>
+      <c r="BB12" s="138"/>
+      <c r="BC12" s="138"/>
+      <c r="BD12" s="138"/>
+      <c r="BE12" s="138"/>
+      <c r="BF12" s="138"/>
+      <c r="BG12" s="138">
         <v>0</v>
       </c>
-      <c r="BH12" s="76"/>
+      <c r="BH12" s="138"/>
       <c r="BI12" s="59">
         <v>0</v>
       </c>
@@ -7398,7 +7723,7 @@
       <c r="E13" s="57">
         <v>618</v>
       </c>
-      <c r="F13" s="133">
+      <c r="F13" s="95">
         <v>0.64</v>
       </c>
       <c r="G13" s="59">
@@ -7407,13 +7732,13 @@
       <c r="I13" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="76" t="s">
+      <c r="J13" s="138" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="76"/>
-      <c r="L13" s="76"/>
-      <c r="M13" s="76"/>
-      <c r="N13" s="133">
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="95">
         <v>0.6</v>
       </c>
       <c r="O13" s="59">
@@ -7434,7 +7759,7 @@
       <c r="U13" s="57">
         <v>550</v>
       </c>
-      <c r="V13" s="133">
+      <c r="V13" s="95">
         <v>0.57999999999999996</v>
       </c>
       <c r="W13" s="59">
@@ -7443,65 +7768,65 @@
       <c r="Y13" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z13" s="76" t="s">
+      <c r="Z13" s="138" t="s">
         <v>100</v>
       </c>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="76"/>
-      <c r="AD13" s="133">
+      <c r="AA13" s="138"/>
+      <c r="AB13" s="138"/>
+      <c r="AC13" s="138"/>
+      <c r="AD13" s="95">
         <v>0.75</v>
       </c>
       <c r="AE13" s="59">
         <v>3</v>
       </c>
-      <c r="AG13" s="134" t="s">
+      <c r="AG13" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AH13" s="134"/>
-      <c r="AI13" s="76" t="s">
+      <c r="AH13" s="139"/>
+      <c r="AI13" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="AJ13" s="76"/>
-      <c r="AK13" s="76">
+      <c r="AJ13" s="138"/>
+      <c r="AK13" s="138">
         <v>9958</v>
       </c>
-      <c r="AL13" s="76"/>
-      <c r="AM13" s="76"/>
-      <c r="AN13" s="76">
+      <c r="AL13" s="138"/>
+      <c r="AM13" s="138"/>
+      <c r="AN13" s="138">
         <v>6944</v>
       </c>
-      <c r="AO13" s="76"/>
-      <c r="AP13" s="76">
+      <c r="AO13" s="138"/>
+      <c r="AP13" s="138">
         <v>16902</v>
       </c>
-      <c r="AQ13" s="76"/>
-      <c r="AR13" s="76">
+      <c r="AQ13" s="138"/>
+      <c r="AR13" s="138">
         <v>0.59</v>
       </c>
-      <c r="AS13" s="76"/>
+      <c r="AS13" s="138"/>
       <c r="AT13" s="59">
         <v>1.43</v>
       </c>
-      <c r="AV13" s="135" t="s">
+      <c r="AV13" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AW13" s="135"/>
-      <c r="AX13" s="76" t="s">
+      <c r="AW13" s="164"/>
+      <c r="AX13" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="AY13" s="76"/>
-      <c r="AZ13" s="76"/>
-      <c r="BA13" s="76"/>
-      <c r="BB13" s="76"/>
-      <c r="BC13" s="76"/>
-      <c r="BD13" s="76"/>
-      <c r="BE13" s="76"/>
-      <c r="BF13" s="76"/>
-      <c r="BG13" s="76">
+      <c r="AY13" s="138"/>
+      <c r="AZ13" s="138"/>
+      <c r="BA13" s="138"/>
+      <c r="BB13" s="138"/>
+      <c r="BC13" s="138"/>
+      <c r="BD13" s="138"/>
+      <c r="BE13" s="138"/>
+      <c r="BF13" s="138"/>
+      <c r="BG13" s="138">
         <v>0.33</v>
       </c>
-      <c r="BH13" s="76"/>
+      <c r="BH13" s="138"/>
       <c r="BI13" s="59">
         <v>0.5</v>
       </c>
@@ -7510,7 +7835,7 @@
       <c r="A14" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="94" t="s">
         <v>11</v>
       </c>
       <c r="C14" s="57">
@@ -7522,7 +7847,7 @@
       <c r="E14" s="57">
         <v>9672</v>
       </c>
-      <c r="F14" s="133">
+      <c r="F14" s="95">
         <v>0.56999999999999995</v>
       </c>
       <c r="G14" s="59">
@@ -7531,13 +7856,13 @@
       <c r="I14" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="76" t="s">
+      <c r="J14" s="138" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="76"/>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="133">
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="95">
         <v>0.5</v>
       </c>
       <c r="O14" s="59">
@@ -7546,7 +7871,7 @@
       <c r="Q14" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="R14" s="132" t="s">
+      <c r="R14" s="94" t="s">
         <v>11</v>
       </c>
       <c r="S14" s="57">
@@ -7558,7 +7883,7 @@
       <c r="U14" s="57">
         <v>626</v>
       </c>
-      <c r="V14" s="133">
+      <c r="V14" s="95">
         <v>0.39</v>
       </c>
       <c r="W14" s="59">
@@ -7567,65 +7892,65 @@
       <c r="Y14" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z14" s="76" t="s">
+      <c r="Z14" s="138" t="s">
         <v>101</v>
       </c>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="133">
+      <c r="AA14" s="138"/>
+      <c r="AB14" s="138"/>
+      <c r="AC14" s="138"/>
+      <c r="AD14" s="95">
         <v>0.64</v>
       </c>
       <c r="AE14" s="59">
         <v>1.77</v>
       </c>
-      <c r="AG14" s="134" t="s">
+      <c r="AG14" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AH14" s="134"/>
-      <c r="AI14" s="141" t="s">
+      <c r="AH14" s="139"/>
+      <c r="AI14" s="174" t="s">
         <v>11</v>
       </c>
-      <c r="AJ14" s="141"/>
-      <c r="AK14" s="76">
+      <c r="AJ14" s="174"/>
+      <c r="AK14" s="138">
         <v>8456</v>
       </c>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="76"/>
-      <c r="AN14" s="76">
+      <c r="AL14" s="138"/>
+      <c r="AM14" s="138"/>
+      <c r="AN14" s="138">
         <v>6208</v>
       </c>
-      <c r="AO14" s="76"/>
-      <c r="AP14" s="76">
+      <c r="AO14" s="138"/>
+      <c r="AP14" s="138">
         <v>14664</v>
       </c>
-      <c r="AQ14" s="76"/>
-      <c r="AR14" s="76">
+      <c r="AQ14" s="138"/>
+      <c r="AR14" s="138">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AS14" s="76"/>
+      <c r="AS14" s="138"/>
       <c r="AT14" s="59">
         <v>1.36</v>
       </c>
-      <c r="AV14" s="135" t="s">
+      <c r="AV14" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AW14" s="135"/>
-      <c r="AX14" s="76" t="s">
+      <c r="AW14" s="164"/>
+      <c r="AX14" s="138" t="s">
         <v>122</v>
       </c>
-      <c r="AY14" s="76"/>
-      <c r="AZ14" s="76"/>
-      <c r="BA14" s="76"/>
-      <c r="BB14" s="76"/>
-      <c r="BC14" s="76"/>
-      <c r="BD14" s="76"/>
-      <c r="BE14" s="76"/>
-      <c r="BF14" s="76"/>
-      <c r="BG14" s="76">
+      <c r="AY14" s="138"/>
+      <c r="AZ14" s="138"/>
+      <c r="BA14" s="138"/>
+      <c r="BB14" s="138"/>
+      <c r="BC14" s="138"/>
+      <c r="BD14" s="138"/>
+      <c r="BE14" s="138"/>
+      <c r="BF14" s="138"/>
+      <c r="BG14" s="138">
         <v>0.4</v>
       </c>
-      <c r="BH14" s="76"/>
+      <c r="BH14" s="138"/>
       <c r="BI14" s="59">
         <v>0.67</v>
       </c>
@@ -7634,7 +7959,7 @@
       <c r="A15" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="131" t="s">
+      <c r="B15" s="93" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="57">
@@ -7646,7 +7971,7 @@
       <c r="E15" s="57">
         <v>1772</v>
       </c>
-      <c r="F15" s="133">
+      <c r="F15" s="95">
         <v>0.47</v>
       </c>
       <c r="G15" s="59">
@@ -7655,13 +7980,13 @@
       <c r="I15" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="76" t="s">
+      <c r="J15" s="138" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="76"/>
-      <c r="L15" s="76"/>
-      <c r="M15" s="76"/>
-      <c r="N15" s="133">
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="95">
         <v>0.61</v>
       </c>
       <c r="O15" s="59">
@@ -7670,7 +7995,7 @@
       <c r="Q15" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="131" t="s">
+      <c r="R15" s="93" t="s">
         <v>12</v>
       </c>
       <c r="S15" s="57">
@@ -7682,7 +8007,7 @@
       <c r="U15" s="57">
         <v>6625</v>
       </c>
-      <c r="V15" s="133">
+      <c r="V15" s="95">
         <v>0.57999999999999996</v>
       </c>
       <c r="W15" s="59">
@@ -7691,65 +8016,65 @@
       <c r="Y15" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z15" s="76" t="s">
+      <c r="Z15" s="138" t="s">
         <v>102</v>
       </c>
-      <c r="AA15" s="76"/>
-      <c r="AB15" s="76"/>
-      <c r="AC15" s="76"/>
-      <c r="AD15" s="133">
+      <c r="AA15" s="138"/>
+      <c r="AB15" s="138"/>
+      <c r="AC15" s="138"/>
+      <c r="AD15" s="95">
         <v>0.67</v>
       </c>
       <c r="AE15" s="59">
         <v>2.02</v>
       </c>
-      <c r="AG15" s="134" t="s">
+      <c r="AG15" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AH15" s="134"/>
-      <c r="AI15" s="140" t="s">
+      <c r="AH15" s="139"/>
+      <c r="AI15" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="AJ15" s="140"/>
-      <c r="AK15" s="76">
+      <c r="AJ15" s="175"/>
+      <c r="AK15" s="138">
         <v>13577</v>
       </c>
-      <c r="AL15" s="76"/>
-      <c r="AM15" s="76"/>
-      <c r="AN15" s="76">
+      <c r="AL15" s="138"/>
+      <c r="AM15" s="138"/>
+      <c r="AN15" s="138">
         <v>11947</v>
       </c>
-      <c r="AO15" s="76"/>
-      <c r="AP15" s="76">
+      <c r="AO15" s="138"/>
+      <c r="AP15" s="138">
         <v>25524</v>
       </c>
-      <c r="AQ15" s="76"/>
-      <c r="AR15" s="76">
+      <c r="AQ15" s="138"/>
+      <c r="AR15" s="138">
         <v>0.53</v>
       </c>
-      <c r="AS15" s="76"/>
+      <c r="AS15" s="138"/>
       <c r="AT15" s="59">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AV15" s="135" t="s">
+      <c r="AV15" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AW15" s="135"/>
-      <c r="AX15" s="76" t="s">
+      <c r="AW15" s="164"/>
+      <c r="AX15" s="138" t="s">
         <v>123</v>
       </c>
-      <c r="AY15" s="76"/>
-      <c r="AZ15" s="76"/>
-      <c r="BA15" s="76"/>
-      <c r="BB15" s="76"/>
-      <c r="BC15" s="76"/>
-      <c r="BD15" s="76"/>
-      <c r="BE15" s="76"/>
-      <c r="BF15" s="76"/>
-      <c r="BG15" s="76">
+      <c r="AY15" s="138"/>
+      <c r="AZ15" s="138"/>
+      <c r="BA15" s="138"/>
+      <c r="BB15" s="138"/>
+      <c r="BC15" s="138"/>
+      <c r="BD15" s="138"/>
+      <c r="BE15" s="138"/>
+      <c r="BF15" s="138"/>
+      <c r="BG15" s="138">
         <v>0.19</v>
       </c>
-      <c r="BH15" s="76"/>
+      <c r="BH15" s="138"/>
       <c r="BI15" s="59">
         <v>0.24</v>
       </c>
@@ -7758,7 +8083,7 @@
       <c r="A16" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="94" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="57">
@@ -7770,7 +8095,7 @@
       <c r="E16" s="57">
         <v>236</v>
       </c>
-      <c r="F16" s="133">
+      <c r="F16" s="95">
         <v>0.51</v>
       </c>
       <c r="G16" s="59">
@@ -7779,13 +8104,13 @@
       <c r="I16" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="76" t="s">
+      <c r="J16" s="138" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="76"/>
-      <c r="L16" s="76"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="133">
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="95">
         <v>0.51</v>
       </c>
       <c r="O16" s="59">
@@ -7794,19 +8119,19 @@
       <c r="Q16" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="R16" s="132" t="s">
+      <c r="R16" s="94" t="s">
         <v>13</v>
       </c>
       <c r="S16" s="57">
         <v>108</v>
       </c>
-      <c r="T16" s="133">
+      <c r="T16" s="95">
         <v>97</v>
       </c>
       <c r="U16" s="57">
         <v>205</v>
       </c>
-      <c r="V16" s="133">
+      <c r="V16" s="95">
         <v>0.53</v>
       </c>
       <c r="W16" s="59">
@@ -7815,65 +8140,65 @@
       <c r="Y16" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z16" s="76" t="s">
+      <c r="Z16" s="138" t="s">
         <v>103</v>
       </c>
-      <c r="AA16" s="76"/>
-      <c r="AB16" s="76"/>
-      <c r="AC16" s="76"/>
-      <c r="AD16" s="133">
+      <c r="AA16" s="138"/>
+      <c r="AB16" s="138"/>
+      <c r="AC16" s="138"/>
+      <c r="AD16" s="95">
         <v>0.73</v>
       </c>
       <c r="AE16" s="59">
         <v>2.72</v>
       </c>
-      <c r="AG16" s="134" t="s">
+      <c r="AG16" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AH16" s="134"/>
-      <c r="AI16" s="141" t="s">
+      <c r="AH16" s="139"/>
+      <c r="AI16" s="174" t="s">
         <v>13</v>
       </c>
-      <c r="AJ16" s="141"/>
-      <c r="AK16" s="76">
+      <c r="AJ16" s="174"/>
+      <c r="AK16" s="138">
         <v>6169</v>
       </c>
-      <c r="AL16" s="76"/>
-      <c r="AM16" s="76"/>
-      <c r="AN16" s="76">
+      <c r="AL16" s="138"/>
+      <c r="AM16" s="138"/>
+      <c r="AN16" s="138">
         <v>2532</v>
       </c>
-      <c r="AO16" s="76"/>
-      <c r="AP16" s="76">
+      <c r="AO16" s="138"/>
+      <c r="AP16" s="138">
         <v>8701</v>
       </c>
-      <c r="AQ16" s="76"/>
-      <c r="AR16" s="76">
+      <c r="AQ16" s="138"/>
+      <c r="AR16" s="138">
         <v>0.71</v>
       </c>
-      <c r="AS16" s="76"/>
+      <c r="AS16" s="138"/>
       <c r="AT16" s="59">
         <v>2.44</v>
       </c>
-      <c r="AV16" s="135" t="s">
+      <c r="AV16" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AW16" s="135"/>
-      <c r="AX16" s="76" t="s">
+      <c r="AW16" s="164"/>
+      <c r="AX16" s="138" t="s">
         <v>124</v>
       </c>
-      <c r="AY16" s="76"/>
-      <c r="AZ16" s="76"/>
-      <c r="BA16" s="76"/>
-      <c r="BB16" s="76"/>
-      <c r="BC16" s="76"/>
-      <c r="BD16" s="76"/>
-      <c r="BE16" s="76"/>
-      <c r="BF16" s="76"/>
-      <c r="BG16" s="76">
+      <c r="AY16" s="138"/>
+      <c r="AZ16" s="138"/>
+      <c r="BA16" s="138"/>
+      <c r="BB16" s="138"/>
+      <c r="BC16" s="138"/>
+      <c r="BD16" s="138"/>
+      <c r="BE16" s="138"/>
+      <c r="BF16" s="138"/>
+      <c r="BG16" s="138">
         <v>0</v>
       </c>
-      <c r="BH16" s="76"/>
+      <c r="BH16" s="138"/>
       <c r="BI16" s="59">
         <v>0</v>
       </c>
@@ -7888,13 +8213,13 @@
       <c r="C17" s="57">
         <v>57</v>
       </c>
-      <c r="D17" s="133">
+      <c r="D17" s="95">
         <v>85</v>
       </c>
       <c r="E17" s="57">
         <v>142</v>
       </c>
-      <c r="F17" s="133">
+      <c r="F17" s="95">
         <v>0.4</v>
       </c>
       <c r="G17" s="59">
@@ -7903,13 +8228,13 @@
       <c r="I17" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="76" t="s">
+      <c r="J17" s="138" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="76"/>
-      <c r="L17" s="76"/>
-      <c r="M17" s="76"/>
-      <c r="N17" s="133">
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="95">
         <v>0.16</v>
       </c>
       <c r="O17" s="59">
@@ -7930,7 +8255,7 @@
       <c r="U17" s="57">
         <v>1888</v>
       </c>
-      <c r="V17" s="133">
+      <c r="V17" s="95">
         <v>0.7</v>
       </c>
       <c r="W17" s="59">
@@ -7939,65 +8264,65 @@
       <c r="Y17" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z17" s="76" t="s">
+      <c r="Z17" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="AA17" s="76"/>
-      <c r="AB17" s="76"/>
-      <c r="AC17" s="76"/>
-      <c r="AD17" s="133">
+      <c r="AA17" s="138"/>
+      <c r="AB17" s="138"/>
+      <c r="AC17" s="138"/>
+      <c r="AD17" s="95">
         <v>0.64</v>
       </c>
       <c r="AE17" s="59">
         <v>1.78</v>
       </c>
-      <c r="AG17" s="134" t="s">
+      <c r="AG17" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AH17" s="134"/>
-      <c r="AI17" s="76" t="s">
+      <c r="AH17" s="139"/>
+      <c r="AI17" s="138" t="s">
         <v>14</v>
       </c>
-      <c r="AJ17" s="76"/>
-      <c r="AK17" s="76">
+      <c r="AJ17" s="138"/>
+      <c r="AK17" s="138">
         <v>2985</v>
       </c>
-      <c r="AL17" s="76"/>
-      <c r="AM17" s="76"/>
-      <c r="AN17" s="76">
+      <c r="AL17" s="138"/>
+      <c r="AM17" s="138"/>
+      <c r="AN17" s="138">
         <v>1713</v>
       </c>
-      <c r="AO17" s="76"/>
-      <c r="AP17" s="76">
+      <c r="AO17" s="138"/>
+      <c r="AP17" s="138">
         <v>4698</v>
       </c>
-      <c r="AQ17" s="76"/>
-      <c r="AR17" s="76">
+      <c r="AQ17" s="138"/>
+      <c r="AR17" s="138">
         <v>0.64</v>
       </c>
-      <c r="AS17" s="76"/>
+      <c r="AS17" s="138"/>
       <c r="AT17" s="59">
         <v>1.74</v>
       </c>
-      <c r="AV17" s="135" t="s">
+      <c r="AV17" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AW17" s="135"/>
-      <c r="AX17" s="76" t="s">
+      <c r="AW17" s="164"/>
+      <c r="AX17" s="138" t="s">
         <v>125</v>
       </c>
-      <c r="AY17" s="76"/>
-      <c r="AZ17" s="76"/>
-      <c r="BA17" s="76"/>
-      <c r="BB17" s="76"/>
-      <c r="BC17" s="76"/>
-      <c r="BD17" s="76"/>
-      <c r="BE17" s="76"/>
-      <c r="BF17" s="76"/>
-      <c r="BG17" s="76">
+      <c r="AY17" s="138"/>
+      <c r="AZ17" s="138"/>
+      <c r="BA17" s="138"/>
+      <c r="BB17" s="138"/>
+      <c r="BC17" s="138"/>
+      <c r="BD17" s="138"/>
+      <c r="BE17" s="138"/>
+      <c r="BF17" s="138"/>
+      <c r="BG17" s="138">
         <v>0.56999999999999995</v>
       </c>
-      <c r="BH17" s="76"/>
+      <c r="BH17" s="138"/>
       <c r="BI17" s="59">
         <v>1.33</v>
       </c>
@@ -8012,13 +8337,13 @@
       <c r="C18" s="57">
         <v>154</v>
       </c>
-      <c r="D18" s="133">
+      <c r="D18" s="95">
         <v>57</v>
       </c>
       <c r="E18" s="57">
         <v>211</v>
       </c>
-      <c r="F18" s="133">
+      <c r="F18" s="95">
         <v>0.73</v>
       </c>
       <c r="G18" s="59">
@@ -8027,13 +8352,13 @@
       <c r="I18" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="76" t="s">
+      <c r="J18" s="138" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="76"/>
-      <c r="L18" s="76"/>
-      <c r="M18" s="76"/>
-      <c r="N18" s="133">
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="95">
         <v>0.53</v>
       </c>
       <c r="O18" s="59">
@@ -8054,7 +8379,7 @@
       <c r="U18" s="57">
         <v>5028</v>
       </c>
-      <c r="V18" s="133">
+      <c r="V18" s="95">
         <v>0.81</v>
       </c>
       <c r="W18" s="59">
@@ -8063,65 +8388,65 @@
       <c r="Y18" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z18" s="76" t="s">
+      <c r="Z18" s="138" t="s">
         <v>105</v>
       </c>
-      <c r="AA18" s="76"/>
-      <c r="AB18" s="76"/>
-      <c r="AC18" s="76"/>
-      <c r="AD18" s="133">
+      <c r="AA18" s="138"/>
+      <c r="AB18" s="138"/>
+      <c r="AC18" s="138"/>
+      <c r="AD18" s="95">
         <v>0.81</v>
       </c>
       <c r="AE18" s="59">
         <v>4.1399999999999997</v>
       </c>
-      <c r="AG18" s="134" t="s">
+      <c r="AG18" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AH18" s="134"/>
-      <c r="AI18" s="76" t="s">
+      <c r="AH18" s="139"/>
+      <c r="AI18" s="138" t="s">
         <v>15</v>
       </c>
-      <c r="AJ18" s="76"/>
-      <c r="AK18" s="76">
+      <c r="AJ18" s="138"/>
+      <c r="AK18" s="138">
         <v>7047</v>
       </c>
-      <c r="AL18" s="76"/>
-      <c r="AM18" s="76"/>
-      <c r="AN18" s="76">
+      <c r="AL18" s="138"/>
+      <c r="AM18" s="138"/>
+      <c r="AN18" s="138">
         <v>2331</v>
       </c>
-      <c r="AO18" s="76"/>
-      <c r="AP18" s="76">
+      <c r="AO18" s="138"/>
+      <c r="AP18" s="138">
         <v>9378</v>
       </c>
-      <c r="AQ18" s="76"/>
-      <c r="AR18" s="76">
+      <c r="AQ18" s="138"/>
+      <c r="AR18" s="138">
         <v>0.75</v>
       </c>
-      <c r="AS18" s="76"/>
+      <c r="AS18" s="138"/>
       <c r="AT18" s="59">
         <v>3.02</v>
       </c>
-      <c r="AV18" s="135" t="s">
+      <c r="AV18" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AW18" s="135"/>
-      <c r="AX18" s="76" t="s">
+      <c r="AW18" s="164"/>
+      <c r="AX18" s="138" t="s">
         <v>126</v>
       </c>
-      <c r="AY18" s="76"/>
-      <c r="AZ18" s="76"/>
-      <c r="BA18" s="76"/>
-      <c r="BB18" s="76"/>
-      <c r="BC18" s="76"/>
-      <c r="BD18" s="76"/>
-      <c r="BE18" s="76"/>
-      <c r="BF18" s="76"/>
-      <c r="BG18" s="76">
+      <c r="AY18" s="138"/>
+      <c r="AZ18" s="138"/>
+      <c r="BA18" s="138"/>
+      <c r="BB18" s="138"/>
+      <c r="BC18" s="138"/>
+      <c r="BD18" s="138"/>
+      <c r="BE18" s="138"/>
+      <c r="BF18" s="138"/>
+      <c r="BG18" s="138">
         <v>0</v>
       </c>
-      <c r="BH18" s="76"/>
+      <c r="BH18" s="138"/>
       <c r="BI18" s="59">
         <v>0</v>
       </c>
@@ -8142,7 +8467,7 @@
       <c r="E19" s="57">
         <v>30101</v>
       </c>
-      <c r="F19" s="133">
+      <c r="F19" s="95">
         <v>0.63</v>
       </c>
       <c r="G19" s="59">
@@ -8151,13 +8476,13 @@
       <c r="I19" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="76" t="s">
+      <c r="J19" s="138" t="s">
         <v>85</v>
       </c>
-      <c r="K19" s="76"/>
-      <c r="L19" s="76"/>
-      <c r="M19" s="76"/>
-      <c r="N19" s="133">
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="95">
         <v>0.55000000000000004</v>
       </c>
       <c r="O19" s="59">
@@ -8178,7 +8503,7 @@
       <c r="U19" s="57">
         <v>35379</v>
       </c>
-      <c r="V19" s="133">
+      <c r="V19" s="95">
         <v>0.65</v>
       </c>
       <c r="W19" s="59">
@@ -8187,71 +8512,71 @@
       <c r="Y19" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z19" s="76" t="s">
+      <c r="Z19" s="138" t="s">
         <v>106</v>
       </c>
-      <c r="AA19" s="76"/>
-      <c r="AB19" s="76"/>
-      <c r="AC19" s="76"/>
-      <c r="AD19" s="133">
+      <c r="AA19" s="138"/>
+      <c r="AB19" s="138"/>
+      <c r="AC19" s="138"/>
+      <c r="AD19" s="95">
         <v>0.73</v>
       </c>
       <c r="AE19" s="59">
         <v>2.67</v>
       </c>
-      <c r="AG19" s="134" t="s">
+      <c r="AG19" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AH19" s="134"/>
-      <c r="AI19" s="76" t="s">
+      <c r="AH19" s="139"/>
+      <c r="AI19" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="AJ19" s="76"/>
-      <c r="AK19" s="76">
+      <c r="AJ19" s="138"/>
+      <c r="AK19" s="138">
         <v>40855</v>
       </c>
-      <c r="AL19" s="76"/>
-      <c r="AM19" s="76"/>
-      <c r="AN19" s="76">
+      <c r="AL19" s="138"/>
+      <c r="AM19" s="138"/>
+      <c r="AN19" s="138">
         <v>24659</v>
       </c>
-      <c r="AO19" s="76"/>
-      <c r="AP19" s="76">
+      <c r="AO19" s="138"/>
+      <c r="AP19" s="138">
         <v>65514</v>
       </c>
-      <c r="AQ19" s="76"/>
-      <c r="AR19" s="76">
+      <c r="AQ19" s="138"/>
+      <c r="AR19" s="138">
         <v>0.62</v>
       </c>
-      <c r="AS19" s="76"/>
+      <c r="AS19" s="138"/>
       <c r="AT19" s="59">
         <v>1.66</v>
       </c>
-      <c r="AV19" s="135" t="s">
+      <c r="AV19" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AW19" s="135"/>
-      <c r="AX19" s="76" t="s">
+      <c r="AW19" s="164"/>
+      <c r="AX19" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="AY19" s="76"/>
-      <c r="AZ19" s="76"/>
-      <c r="BA19" s="76"/>
-      <c r="BB19" s="76"/>
-      <c r="BC19" s="76"/>
-      <c r="BD19" s="76"/>
-      <c r="BE19" s="76"/>
-      <c r="BF19" s="76"/>
-      <c r="BG19" s="76">
+      <c r="AY19" s="138"/>
+      <c r="AZ19" s="138"/>
+      <c r="BA19" s="138"/>
+      <c r="BB19" s="138"/>
+      <c r="BC19" s="138"/>
+      <c r="BD19" s="138"/>
+      <c r="BE19" s="138"/>
+      <c r="BF19" s="138"/>
+      <c r="BG19" s="138">
         <v>0.54</v>
       </c>
-      <c r="BH19" s="76"/>
+      <c r="BH19" s="138"/>
       <c r="BI19" s="59">
         <v>1.18</v>
       </c>
     </row>
     <row r="20" spans="1:61" ht="28" x14ac:dyDescent="0.2">
-      <c r="A20" s="76" t="s">
+      <c r="A20" s="138" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="57" t="s">
@@ -8260,34 +8585,34 @@
       <c r="C20" s="57">
         <v>79</v>
       </c>
-      <c r="D20" s="133">
+      <c r="D20" s="95">
         <v>47</v>
       </c>
       <c r="E20" s="57">
         <v>126</v>
       </c>
-      <c r="F20" s="134">
+      <c r="F20" s="139">
         <v>0.63</v>
       </c>
-      <c r="G20" s="135">
+      <c r="G20" s="164">
         <v>1.68</v>
       </c>
-      <c r="I20" s="76" t="s">
+      <c r="I20" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="76" t="s">
+      <c r="J20" s="138" t="s">
         <v>86</v>
       </c>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="134">
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="139">
         <v>0.25</v>
       </c>
-      <c r="O20" s="135">
+      <c r="O20" s="164">
         <v>0.33</v>
       </c>
-      <c r="Q20" s="76" t="s">
+      <c r="Q20" s="138" t="s">
         <v>22</v>
       </c>
       <c r="R20" s="57" t="s">
@@ -8296,156 +8621,156 @@
       <c r="S20" s="57">
         <v>46</v>
       </c>
-      <c r="T20" s="133">
+      <c r="T20" s="95">
         <v>49</v>
       </c>
       <c r="U20" s="57">
         <v>95</v>
       </c>
-      <c r="V20" s="134">
+      <c r="V20" s="139">
         <v>0.48</v>
       </c>
-      <c r="W20" s="135">
+      <c r="W20" s="164">
         <v>0.94</v>
       </c>
-      <c r="Y20" s="76" t="s">
+      <c r="Y20" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="Z20" s="76" t="s">
+      <c r="Z20" s="138" t="s">
         <v>107</v>
       </c>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="76"/>
-      <c r="AD20" s="134">
+      <c r="AA20" s="138"/>
+      <c r="AB20" s="138"/>
+      <c r="AC20" s="138"/>
+      <c r="AD20" s="139">
         <v>0.71</v>
       </c>
-      <c r="AE20" s="135">
+      <c r="AE20" s="164">
         <v>2.46</v>
       </c>
-      <c r="AG20" s="134" t="s">
+      <c r="AG20" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="AH20" s="134"/>
-      <c r="AI20" s="76" t="s">
+      <c r="AH20" s="139"/>
+      <c r="AI20" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="AJ20" s="76"/>
-      <c r="AK20" s="76">
+      <c r="AJ20" s="138"/>
+      <c r="AK20" s="138">
         <v>3201</v>
       </c>
-      <c r="AL20" s="76"/>
-      <c r="AM20" s="76"/>
-      <c r="AN20" s="76">
+      <c r="AL20" s="138"/>
+      <c r="AM20" s="138"/>
+      <c r="AN20" s="138">
         <v>1383</v>
       </c>
-      <c r="AO20" s="76"/>
-      <c r="AP20" s="76">
+      <c r="AO20" s="138"/>
+      <c r="AP20" s="138">
         <v>4584</v>
       </c>
-      <c r="AQ20" s="76"/>
-      <c r="AR20" s="76">
+      <c r="AQ20" s="138"/>
+      <c r="AR20" s="138">
         <v>0.7</v>
       </c>
-      <c r="AS20" s="76"/>
-      <c r="AT20" s="135">
+      <c r="AS20" s="138"/>
+      <c r="AT20" s="164">
         <v>2.31</v>
       </c>
-      <c r="AV20" s="135" t="s">
+      <c r="AV20" s="164" t="s">
         <v>23</v>
       </c>
-      <c r="AW20" s="135"/>
-      <c r="AX20" s="76" t="s">
+      <c r="AW20" s="164"/>
+      <c r="AX20" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="AY20" s="76"/>
-      <c r="AZ20" s="76"/>
-      <c r="BA20" s="76"/>
-      <c r="BB20" s="76"/>
-      <c r="BC20" s="76"/>
-      <c r="BD20" s="76"/>
-      <c r="BE20" s="76"/>
-      <c r="BF20" s="76"/>
-      <c r="BG20" s="76">
+      <c r="AY20" s="138"/>
+      <c r="AZ20" s="138"/>
+      <c r="BA20" s="138"/>
+      <c r="BB20" s="138"/>
+      <c r="BC20" s="138"/>
+      <c r="BD20" s="138"/>
+      <c r="BE20" s="138"/>
+      <c r="BF20" s="138"/>
+      <c r="BG20" s="138">
         <v>0</v>
       </c>
-      <c r="BH20" s="76"/>
-      <c r="BI20" s="135">
+      <c r="BH20" s="138"/>
+      <c r="BI20" s="164">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:61" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
-      <c r="B21" s="136" t="s">
+      <c r="A21" s="138"/>
+      <c r="B21" s="177" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="136"/>
-      <c r="D21" s="136"/>
-      <c r="E21" s="136"/>
-      <c r="F21" s="134"/>
-      <c r="G21" s="135"/>
-      <c r="I21" s="76"/>
-      <c r="J21" s="136" t="s">
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="139"/>
+      <c r="G21" s="164"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="177" t="s">
         <v>87</v>
       </c>
-      <c r="K21" s="136"/>
-      <c r="L21" s="136"/>
-      <c r="M21" s="136"/>
-      <c r="N21" s="134"/>
-      <c r="O21" s="135"/>
-      <c r="Q21" s="76"/>
-      <c r="R21" s="136" t="s">
+      <c r="K21" s="177"/>
+      <c r="L21" s="177"/>
+      <c r="M21" s="177"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="164"/>
+      <c r="Q21" s="138"/>
+      <c r="R21" s="177" t="s">
         <v>88</v>
       </c>
-      <c r="S21" s="136"/>
-      <c r="T21" s="136"/>
-      <c r="U21" s="136"/>
-      <c r="V21" s="134"/>
-      <c r="W21" s="135"/>
-      <c r="Y21" s="76"/>
-      <c r="Z21" s="138" t="s">
+      <c r="S21" s="177"/>
+      <c r="T21" s="177"/>
+      <c r="U21" s="177"/>
+      <c r="V21" s="139"/>
+      <c r="W21" s="164"/>
+      <c r="Y21" s="138"/>
+      <c r="Z21" s="176" t="s">
         <v>108</v>
       </c>
-      <c r="AA21" s="138"/>
-      <c r="AB21" s="138"/>
-      <c r="AC21" s="138"/>
-      <c r="AD21" s="134"/>
-      <c r="AE21" s="135"/>
-      <c r="AG21" s="134"/>
-      <c r="AH21" s="134"/>
-      <c r="AI21" s="77" t="s">
+      <c r="AA21" s="176"/>
+      <c r="AB21" s="176"/>
+      <c r="AC21" s="176"/>
+      <c r="AD21" s="139"/>
+      <c r="AE21" s="164"/>
+      <c r="AG21" s="139"/>
+      <c r="AH21" s="139"/>
+      <c r="AI21" s="173" t="s">
         <v>109</v>
       </c>
-      <c r="AJ21" s="77"/>
-      <c r="AK21" s="77"/>
-      <c r="AL21" s="77"/>
-      <c r="AM21" s="77"/>
-      <c r="AN21" s="77"/>
-      <c r="AO21" s="77"/>
-      <c r="AP21" s="77"/>
-      <c r="AQ21" s="77"/>
-      <c r="AR21" s="76"/>
-      <c r="AS21" s="76"/>
-      <c r="AT21" s="135"/>
-      <c r="AV21" s="135"/>
-      <c r="AW21" s="135"/>
-      <c r="AX21" s="86" t="s">
+      <c r="AJ21" s="173"/>
+      <c r="AK21" s="173"/>
+      <c r="AL21" s="173"/>
+      <c r="AM21" s="173"/>
+      <c r="AN21" s="173"/>
+      <c r="AO21" s="173"/>
+      <c r="AP21" s="173"/>
+      <c r="AQ21" s="173"/>
+      <c r="AR21" s="138"/>
+      <c r="AS21" s="138"/>
+      <c r="AT21" s="164"/>
+      <c r="AV21" s="164"/>
+      <c r="AW21" s="164"/>
+      <c r="AX21" s="172" t="s">
         <v>129</v>
       </c>
-      <c r="AY21" s="86"/>
-      <c r="AZ21" s="86"/>
-      <c r="BA21" s="86"/>
-      <c r="BB21" s="86"/>
-      <c r="BC21" s="86"/>
-      <c r="BD21" s="86"/>
-      <c r="BE21" s="86"/>
-      <c r="BF21" s="86"/>
-      <c r="BG21" s="85"/>
-      <c r="BH21" s="85"/>
-      <c r="BI21" s="135"/>
+      <c r="AY21" s="172"/>
+      <c r="AZ21" s="172"/>
+      <c r="BA21" s="172"/>
+      <c r="BB21" s="172"/>
+      <c r="BC21" s="172"/>
+      <c r="BD21" s="172"/>
+      <c r="BE21" s="172"/>
+      <c r="BF21" s="172"/>
+      <c r="BG21" s="141"/>
+      <c r="BH21" s="141"/>
+      <c r="BI21" s="164"/>
     </row>
     <row r="23" spans="1:61" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="165" t="s">
+      <c r="A23" s="101" t="s">
         <v>130</v>
       </c>
       <c r="B23" s="64"/>
@@ -8461,365 +8786,365 @@
       <c r="L23" s="64"/>
     </row>
     <row r="24" spans="1:61" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="68" t="s">
+      <c r="A24" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="143" t="s">
+      <c r="B24" s="166"/>
+      <c r="C24" s="167" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="142"/>
-      <c r="E24" s="70" t="s">
+      <c r="D24" s="168"/>
+      <c r="E24" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="70"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="144" t="s">
+      <c r="F24" s="169"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="145"/>
-      <c r="J24" s="143" t="s">
+      <c r="I24" s="171"/>
+      <c r="J24" s="167" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="142"/>
+      <c r="K24" s="168"/>
       <c r="L24" s="60" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A25" s="74" t="s">
+      <c r="A25" s="122" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="75"/>
-      <c r="C25" s="74">
+      <c r="B25" s="123"/>
+      <c r="C25" s="122">
         <v>1103</v>
       </c>
-      <c r="D25" s="146"/>
-      <c r="E25" s="146">
+      <c r="D25" s="151"/>
+      <c r="E25" s="151">
         <v>333</v>
       </c>
-      <c r="F25" s="146"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="74">
+      <c r="F25" s="151"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="122">
         <v>1436</v>
       </c>
-      <c r="I25" s="75"/>
-      <c r="J25" s="74">
+      <c r="I25" s="123"/>
+      <c r="J25" s="122">
         <v>0.77</v>
       </c>
-      <c r="K25" s="146"/>
+      <c r="K25" s="151"/>
       <c r="L25" s="35">
         <v>3.31</v>
       </c>
     </row>
     <row r="26" spans="1:61" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="101"/>
-      <c r="C26" s="148">
+      <c r="B26" s="115"/>
+      <c r="C26" s="144">
         <v>288</v>
       </c>
-      <c r="D26" s="147"/>
-      <c r="E26" s="147">
+      <c r="D26" s="145"/>
+      <c r="E26" s="145">
         <v>95</v>
       </c>
-      <c r="F26" s="147"/>
-      <c r="G26" s="149"/>
-      <c r="H26" s="102">
+      <c r="F26" s="145"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="116">
         <v>383</v>
       </c>
-      <c r="I26" s="103"/>
-      <c r="J26" s="91">
+      <c r="I26" s="117"/>
+      <c r="J26" s="114">
         <v>0.75</v>
       </c>
-      <c r="K26" s="96"/>
+      <c r="K26" s="157"/>
       <c r="L26" s="39">
         <v>3.03</v>
       </c>
     </row>
     <row r="27" spans="1:61" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="150" t="s">
+      <c r="A27" s="162" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="151"/>
-      <c r="C27" s="150">
+      <c r="B27" s="149"/>
+      <c r="C27" s="162">
         <v>15273</v>
       </c>
-      <c r="D27" s="152"/>
-      <c r="E27" s="152">
+      <c r="D27" s="148"/>
+      <c r="E27" s="148">
         <v>6521</v>
       </c>
-      <c r="F27" s="152"/>
-      <c r="G27" s="151"/>
-      <c r="H27" s="150">
+      <c r="F27" s="148"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="162">
         <v>21794</v>
       </c>
-      <c r="I27" s="151"/>
-      <c r="J27" s="150">
+      <c r="I27" s="149"/>
+      <c r="J27" s="162">
         <v>0.7</v>
       </c>
-      <c r="K27" s="152"/>
+      <c r="K27" s="148"/>
       <c r="L27" s="39">
         <v>2.34</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="97" t="s">
+      <c r="A28" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="98"/>
-      <c r="C28" s="153">
+      <c r="B28" s="129"/>
+      <c r="C28" s="158">
         <v>69</v>
       </c>
-      <c r="D28" s="154"/>
-      <c r="E28" s="154">
+      <c r="D28" s="155"/>
+      <c r="E28" s="155">
         <v>44</v>
       </c>
-      <c r="F28" s="154"/>
-      <c r="G28" s="155"/>
-      <c r="H28" s="99">
+      <c r="F28" s="155"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="130">
         <v>113</v>
       </c>
-      <c r="I28" s="100"/>
-      <c r="J28" s="97">
+      <c r="I28" s="131"/>
+      <c r="J28" s="128">
         <v>0.61</v>
       </c>
-      <c r="K28" s="156"/>
+      <c r="K28" s="150"/>
       <c r="L28" s="35">
         <v>1.57</v>
       </c>
     </row>
     <row r="29" spans="1:61" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="83" t="s">
+      <c r="A29" s="118" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="158">
+      <c r="B29" s="119"/>
+      <c r="C29" s="159">
         <v>23</v>
       </c>
-      <c r="D29" s="157"/>
-      <c r="E29" s="157">
+      <c r="D29" s="152"/>
+      <c r="E29" s="152">
         <v>15</v>
       </c>
-      <c r="F29" s="157"/>
-      <c r="G29" s="159"/>
-      <c r="H29" s="87">
+      <c r="F29" s="152"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="120">
         <v>38</v>
       </c>
-      <c r="I29" s="88"/>
-      <c r="J29" s="83">
+      <c r="I29" s="121"/>
+      <c r="J29" s="118">
         <v>0.61</v>
       </c>
-      <c r="K29" s="85"/>
+      <c r="K29" s="141"/>
       <c r="L29" s="41">
         <v>1.53</v>
       </c>
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A30" s="74" t="s">
+      <c r="A30" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="75"/>
-      <c r="C30" s="160">
+      <c r="B30" s="123"/>
+      <c r="C30" s="142">
         <v>36</v>
       </c>
-      <c r="D30" s="161"/>
-      <c r="E30" s="161">
+      <c r="D30" s="143"/>
+      <c r="E30" s="143">
         <v>25</v>
       </c>
-      <c r="F30" s="161"/>
-      <c r="G30" s="162"/>
-      <c r="H30" s="78">
+      <c r="F30" s="143"/>
+      <c r="G30" s="146"/>
+      <c r="H30" s="124">
         <v>61</v>
       </c>
-      <c r="I30" s="79"/>
-      <c r="J30" s="74">
+      <c r="I30" s="125"/>
+      <c r="J30" s="122">
         <v>0.59</v>
       </c>
-      <c r="K30" s="146"/>
+      <c r="K30" s="151"/>
       <c r="L30" s="35">
         <v>1.44</v>
       </c>
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A31" s="89" t="s">
+      <c r="A31" s="160" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="90"/>
-      <c r="C31" s="163">
+      <c r="B31" s="161"/>
+      <c r="C31" s="154">
         <v>16</v>
       </c>
-      <c r="D31" s="134"/>
-      <c r="E31" s="134">
+      <c r="D31" s="139"/>
+      <c r="E31" s="139">
         <v>12</v>
       </c>
-      <c r="F31" s="134"/>
-      <c r="G31" s="164"/>
-      <c r="H31" s="81">
+      <c r="F31" s="139"/>
+      <c r="G31" s="140"/>
+      <c r="H31" s="112">
         <v>28</v>
       </c>
-      <c r="I31" s="82"/>
-      <c r="J31" s="73">
+      <c r="I31" s="113"/>
+      <c r="J31" s="110">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K31" s="76"/>
+      <c r="K31" s="138"/>
       <c r="L31" s="35">
         <v>1.33</v>
       </c>
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A32" s="73" t="s">
+      <c r="A32" s="110" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="163">
+      <c r="B32" s="111"/>
+      <c r="C32" s="154">
         <v>16</v>
       </c>
-      <c r="D32" s="134"/>
-      <c r="E32" s="134">
+      <c r="D32" s="139"/>
+      <c r="E32" s="139">
         <v>13</v>
       </c>
-      <c r="F32" s="134"/>
-      <c r="G32" s="164"/>
-      <c r="H32" s="81">
+      <c r="F32" s="139"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="112">
         <v>29</v>
       </c>
-      <c r="I32" s="82"/>
-      <c r="J32" s="73">
+      <c r="I32" s="113"/>
+      <c r="J32" s="110">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K32" s="76"/>
+      <c r="K32" s="138"/>
       <c r="L32" s="35">
         <v>1.23</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="83" t="s">
+      <c r="A33" s="118" t="s">
         <v>16</v>
       </c>
-      <c r="B33" s="84"/>
-      <c r="C33" s="158">
+      <c r="B33" s="119"/>
+      <c r="C33" s="159">
         <v>13</v>
       </c>
-      <c r="D33" s="157"/>
-      <c r="E33" s="157">
+      <c r="D33" s="152"/>
+      <c r="E33" s="152">
         <v>11</v>
       </c>
-      <c r="F33" s="157"/>
-      <c r="G33" s="159"/>
-      <c r="H33" s="87">
+      <c r="F33" s="152"/>
+      <c r="G33" s="153"/>
+      <c r="H33" s="120">
         <v>24</v>
       </c>
-      <c r="I33" s="88"/>
-      <c r="J33" s="83">
+      <c r="I33" s="121"/>
+      <c r="J33" s="118">
         <v>0.54</v>
       </c>
-      <c r="K33" s="85"/>
+      <c r="K33" s="141"/>
       <c r="L33" s="41">
         <v>1.18</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="75"/>
-      <c r="C34" s="160">
+      <c r="B34" s="123"/>
+      <c r="C34" s="142">
         <v>2</v>
       </c>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="146">
+      <c r="D34" s="143"/>
+      <c r="E34" s="143"/>
+      <c r="F34" s="151">
         <v>3</v>
       </c>
-      <c r="G34" s="75"/>
-      <c r="H34" s="78">
+      <c r="G34" s="123"/>
+      <c r="H34" s="124">
         <v>5</v>
       </c>
-      <c r="I34" s="79"/>
-      <c r="J34" s="74">
+      <c r="I34" s="125"/>
+      <c r="J34" s="122">
         <v>0.4</v>
       </c>
-      <c r="K34" s="146"/>
+      <c r="K34" s="151"/>
       <c r="L34" s="35">
         <v>0.67</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="91" t="s">
+      <c r="A35" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="101"/>
-      <c r="C35" s="148">
+      <c r="B35" s="115"/>
+      <c r="C35" s="144">
         <v>11</v>
       </c>
-      <c r="D35" s="147"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="96">
+      <c r="D35" s="145"/>
+      <c r="E35" s="145"/>
+      <c r="F35" s="157">
         <v>22</v>
       </c>
-      <c r="G35" s="101"/>
-      <c r="H35" s="102">
+      <c r="G35" s="115"/>
+      <c r="H35" s="116">
         <v>33</v>
       </c>
-      <c r="I35" s="103"/>
-      <c r="J35" s="91">
+      <c r="I35" s="117"/>
+      <c r="J35" s="114">
         <v>0.33</v>
       </c>
-      <c r="K35" s="96"/>
+      <c r="K35" s="157"/>
       <c r="L35" s="39">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="98"/>
-      <c r="C36" s="153">
+      <c r="B36" s="129"/>
+      <c r="C36" s="158">
         <v>4</v>
       </c>
-      <c r="D36" s="154"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="156">
+      <c r="D36" s="155"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="150">
         <v>17</v>
       </c>
-      <c r="G36" s="98"/>
-      <c r="H36" s="99">
+      <c r="G36" s="129"/>
+      <c r="H36" s="130">
         <v>21</v>
       </c>
-      <c r="I36" s="100"/>
-      <c r="J36" s="97">
+      <c r="I36" s="131"/>
+      <c r="J36" s="128">
         <v>0.19</v>
       </c>
-      <c r="K36" s="156"/>
+      <c r="K36" s="150"/>
       <c r="L36" s="35">
         <v>0.24</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="91" t="s">
+      <c r="A37" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="101"/>
-      <c r="C37" s="148">
+      <c r="B37" s="115"/>
+      <c r="C37" s="144">
         <v>0</v>
       </c>
-      <c r="D37" s="147"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="96">
+      <c r="D37" s="145"/>
+      <c r="E37" s="145"/>
+      <c r="F37" s="157">
         <v>0</v>
       </c>
-      <c r="G37" s="101"/>
-      <c r="H37" s="102">
+      <c r="G37" s="115"/>
+      <c r="H37" s="116">
         <v>0</v>
       </c>
-      <c r="I37" s="103"/>
-      <c r="J37" s="91">
+      <c r="I37" s="117"/>
+      <c r="J37" s="114">
         <v>0</v>
       </c>
-      <c r="K37" s="96"/>
+      <c r="K37" s="157"/>
       <c r="L37" s="39">
         <v>0</v>
       </c>
@@ -8829,12 +9154,12 @@
       <c r="A39" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="176"/>
-      <c r="C39" s="176"/>
-      <c r="D39" s="176"/>
-      <c r="E39" s="176"/>
-      <c r="F39" s="176"/>
-      <c r="H39" s="137" t="s">
+      <c r="B39" s="109"/>
+      <c r="C39" s="109"/>
+      <c r="D39" s="109"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="109"/>
+      <c r="H39" s="96" t="s">
         <v>134</v>
       </c>
     </row>
@@ -8842,7 +9167,7 @@
       <c r="A40" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="B40" s="166" t="s">
+      <c r="B40" s="102" t="s">
         <v>56</v>
       </c>
       <c r="C40" s="33" t="s">
@@ -8851,28 +9176,28 @@
       <c r="D40" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E40" s="166" t="s">
+      <c r="E40" s="102" t="s">
         <v>49</v>
       </c>
       <c r="F40" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="H40" s="167" t="s">
+      <c r="H40" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="I40" s="168" t="s">
+      <c r="I40" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="J40" s="169" t="s">
+      <c r="J40" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="K40" s="170" t="s">
+      <c r="K40" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="L40" s="168" t="s">
+      <c r="L40" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="M40" s="169" t="s">
+      <c r="M40" s="98" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9181,7 +9506,7 @@
       </c>
     </row>
     <row r="49" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A49" s="108" t="s">
+      <c r="A49" s="72" t="s">
         <v>9</v>
       </c>
       <c r="B49" s="57">
@@ -9199,7 +9524,7 @@
       <c r="F49" s="35">
         <v>1.85</v>
       </c>
-      <c r="H49" s="108" t="s">
+      <c r="H49" s="72" t="s">
         <v>9</v>
       </c>
       <c r="I49" s="57">
@@ -9240,10 +9565,10 @@
       <c r="H50" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="I50" s="133">
+      <c r="I50" s="95">
         <v>117</v>
       </c>
-      <c r="J50" s="171">
+      <c r="J50" s="100">
         <v>43</v>
       </c>
       <c r="K50" s="36">
@@ -9298,7 +9623,7 @@
       <c r="A52" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B52" s="133">
+      <c r="B52" s="95">
         <v>289</v>
       </c>
       <c r="C52" s="35">
@@ -9468,10 +9793,10 @@
       <c r="H56" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="I56" s="133">
+      <c r="I56" s="95">
         <v>77</v>
       </c>
-      <c r="J56" s="171">
+      <c r="J56" s="100">
         <v>42</v>
       </c>
       <c r="K56" s="36">
@@ -9506,7 +9831,7 @@
       <c r="H57" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I57" s="133">
+      <c r="I57" s="95">
         <v>529</v>
       </c>
       <c r="J57" s="35">
@@ -9582,10 +9907,10 @@
       <c r="H59" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="I59" s="139">
+      <c r="I59" s="97">
         <v>9</v>
       </c>
-      <c r="J59" s="172">
+      <c r="J59" s="99">
         <v>6</v>
       </c>
       <c r="K59" s="42">
@@ -9600,43 +9925,43 @@
     </row>
     <row r="61" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="167" t="s">
+      <c r="A62" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="168" t="s">
+      <c r="B62" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="152" t="s">
+      <c r="C62" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="151"/>
-      <c r="E62" s="170" t="s">
+      <c r="D62" s="149"/>
+      <c r="E62" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="F62" s="168" t="s">
+      <c r="F62" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="G62" s="169" t="s">
+      <c r="G62" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="H62" s="167"/>
-      <c r="I62" s="167" t="s">
+      <c r="H62" s="103"/>
+      <c r="I62" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="J62" s="168" t="s">
+      <c r="J62" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="K62" s="152" t="s">
+      <c r="K62" s="148" t="s">
         <v>63</v>
       </c>
-      <c r="L62" s="151"/>
-      <c r="M62" s="170" t="s">
+      <c r="L62" s="149"/>
+      <c r="M62" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="N62" s="168" t="s">
+      <c r="N62" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="O62" s="169" t="s">
+      <c r="O62" s="98" t="s">
         <v>59</v>
       </c>
     </row>
@@ -9644,13 +9969,13 @@
       <c r="A63" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="B63" s="133">
+      <c r="B63" s="95">
         <v>54</v>
       </c>
-      <c r="C63" s="154">
+      <c r="C63" s="155">
         <v>22</v>
       </c>
-      <c r="D63" s="155"/>
+      <c r="D63" s="156"/>
       <c r="E63" s="36">
         <v>76</v>
       </c>
@@ -9667,10 +9992,10 @@
       <c r="J63" s="57">
         <v>1208</v>
       </c>
-      <c r="K63" s="156">
+      <c r="K63" s="150">
         <v>257</v>
       </c>
-      <c r="L63" s="98"/>
+      <c r="L63" s="129"/>
       <c r="M63" s="35">
         <v>1465</v>
       </c>
@@ -9688,10 +10013,10 @@
       <c r="B64" s="57">
         <v>17355</v>
       </c>
-      <c r="C64" s="76">
+      <c r="C64" s="138">
         <v>7536</v>
       </c>
-      <c r="D64" s="80"/>
+      <c r="D64" s="111"/>
       <c r="E64" s="35">
         <v>24891</v>
       </c>
@@ -9708,10 +10033,10 @@
       <c r="J64" s="63">
         <v>4097</v>
       </c>
-      <c r="K64" s="85">
+      <c r="K64" s="141">
         <v>931</v>
       </c>
-      <c r="L64" s="84"/>
+      <c r="L64" s="119"/>
       <c r="M64" s="41">
         <v>5028</v>
       </c>
@@ -9729,10 +10054,10 @@
       <c r="B65" s="63">
         <v>3932</v>
       </c>
-      <c r="C65" s="85">
+      <c r="C65" s="141">
         <v>1954</v>
       </c>
-      <c r="D65" s="84"/>
+      <c r="D65" s="119"/>
       <c r="E65" s="41">
         <v>5886</v>
       </c>
@@ -9749,10 +10074,10 @@
       <c r="J65" s="57">
         <v>1325</v>
       </c>
-      <c r="K65" s="146">
+      <c r="K65" s="151">
         <v>563</v>
       </c>
-      <c r="L65" s="75"/>
+      <c r="L65" s="123"/>
       <c r="M65" s="35">
         <v>1888</v>
       </c>
@@ -9770,10 +10095,10 @@
       <c r="B66" s="57">
         <v>8473</v>
       </c>
-      <c r="C66" s="146">
+      <c r="C66" s="151">
         <v>4415</v>
       </c>
-      <c r="D66" s="75"/>
+      <c r="D66" s="123"/>
       <c r="E66" s="35">
         <v>12888</v>
       </c>
@@ -9787,13 +10112,13 @@
       <c r="I66" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="J66" s="133">
+      <c r="J66" s="95">
         <v>673</v>
       </c>
-      <c r="K66" s="76">
+      <c r="K66" s="138">
         <v>338</v>
       </c>
-      <c r="L66" s="80"/>
+      <c r="L66" s="111"/>
       <c r="M66" s="35">
         <v>1011</v>
       </c>
@@ -9808,13 +10133,13 @@
       <c r="A67" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B67" s="133">
+      <c r="B67" s="95">
         <v>132</v>
       </c>
-      <c r="C67" s="134">
+      <c r="C67" s="139">
         <v>74</v>
       </c>
-      <c r="D67" s="164"/>
+      <c r="D67" s="140"/>
       <c r="E67" s="36">
         <v>206</v>
       </c>
@@ -9831,10 +10156,10 @@
       <c r="J67" s="57">
         <v>35720</v>
       </c>
-      <c r="K67" s="76">
+      <c r="K67" s="138">
         <v>18737</v>
       </c>
-      <c r="L67" s="80"/>
+      <c r="L67" s="111"/>
       <c r="M67" s="35">
         <v>54457</v>
       </c>
@@ -9852,10 +10177,10 @@
       <c r="B68" s="57">
         <v>22963</v>
       </c>
-      <c r="C68" s="76">
+      <c r="C68" s="138">
         <v>13053</v>
       </c>
-      <c r="D68" s="80"/>
+      <c r="D68" s="111"/>
       <c r="E68" s="35">
         <v>36016</v>
       </c>
@@ -9872,10 +10197,10 @@
       <c r="J68" s="57">
         <v>22896</v>
       </c>
-      <c r="K68" s="76">
+      <c r="K68" s="138">
         <v>12483</v>
       </c>
-      <c r="L68" s="80"/>
+      <c r="L68" s="111"/>
       <c r="M68" s="35">
         <v>35379</v>
       </c>
@@ -9890,13 +10215,13 @@
       <c r="A69" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B69" s="133">
+      <c r="B69" s="95">
         <v>386</v>
       </c>
-      <c r="C69" s="76">
+      <c r="C69" s="138">
         <v>225</v>
       </c>
-      <c r="D69" s="80"/>
+      <c r="D69" s="111"/>
       <c r="E69" s="36">
         <v>611</v>
       </c>
@@ -9910,13 +10235,13 @@
       <c r="I69" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="J69" s="139">
+      <c r="J69" s="97">
         <v>219</v>
       </c>
-      <c r="K69" s="85">
+      <c r="K69" s="141">
         <v>120</v>
       </c>
-      <c r="L69" s="84"/>
+      <c r="L69" s="119"/>
       <c r="M69" s="42">
         <v>339</v>
       </c>
@@ -9931,13 +10256,13 @@
       <c r="A70" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="B70" s="133">
+      <c r="B70" s="95">
         <v>670</v>
       </c>
-      <c r="C70" s="76">
+      <c r="C70" s="138">
         <v>395</v>
       </c>
-      <c r="D70" s="80"/>
+      <c r="D70" s="111"/>
       <c r="E70" s="35">
         <v>1065</v>
       </c>
@@ -9951,13 +10276,13 @@
       <c r="I70" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="J70" s="133">
+      <c r="J70" s="95">
         <v>37</v>
       </c>
-      <c r="K70" s="161">
+      <c r="K70" s="143">
         <v>25</v>
       </c>
-      <c r="L70" s="162"/>
+      <c r="L70" s="146"/>
       <c r="M70" s="36">
         <v>62</v>
       </c>
@@ -9969,16 +10294,16 @@
       </c>
     </row>
     <row r="71" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A71" s="108" t="s">
+      <c r="A71" s="72" t="s">
         <v>9</v>
       </c>
       <c r="B71" s="57">
         <v>1244</v>
       </c>
-      <c r="C71" s="76">
+      <c r="C71" s="138">
         <v>774</v>
       </c>
-      <c r="D71" s="80"/>
+      <c r="D71" s="111"/>
       <c r="E71" s="35">
         <v>2018</v>
       </c>
@@ -9988,17 +10313,17 @@
       <c r="G71" s="35">
         <v>1.61</v>
       </c>
-      <c r="H71" s="108"/>
+      <c r="H71" s="72"/>
       <c r="I71" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="J71" s="133">
+      <c r="J71" s="95">
         <v>348</v>
       </c>
-      <c r="K71" s="76">
+      <c r="K71" s="138">
         <v>240</v>
       </c>
-      <c r="L71" s="80"/>
+      <c r="L71" s="111"/>
       <c r="M71" s="36">
         <v>588</v>
       </c>
@@ -10013,13 +10338,13 @@
       <c r="A72" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B72" s="133">
+      <c r="B72" s="95">
         <v>868</v>
       </c>
-      <c r="C72" s="76">
+      <c r="C72" s="138">
         <v>545</v>
       </c>
-      <c r="D72" s="80"/>
+      <c r="D72" s="111"/>
       <c r="E72" s="35">
         <v>1413</v>
       </c>
@@ -10033,13 +10358,13 @@
       <c r="I72" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="J72" s="133">
+      <c r="J72" s="95">
         <v>321</v>
       </c>
-      <c r="K72" s="76">
+      <c r="K72" s="138">
         <v>229</v>
       </c>
-      <c r="L72" s="80"/>
+      <c r="L72" s="111"/>
       <c r="M72" s="36">
         <v>550</v>
       </c>
@@ -10054,13 +10379,13 @@
       <c r="A73" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="B73" s="139">
+      <c r="B73" s="97">
         <v>102</v>
       </c>
-      <c r="C73" s="157">
+      <c r="C73" s="152">
         <v>64</v>
       </c>
-      <c r="D73" s="159"/>
+      <c r="D73" s="153"/>
       <c r="E73" s="42">
         <v>166</v>
       </c>
@@ -10077,10 +10402,10 @@
       <c r="J73" s="57">
         <v>3856</v>
       </c>
-      <c r="K73" s="76">
+      <c r="K73" s="138">
         <v>2769</v>
       </c>
-      <c r="L73" s="80"/>
+      <c r="L73" s="111"/>
       <c r="M73" s="35">
         <v>6625</v>
       </c>
@@ -10095,13 +10420,13 @@
       <c r="A74" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="133">
+      <c r="B74" s="95">
         <v>50</v>
       </c>
-      <c r="C74" s="161">
+      <c r="C74" s="143">
         <v>34</v>
       </c>
-      <c r="D74" s="162"/>
+      <c r="D74" s="146"/>
       <c r="E74" s="36">
         <v>84</v>
       </c>
@@ -10115,13 +10440,13 @@
       <c r="I74" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J74" s="133">
+      <c r="J74" s="95">
         <v>228</v>
       </c>
-      <c r="K74" s="76">
+      <c r="K74" s="138">
         <v>193</v>
       </c>
-      <c r="L74" s="80"/>
+      <c r="L74" s="111"/>
       <c r="M74" s="36">
         <v>421</v>
       </c>
@@ -10136,13 +10461,13 @@
       <c r="A75" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="B75" s="133">
+      <c r="B75" s="95">
         <v>638</v>
       </c>
-      <c r="C75" s="76">
+      <c r="C75" s="138">
         <v>520</v>
       </c>
-      <c r="D75" s="80"/>
+      <c r="D75" s="111"/>
       <c r="E75" s="35">
         <v>1158</v>
       </c>
@@ -10159,10 +10484,10 @@
       <c r="J75" s="57">
         <v>1073</v>
       </c>
-      <c r="K75" s="76">
+      <c r="K75" s="138">
         <v>915</v>
       </c>
-      <c r="L75" s="80"/>
+      <c r="L75" s="111"/>
       <c r="M75" s="35">
         <v>1988</v>
       </c>
@@ -10177,13 +10502,13 @@
       <c r="A76" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B76" s="133">
+      <c r="B76" s="95">
         <v>124</v>
       </c>
-      <c r="C76" s="76">
+      <c r="C76" s="138">
         <v>110</v>
       </c>
-      <c r="D76" s="80"/>
+      <c r="D76" s="111"/>
       <c r="E76" s="36">
         <v>234</v>
       </c>
@@ -10200,10 +10525,10 @@
       <c r="J76" s="57">
         <v>4937</v>
       </c>
-      <c r="K76" s="76">
+      <c r="K76" s="138">
         <v>4270</v>
       </c>
-      <c r="L76" s="80"/>
+      <c r="L76" s="111"/>
       <c r="M76" s="35">
         <v>9207</v>
       </c>
@@ -10218,13 +10543,13 @@
       <c r="A77" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B77" s="133">
+      <c r="B77" s="95">
         <v>30</v>
       </c>
-      <c r="C77" s="134">
+      <c r="C77" s="139">
         <v>29</v>
       </c>
-      <c r="D77" s="164"/>
+      <c r="D77" s="140"/>
       <c r="E77" s="36">
         <v>59</v>
       </c>
@@ -10238,13 +10563,13 @@
       <c r="I77" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J77" s="133">
+      <c r="J77" s="95">
         <v>157</v>
       </c>
-      <c r="K77" s="76">
+      <c r="K77" s="138">
         <v>131</v>
       </c>
-      <c r="L77" s="80"/>
+      <c r="L77" s="111"/>
       <c r="M77" s="36">
         <v>288</v>
       </c>
@@ -10259,13 +10584,13 @@
       <c r="A78" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B78" s="139">
+      <c r="B78" s="97">
         <v>21</v>
       </c>
-      <c r="C78" s="157">
+      <c r="C78" s="152">
         <v>21</v>
       </c>
-      <c r="D78" s="159"/>
+      <c r="D78" s="153"/>
       <c r="E78" s="42">
         <v>42</v>
       </c>
@@ -10279,13 +10604,13 @@
       <c r="I78" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="J78" s="133">
+      <c r="J78" s="95">
         <v>108</v>
       </c>
-      <c r="K78" s="134">
+      <c r="K78" s="139">
         <v>97</v>
       </c>
-      <c r="L78" s="164"/>
+      <c r="L78" s="140"/>
       <c r="M78" s="36">
         <v>205</v>
       </c>
@@ -10300,10 +10625,10 @@
       <c r="A79" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="160">
+      <c r="B79" s="142">
         <v>44</v>
       </c>
-      <c r="C79" s="161"/>
+      <c r="C79" s="143"/>
       <c r="D79" s="35">
         <v>49</v>
       </c>
@@ -10323,10 +10648,10 @@
       <c r="J79" s="63">
         <v>7268</v>
       </c>
-      <c r="K79" s="85">
+      <c r="K79" s="141">
         <v>6915</v>
       </c>
-      <c r="L79" s="84"/>
+      <c r="L79" s="119"/>
       <c r="M79" s="41">
         <v>14183</v>
       </c>
@@ -10341,10 +10666,10 @@
       <c r="A80" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B80" s="163">
+      <c r="B80" s="154">
         <v>4</v>
       </c>
-      <c r="C80" s="134"/>
+      <c r="C80" s="139"/>
       <c r="D80" s="35">
         <v>12</v>
       </c>
@@ -10361,10 +10686,10 @@
       <c r="I80" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J80" s="160">
+      <c r="J80" s="142">
         <v>46</v>
       </c>
-      <c r="K80" s="161"/>
+      <c r="K80" s="143"/>
       <c r="L80" s="35">
         <v>49</v>
       </c>
@@ -10382,10 +10707,10 @@
       <c r="A81" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="148">
+      <c r="B81" s="144">
         <v>10</v>
       </c>
-      <c r="C81" s="147"/>
+      <c r="C81" s="145"/>
       <c r="D81" s="39">
         <v>51</v>
       </c>
@@ -10402,10 +10727,10 @@
       <c r="I81" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="J81" s="148">
+      <c r="J81" s="144">
         <v>247</v>
       </c>
-      <c r="K81" s="147"/>
+      <c r="K81" s="145"/>
       <c r="L81" s="39">
         <v>379</v>
       </c>
@@ -10420,50 +10745,50 @@
       </c>
     </row>
     <row r="82" spans="1:15" ht="29" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="109" t="s">
+      <c r="A82" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="B82" s="179"/>
-      <c r="C82" s="179"/>
-      <c r="D82" s="109"/>
-      <c r="E82" s="110"/>
-      <c r="F82" s="109"/>
-      <c r="G82" s="109"/>
-      <c r="H82" s="109"/>
-      <c r="I82" s="179" t="s">
+      <c r="B82" s="95"/>
+      <c r="C82" s="95"/>
+      <c r="D82" s="57"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="95" t="s">
         <v>133</v>
       </c>
-      <c r="J82" s="179"/>
-      <c r="K82" s="109"/>
-      <c r="L82" s="110"/>
-      <c r="M82" s="109"/>
+      <c r="J82" s="95"/>
+      <c r="K82" s="57"/>
+      <c r="L82" s="70"/>
+      <c r="M82" s="57"/>
     </row>
     <row r="83" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="173"/>
+      <c r="A83" s="106"/>
       <c r="B83" s="56"/>
       <c r="C83" s="56"/>
       <c r="D83" s="56"/>
       <c r="E83" s="56"/>
       <c r="F83" s="56"/>
-      <c r="H83" s="174"/>
+      <c r="H83" s="107"/>
     </row>
     <row r="84" spans="1:15" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="167" t="s">
+      <c r="A84" s="103" t="s">
         <v>62</v>
       </c>
-      <c r="B84" s="168" t="s">
+      <c r="B84" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="C84" s="169" t="s">
+      <c r="C84" s="98" t="s">
         <v>63</v>
       </c>
-      <c r="D84" s="170" t="s">
+      <c r="D84" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="E84" s="168" t="s">
+      <c r="E84" s="104" t="s">
         <v>49</v>
       </c>
-      <c r="F84" s="169" t="s">
+      <c r="F84" s="98" t="s">
         <v>59</v>
       </c>
     </row>
@@ -10471,10 +10796,10 @@
       <c r="A85" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="B85" s="133">
+      <c r="B85" s="95">
         <v>154</v>
       </c>
-      <c r="C85" s="171">
+      <c r="C85" s="100">
         <v>57</v>
       </c>
       <c r="D85" s="36">
@@ -10511,10 +10836,10 @@
       <c r="A87" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="B87" s="139">
+      <c r="B87" s="97">
         <v>4</v>
       </c>
-      <c r="C87" s="172">
+      <c r="C87" s="99">
         <v>2</v>
       </c>
       <c r="D87" s="42">
@@ -10571,7 +10896,7 @@
       <c r="A90" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="133">
+      <c r="B90" s="95">
         <v>398</v>
       </c>
       <c r="C90" s="35">
@@ -10611,10 +10936,10 @@
       <c r="A92" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B92" s="139">
+      <c r="B92" s="97">
         <v>79</v>
       </c>
-      <c r="C92" s="172">
+      <c r="C92" s="99">
         <v>47</v>
       </c>
       <c r="D92" s="42">
@@ -10631,10 +10956,10 @@
       <c r="A93" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="B93" s="133">
+      <c r="B93" s="95">
         <v>94</v>
       </c>
-      <c r="C93" s="171">
+      <c r="C93" s="100">
         <v>72</v>
       </c>
       <c r="D93" s="36">
@@ -10668,10 +10993,10 @@
       </c>
     </row>
     <row r="95" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A95" s="108" t="s">
+      <c r="A95" s="72" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="133">
+      <c r="B95" s="95">
         <v>497</v>
       </c>
       <c r="C95" s="35">
@@ -10711,7 +11036,7 @@
       <c r="A97" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="133">
+      <c r="B97" s="95">
         <v>623</v>
       </c>
       <c r="C97" s="35">
@@ -10731,7 +11056,7 @@
       <c r="A98" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="B98" s="133">
+      <c r="B98" s="95">
         <v>311</v>
       </c>
       <c r="C98" s="35">
@@ -10751,7 +11076,7 @@
       <c r="A99" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="B99" s="139">
+      <c r="B99" s="97">
         <v>121</v>
       </c>
       <c r="C99" s="41">
@@ -10771,7 +11096,7 @@
       <c r="A100" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="B100" s="133">
+      <c r="B100" s="95">
         <v>841</v>
       </c>
       <c r="C100" s="35">
@@ -10831,10 +11156,10 @@
       <c r="A103" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="B103" s="139">
+      <c r="B103" s="97">
         <v>57</v>
       </c>
-      <c r="C103" s="172">
+      <c r="C103" s="99">
         <v>85</v>
       </c>
       <c r="D103" s="42">
@@ -10848,14 +11173,14 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="177" t="s">
+      <c r="A104" s="124" t="s">
         <v>132</v>
       </c>
-      <c r="B104" s="178"/>
-      <c r="C104" s="178"/>
-      <c r="D104" s="178"/>
-      <c r="E104" s="178"/>
-      <c r="F104" s="178"/>
+      <c r="B104" s="147"/>
+      <c r="C104" s="147"/>
+      <c r="D104" s="147"/>
+      <c r="E104" s="147"/>
+      <c r="F104" s="147"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="56"/>
@@ -10866,7 +11191,7 @@
       <c r="F105" s="56"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="175"/>
+      <c r="A106" s="108"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A130" s="66"/>
@@ -10942,7 +11267,7 @@
     </row>
     <row r="189" spans="7:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="190" spans="7:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G190" s="169" t="s">
+      <c r="G190" s="98" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11046,7 +11371,7 @@
     </row>
     <row r="211" spans="7:7" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="212" spans="7:7" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G212" s="169" t="s">
+      <c r="G212" s="98" t="s">
         <v>59</v>
       </c>
     </row>
@@ -11150,17 +11475,322 @@
     </row>
   </sheetData>
   <mergeCells count="351">
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="J4:M4"/>
+    <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="J16:M16"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="R21:U21"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="Z19:AC19"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Z20:AC20"/>
+    <mergeCell ref="Z21:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AE21"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="Z15:AC15"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="Z18:AC18"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="AP7:AQ7"/>
+    <mergeCell ref="AR7:AS7"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AM6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="AN11:AO11"/>
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AM10"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AP10:AQ10"/>
+    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="AN13:AO13"/>
+    <mergeCell ref="AP13:AQ13"/>
+    <mergeCell ref="AR13:AS13"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="AN12:AO12"/>
+    <mergeCell ref="AP12:AQ12"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AN15:AO15"/>
+    <mergeCell ref="AP15:AQ15"/>
+    <mergeCell ref="AR15:AS15"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AP17:AQ17"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="AN16:AO16"/>
+    <mergeCell ref="AP16:AQ16"/>
+    <mergeCell ref="AR16:AS16"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="AX1:BF1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:BF2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="AG20:AH21"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="AN20:AO20"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AR20:AS21"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="AN19:AO19"/>
+    <mergeCell ref="AP19:AQ19"/>
+    <mergeCell ref="AR19:AS19"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AP18:AQ18"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AX5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AX6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AX3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AX4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:BF9"/>
+    <mergeCell ref="BG9:BH9"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AX10:BF10"/>
+    <mergeCell ref="BG10:BH10"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:BF7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:BF8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AX13:BF13"/>
+    <mergeCell ref="BG13:BH13"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AX14:BF14"/>
+    <mergeCell ref="BG14:BH14"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AX11:BF11"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AX12:BF12"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX17:BF17"/>
+    <mergeCell ref="BG17:BH17"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AX18:BF18"/>
+    <mergeCell ref="BG18:BH18"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AX15:BF15"/>
+    <mergeCell ref="BG15:BH15"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AX16:BF16"/>
+    <mergeCell ref="BG16:BH16"/>
+    <mergeCell ref="BI20:BI21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AX19:BF19"/>
+    <mergeCell ref="BG19:BH19"/>
+    <mergeCell ref="AV20:AW21"/>
+    <mergeCell ref="AX20:BF20"/>
+    <mergeCell ref="AX21:BF21"/>
+    <mergeCell ref="BG20:BH21"/>
+    <mergeCell ref="AT20:AT21"/>
+    <mergeCell ref="AI21:AQ21"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
     <mergeCell ref="A104:F104"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="K73:L73"/>
@@ -11185,324 +11815,984 @@
     <mergeCell ref="C73:D73"/>
     <mergeCell ref="C74:D74"/>
     <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="BI20:BI21"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AX19:BF19"/>
-    <mergeCell ref="BG19:BH19"/>
-    <mergeCell ref="AV20:AW21"/>
-    <mergeCell ref="AX20:BF20"/>
-    <mergeCell ref="AX21:BF21"/>
-    <mergeCell ref="BG20:BH21"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:BF17"/>
-    <mergeCell ref="BG17:BH17"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX18:BF18"/>
-    <mergeCell ref="BG18:BH18"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AX15:BF15"/>
-    <mergeCell ref="BG15:BH15"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AX16:BF16"/>
-    <mergeCell ref="BG16:BH16"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AX13:BF13"/>
-    <mergeCell ref="BG13:BH13"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AX14:BF14"/>
-    <mergeCell ref="BG14:BH14"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AX11:BF11"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AX12:BF12"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:BF9"/>
-    <mergeCell ref="BG9:BH9"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AX10:BF10"/>
-    <mergeCell ref="BG10:BH10"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:BF7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:BF8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AX5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AX6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="AX3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AX4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="AT20:AT21"/>
-    <mergeCell ref="AI21:AQ21"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="AX1:BF1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:BF2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="AG20:AH21"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="AN20:AO20"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="AR20:AS21"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AM19"/>
-    <mergeCell ref="AN19:AO19"/>
-    <mergeCell ref="AP19:AQ19"/>
-    <mergeCell ref="AR19:AS19"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AM18"/>
-    <mergeCell ref="AN18:AO18"/>
-    <mergeCell ref="AP18:AQ18"/>
-    <mergeCell ref="AR18:AS18"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AP17:AQ17"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="AN16:AO16"/>
-    <mergeCell ref="AP16:AQ16"/>
-    <mergeCell ref="AR16:AS16"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AN15:AO15"/>
-    <mergeCell ref="AP15:AQ15"/>
-    <mergeCell ref="AR15:AS15"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="AN13:AO13"/>
-    <mergeCell ref="AP13:AQ13"/>
-    <mergeCell ref="AR13:AS13"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="AN12:AO12"/>
-    <mergeCell ref="AP12:AQ12"/>
-    <mergeCell ref="AR12:AS12"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="AN11:AO11"/>
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="AR11:AS11"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AM10"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="AR8:AS8"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AP7:AQ7"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AM6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="Z19:AC19"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Z20:AC20"/>
-    <mergeCell ref="Z21:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="Z15:AC15"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="Z18:AC18"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="J15:M15"/>
-    <mergeCell ref="J16:M16"/>
-    <mergeCell ref="J17:M17"/>
-    <mergeCell ref="J18:M18"/>
-    <mergeCell ref="J19:M19"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:M20"/>
-    <mergeCell ref="J21:M21"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="J10:M10"/>
-    <mergeCell ref="J11:M11"/>
-    <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="J3:M3"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="J5:M5"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K71:L71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF2265B-72BE-8443-A5FF-83F238441323}">
+  <dimension ref="A2:E82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:C59"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="66.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B2" s="181" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="181" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B3" s="180" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="179">
+        <v>1</v>
+      </c>
+      <c r="D3" s="180" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B4" s="180" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="179">
+        <v>1</v>
+      </c>
+      <c r="D4" s="180" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B5" s="180" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="179">
+        <v>1</v>
+      </c>
+      <c r="D5" s="180" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B6" s="180" t="s">
+        <v>139</v>
+      </c>
+      <c r="C6" s="179">
+        <v>1</v>
+      </c>
+      <c r="D6" s="180" t="s">
+        <v>164</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B7" s="180" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="179">
+        <v>1</v>
+      </c>
+      <c r="D7" s="180" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B8" s="180" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="179">
+        <v>1</v>
+      </c>
+      <c r="D8" s="180" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B9" s="180" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="179">
+        <v>1</v>
+      </c>
+      <c r="D9" s="180" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B10" s="180" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="179">
+        <v>1</v>
+      </c>
+      <c r="D10" s="180" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B11" s="180" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="179">
+        <v>1</v>
+      </c>
+      <c r="D11" s="180" t="s">
+        <v>169</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="180" t="s">
+        <v>145</v>
+      </c>
+      <c r="C12" s="179">
+        <v>1</v>
+      </c>
+      <c r="D12" s="180" t="s">
+        <v>170</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="180" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13" s="179">
+        <v>1</v>
+      </c>
+      <c r="D13" s="180" t="s">
+        <v>171</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="180" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="179">
+        <v>1</v>
+      </c>
+      <c r="D14" s="180" t="s">
+        <v>172</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B15" s="180" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="179">
+        <v>1</v>
+      </c>
+      <c r="D15" s="180" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B16" s="180" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="179">
+        <v>1</v>
+      </c>
+      <c r="D16" s="180" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B17" s="180" t="s">
+        <v>150</v>
+      </c>
+      <c r="C17" s="179">
+        <v>1</v>
+      </c>
+      <c r="D17" s="180" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B18" s="180" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="179">
+        <v>1</v>
+      </c>
+      <c r="D18" s="180" t="s">
+        <v>176</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B19" s="180" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="179">
+        <v>1</v>
+      </c>
+      <c r="D19" s="180" t="s">
+        <v>177</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B20" s="180" t="s">
+        <v>153</v>
+      </c>
+      <c r="C20" s="179">
+        <v>1</v>
+      </c>
+      <c r="D20" s="180" t="s">
+        <v>178</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B21" s="180" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" s="179">
+        <v>1</v>
+      </c>
+      <c r="D21" s="180" t="s">
+        <v>179</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B22" s="180" t="s">
+        <v>155</v>
+      </c>
+      <c r="C22" s="179">
+        <v>1</v>
+      </c>
+      <c r="D22" s="180" t="s">
+        <v>180</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B23" s="180" t="s">
+        <v>156</v>
+      </c>
+      <c r="C23" s="179">
+        <v>1</v>
+      </c>
+      <c r="D23" s="180" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" s="180" t="s">
+        <v>157</v>
+      </c>
+      <c r="C24" s="179">
+        <v>1</v>
+      </c>
+      <c r="D24" s="180" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B25" s="180" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="179">
+        <v>1</v>
+      </c>
+      <c r="D25" s="180" t="s">
+        <v>183</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B26" s="180" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="179">
+        <v>1</v>
+      </c>
+      <c r="D26" s="180" t="s">
+        <v>184</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B27" s="180" t="s">
+        <v>160</v>
+      </c>
+      <c r="C27" s="179">
+        <v>1</v>
+      </c>
+      <c r="D27" s="180" t="s">
+        <v>185</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="182"/>
+      <c r="B30" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" s="68" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="70">
+        <v>1</v>
+      </c>
+      <c r="B31" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="C31" s="80">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="70">
+        <v>2</v>
+      </c>
+      <c r="B32" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="80">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="70">
+        <v>3</v>
+      </c>
+      <c r="B33" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="80">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="70">
+        <v>4</v>
+      </c>
+      <c r="B34" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="80">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="70">
+        <v>5</v>
+      </c>
+      <c r="B35" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="80">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="70">
+        <v>6</v>
+      </c>
+      <c r="B36" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="70">
+        <v>7</v>
+      </c>
+      <c r="B37" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="70">
+        <v>8</v>
+      </c>
+      <c r="B38" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="70">
+        <v>9</v>
+      </c>
+      <c r="B39" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="70">
+        <v>10</v>
+      </c>
+      <c r="B40" s="57" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="70">
+        <v>11</v>
+      </c>
+      <c r="B41" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="70">
+        <v>12</v>
+      </c>
+      <c r="B42" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C42" s="80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="70">
+        <v>13</v>
+      </c>
+      <c r="B43" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="80">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="70">
+        <v>14</v>
+      </c>
+      <c r="B44" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="80">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="70">
+        <v>15</v>
+      </c>
+      <c r="B45" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="80">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="70">
+        <v>16</v>
+      </c>
+      <c r="B46" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="C46" s="80">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="70">
+        <v>17</v>
+      </c>
+      <c r="B47" s="57" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="80">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="70">
+        <v>18</v>
+      </c>
+      <c r="B48" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="C48" s="80">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="70">
+        <v>19</v>
+      </c>
+      <c r="B49" s="57" t="s">
+        <v>205</v>
+      </c>
+      <c r="C49" s="80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="70">
+        <v>20</v>
+      </c>
+      <c r="B50" s="57" t="s">
+        <v>206</v>
+      </c>
+      <c r="C50" s="80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="70">
+        <v>21</v>
+      </c>
+      <c r="B51" s="57" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" s="80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="70">
+        <v>22</v>
+      </c>
+      <c r="B52" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="C52" s="80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="70">
+        <v>23</v>
+      </c>
+      <c r="B53" s="57" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" s="80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="70">
+        <v>24</v>
+      </c>
+      <c r="B54" s="57" t="s">
+        <v>210</v>
+      </c>
+      <c r="C54" s="80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="70">
+        <v>25</v>
+      </c>
+      <c r="B55" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="C55" s="80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="173">
+        <v>26</v>
+      </c>
+      <c r="B56" s="57" t="s">
+        <v>212</v>
+      </c>
+      <c r="C56" s="176">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="173"/>
+      <c r="B57" s="57" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="176"/>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="70">
+        <v>27</v>
+      </c>
+      <c r="B58" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" s="80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="70">
+        <v>28</v>
+      </c>
+      <c r="B59" s="57" t="s">
+        <v>215</v>
+      </c>
+      <c r="C59" s="80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="70">
+        <v>29</v>
+      </c>
+      <c r="B60" s="57" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="70">
+        <v>30</v>
+      </c>
+      <c r="B61" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="70">
+        <v>31</v>
+      </c>
+      <c r="B62" s="57" t="s">
+        <v>218</v>
+      </c>
+      <c r="C62" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="70">
+        <v>32</v>
+      </c>
+      <c r="B63" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C63" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="70">
+        <v>33</v>
+      </c>
+      <c r="B64" s="57" t="s">
+        <v>220</v>
+      </c>
+      <c r="C64" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="70">
+        <v>34</v>
+      </c>
+      <c r="B65" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="C65" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="70">
+        <v>35</v>
+      </c>
+      <c r="B66" s="57" t="s">
+        <v>222</v>
+      </c>
+      <c r="C66" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="70">
+        <v>36</v>
+      </c>
+      <c r="B67" s="57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C67" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="70">
+        <v>37</v>
+      </c>
+      <c r="B68" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="C68" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="70">
+        <v>38</v>
+      </c>
+      <c r="B69" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="C69" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="70">
+        <v>39</v>
+      </c>
+      <c r="B70" s="57" t="s">
+        <v>226</v>
+      </c>
+      <c r="C70" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="70">
+        <v>40</v>
+      </c>
+      <c r="B71" s="57" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="70">
+        <v>41</v>
+      </c>
+      <c r="B72" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="C72" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="70">
+        <v>42</v>
+      </c>
+      <c r="B73" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="C73" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="70">
+        <v>43</v>
+      </c>
+      <c r="B74" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="C74" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="70">
+        <v>44</v>
+      </c>
+      <c r="B75" s="57" t="s">
+        <v>231</v>
+      </c>
+      <c r="C75" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="70">
+        <v>45</v>
+      </c>
+      <c r="B76" s="57" t="s">
+        <v>232</v>
+      </c>
+      <c r="C76" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="70">
+        <v>46</v>
+      </c>
+      <c r="B77" s="57" t="s">
+        <v>233</v>
+      </c>
+      <c r="C77" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="70">
+        <v>47</v>
+      </c>
+      <c r="B78" s="57" t="s">
+        <v>234</v>
+      </c>
+      <c r="C78" s="80">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="70">
+        <v>48</v>
+      </c>
+      <c r="B79" s="57" t="s">
+        <v>235</v>
+      </c>
+      <c r="C79" s="80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="70">
+        <v>49</v>
+      </c>
+      <c r="B80" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" s="80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="57">
+        <v>152</v>
+      </c>
+      <c r="B81" s="57" t="s">
+        <v>237</v>
+      </c>
+      <c r="C81" s="80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="64">
+        <v>50</v>
+      </c>
+      <c r="B82" s="63" t="s">
+        <v>238</v>
+      </c>
+      <c r="C82" s="178">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C56:C57"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/MisTablas.xlsx
+++ b/MisTablas.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/todomundomx/Desktop/MiGithub/ProyectoCertificacion/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A2C353-AD9A-894A-9BE5-EBA7F66500F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604A2E30-A377-1947-A794-4D87B699BA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1980" yWindow="2160" windowWidth="26480" windowHeight="18120" activeTab="3" xr2:uid="{5A3A1A73-B642-6D44-B565-802F0378ADD6}"/>
+    <workbookView xWindow="1980" yWindow="2160" windowWidth="26480" windowHeight="18120" activeTab="4" xr2:uid="{5A3A1A73-B642-6D44-B565-802F0378ADD6}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
     <sheet name="Hoja4" sheetId="4" r:id="rId4"/>
+    <sheet name="Hoja5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="253">
   <si>
     <t>ISET</t>
   </si>
@@ -758,6 +759,45 @@
   </si>
   <si>
     <t>Número Intentos</t>
+  </si>
+  <si>
+    <t>MaxIntNuncaCert</t>
+  </si>
+  <si>
+    <t>ESTUDIOS SOCIALES E HISTORICOS II MOD-II</t>
+  </si>
+  <si>
+    <t>ESTUDIOS SOCIALES E HISTORICOS I MOD-I</t>
+  </si>
+  <si>
+    <t>INGLES I</t>
+  </si>
+  <si>
+    <t>ELECTRICIDAD Y MAGNETISMO</t>
+  </si>
+  <si>
+    <t>ESTUDIOS SOCIALES E HISTORICOS III MOD-I</t>
+  </si>
+  <si>
+    <t>ARTE Y COMUNICACION</t>
+  </si>
+  <si>
+    <t>LENGUAJE Y PENSAMIENTO I</t>
+  </si>
+  <si>
+    <t>FILOSOFIA DE LA ECONOMIA</t>
+  </si>
+  <si>
+    <t>CRECIMIENTO Y DESARROLLO I</t>
+  </si>
+  <si>
+    <t>ENFOQUES ESTRUCTURALISTAS EN COMUNICACION</t>
+  </si>
+  <si>
+    <t>FILOSOFIA DE LA CULTURA Y EL ARTE</t>
+  </si>
+  <si>
+    <t>LECTURA DE TEXTOS EN INGLES III</t>
   </si>
 </sst>
 </file>
@@ -1653,218 +1693,220 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3720,26 +3762,26 @@
         <v>24</v>
       </c>
       <c r="Y2" s="60"/>
-      <c r="Z2" s="136" t="s">
+      <c r="Z2" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="AA2" s="137"/>
-      <c r="AC2" s="132" t="s">
+      <c r="AA2" s="123"/>
+      <c r="AC2" s="136" t="s">
         <v>47</v>
       </c>
-      <c r="AD2" s="133"/>
-      <c r="AE2" s="134" t="s">
+      <c r="AD2" s="137"/>
+      <c r="AE2" s="138" t="s">
         <v>56</v>
       </c>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="132" t="s">
+      <c r="AF2" s="139"/>
+      <c r="AG2" s="136" t="s">
         <v>57</v>
       </c>
-      <c r="AH2" s="133"/>
-      <c r="AI2" s="132" t="s">
+      <c r="AH2" s="137"/>
+      <c r="AI2" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="AJ2" s="133"/>
+      <c r="AJ2" s="137"/>
       <c r="AK2" s="39" t="s">
         <v>49</v>
       </c>
@@ -3829,44 +3871,44 @@
       <c r="Q3" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="R3" s="122">
+      <c r="R3" s="124">
         <v>29.4</v>
       </c>
-      <c r="S3" s="123"/>
-      <c r="T3" s="122">
+      <c r="S3" s="125"/>
+      <c r="T3" s="124">
         <v>23.98</v>
       </c>
-      <c r="U3" s="123"/>
+      <c r="U3" s="125"/>
       <c r="V3" s="35">
         <v>0.13</v>
       </c>
       <c r="W3" s="35">
         <v>1.9</v>
       </c>
-      <c r="X3" s="122">
+      <c r="X3" s="124">
         <v>44.57</v>
       </c>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="124">
+      <c r="Y3" s="125"/>
+      <c r="Z3" s="126">
         <v>0.02</v>
       </c>
-      <c r="AA3" s="125"/>
-      <c r="AC3" s="128" t="s">
+      <c r="AA3" s="127"/>
+      <c r="AC3" s="132" t="s">
         <v>15</v>
       </c>
-      <c r="AD3" s="129"/>
-      <c r="AE3" s="128">
+      <c r="AD3" s="133"/>
+      <c r="AE3" s="132">
         <v>16725</v>
       </c>
-      <c r="AF3" s="129"/>
-      <c r="AG3" s="130">
+      <c r="AF3" s="133"/>
+      <c r="AG3" s="134">
         <v>4711</v>
       </c>
-      <c r="AH3" s="131"/>
-      <c r="AI3" s="128">
+      <c r="AH3" s="135"/>
+      <c r="AI3" s="132">
         <v>21436</v>
       </c>
-      <c r="AJ3" s="129"/>
+      <c r="AJ3" s="133"/>
       <c r="AK3" s="35">
         <v>0.78</v>
       </c>
@@ -3956,44 +3998,44 @@
       <c r="Q4" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="R4" s="110">
+      <c r="R4" s="114">
         <v>3.99</v>
       </c>
-      <c r="S4" s="111"/>
-      <c r="T4" s="110">
+      <c r="S4" s="115"/>
+      <c r="T4" s="114">
         <v>23.28</v>
       </c>
-      <c r="U4" s="111"/>
+      <c r="U4" s="115"/>
       <c r="V4" s="35">
         <v>0.37</v>
       </c>
       <c r="W4" s="35">
         <v>14.9</v>
       </c>
-      <c r="X4" s="110">
+      <c r="X4" s="114">
         <v>57.41</v>
       </c>
-      <c r="Y4" s="111"/>
-      <c r="Z4" s="112">
+      <c r="Y4" s="115"/>
+      <c r="Z4" s="116">
         <v>0.05</v>
       </c>
-      <c r="AA4" s="113"/>
-      <c r="AC4" s="114" t="s">
+      <c r="AA4" s="117"/>
+      <c r="AC4" s="128" t="s">
         <v>53</v>
       </c>
-      <c r="AD4" s="115"/>
-      <c r="AE4" s="116">
+      <c r="AD4" s="129"/>
+      <c r="AE4" s="130">
         <v>2865</v>
       </c>
-      <c r="AF4" s="117"/>
-      <c r="AG4" s="116">
+      <c r="AF4" s="131"/>
+      <c r="AG4" s="130">
         <v>935</v>
       </c>
-      <c r="AH4" s="117"/>
-      <c r="AI4" s="116">
+      <c r="AH4" s="131"/>
+      <c r="AI4" s="130">
         <v>3800</v>
       </c>
-      <c r="AJ4" s="117"/>
+      <c r="AJ4" s="131"/>
       <c r="AK4" s="39">
         <v>0.75</v>
       </c>
@@ -4105,22 +4147,22 @@
         <v>0.37</v>
       </c>
       <c r="AA5" s="121"/>
-      <c r="AC5" s="128" t="s">
+      <c r="AC5" s="132" t="s">
         <v>7</v>
       </c>
-      <c r="AD5" s="129"/>
-      <c r="AE5" s="128">
+      <c r="AD5" s="133"/>
+      <c r="AE5" s="132">
         <v>43184</v>
       </c>
-      <c r="AF5" s="129"/>
-      <c r="AG5" s="130">
+      <c r="AF5" s="133"/>
+      <c r="AG5" s="134">
         <v>16037</v>
       </c>
-      <c r="AH5" s="131"/>
-      <c r="AI5" s="128">
+      <c r="AH5" s="135"/>
+      <c r="AI5" s="132">
         <v>59221</v>
       </c>
-      <c r="AJ5" s="129"/>
+      <c r="AJ5" s="133"/>
       <c r="AK5" s="35">
         <v>0.73</v>
       </c>
@@ -4210,28 +4252,28 @@
       <c r="Q6" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="122">
+      <c r="R6" s="124">
         <v>6.25</v>
       </c>
-      <c r="S6" s="123"/>
-      <c r="T6" s="122">
+      <c r="S6" s="125"/>
+      <c r="T6" s="124">
         <v>24.61</v>
       </c>
-      <c r="U6" s="123"/>
+      <c r="U6" s="125"/>
       <c r="V6" s="35">
         <v>0.13</v>
       </c>
       <c r="W6" s="35">
         <v>19.170000000000002</v>
       </c>
-      <c r="X6" s="122">
+      <c r="X6" s="124">
         <v>49.81</v>
       </c>
-      <c r="Y6" s="123"/>
-      <c r="Z6" s="124">
+      <c r="Y6" s="125"/>
+      <c r="Z6" s="126">
         <v>0.04</v>
       </c>
-      <c r="AA6" s="125"/>
+      <c r="AA6" s="127"/>
       <c r="AC6" s="118" t="s">
         <v>6</v>
       </c>
@@ -4337,44 +4379,44 @@
       <c r="Q7" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="R7" s="110">
+      <c r="R7" s="114">
         <v>2.48</v>
       </c>
-      <c r="S7" s="111"/>
-      <c r="T7" s="112">
+      <c r="S7" s="115"/>
+      <c r="T7" s="116">
         <v>1.78</v>
       </c>
-      <c r="U7" s="113"/>
+      <c r="U7" s="117"/>
       <c r="V7" s="35">
         <v>87.94</v>
       </c>
       <c r="W7" s="35">
         <v>0.93</v>
       </c>
-      <c r="X7" s="110">
+      <c r="X7" s="114">
         <v>6.87</v>
       </c>
-      <c r="Y7" s="111"/>
-      <c r="Z7" s="112">
+      <c r="Y7" s="115"/>
+      <c r="Z7" s="116">
         <v>0</v>
       </c>
-      <c r="AA7" s="113"/>
-      <c r="AC7" s="122" t="s">
+      <c r="AA7" s="117"/>
+      <c r="AC7" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="AD7" s="123"/>
-      <c r="AE7" s="124">
+      <c r="AD7" s="125"/>
+      <c r="AE7" s="126">
         <v>6545</v>
       </c>
-      <c r="AF7" s="125"/>
-      <c r="AG7" s="124">
+      <c r="AF7" s="127"/>
+      <c r="AG7" s="126">
         <v>2816</v>
       </c>
-      <c r="AH7" s="125"/>
-      <c r="AI7" s="124">
+      <c r="AH7" s="127"/>
+      <c r="AI7" s="126">
         <v>9361</v>
       </c>
-      <c r="AJ7" s="125"/>
+      <c r="AJ7" s="127"/>
       <c r="AK7" s="35">
         <v>0.7</v>
       </c>
@@ -4464,44 +4506,44 @@
       <c r="Q8" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="R8" s="110">
+      <c r="R8" s="114">
         <v>2.0699999999999998</v>
       </c>
-      <c r="S8" s="111"/>
-      <c r="T8" s="110">
+      <c r="S8" s="115"/>
+      <c r="T8" s="114">
         <v>39.119999999999997</v>
       </c>
-      <c r="U8" s="111"/>
+      <c r="U8" s="115"/>
       <c r="V8" s="35">
         <v>0.28000000000000003</v>
       </c>
       <c r="W8" s="35">
         <v>1.84</v>
       </c>
-      <c r="X8" s="110">
+      <c r="X8" s="114">
         <v>56.58</v>
       </c>
-      <c r="Y8" s="111"/>
-      <c r="Z8" s="112">
+      <c r="Y8" s="115"/>
+      <c r="Z8" s="116">
         <v>0.11</v>
       </c>
-      <c r="AA8" s="113"/>
-      <c r="AC8" s="110" t="s">
+      <c r="AA8" s="117"/>
+      <c r="AC8" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="AD8" s="111"/>
-      <c r="AE8" s="112">
+      <c r="AD8" s="115"/>
+      <c r="AE8" s="116">
         <v>5178</v>
       </c>
-      <c r="AF8" s="113"/>
-      <c r="AG8" s="112">
+      <c r="AF8" s="117"/>
+      <c r="AG8" s="116">
         <v>2243</v>
       </c>
-      <c r="AH8" s="113"/>
-      <c r="AI8" s="112">
+      <c r="AH8" s="117"/>
+      <c r="AI8" s="116">
         <v>7421</v>
       </c>
-      <c r="AJ8" s="113"/>
+      <c r="AJ8" s="117"/>
       <c r="AK8" s="35">
         <v>0.7</v>
       </c>
@@ -4613,22 +4655,22 @@
         <v>0</v>
       </c>
       <c r="AA9" s="121"/>
-      <c r="AC9" s="110" t="s">
+      <c r="AC9" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="AD9" s="111"/>
-      <c r="AE9" s="110">
+      <c r="AD9" s="115"/>
+      <c r="AE9" s="114">
         <v>165426</v>
       </c>
-      <c r="AF9" s="111"/>
-      <c r="AG9" s="112">
+      <c r="AF9" s="115"/>
+      <c r="AG9" s="116">
         <v>74244</v>
       </c>
-      <c r="AH9" s="113"/>
-      <c r="AI9" s="110">
+      <c r="AH9" s="117"/>
+      <c r="AI9" s="114">
         <v>239670</v>
       </c>
-      <c r="AJ9" s="111"/>
+      <c r="AJ9" s="115"/>
       <c r="AK9" s="35">
         <v>0.69</v>
       </c>
@@ -4700,44 +4742,44 @@
       <c r="Q10" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="R10" s="122">
+      <c r="R10" s="124">
         <v>0.98</v>
       </c>
-      <c r="S10" s="123"/>
-      <c r="T10" s="122">
+      <c r="S10" s="125"/>
+      <c r="T10" s="124">
         <v>30.72</v>
       </c>
-      <c r="U10" s="123"/>
+      <c r="U10" s="125"/>
       <c r="V10" s="35">
         <v>1.0900000000000001</v>
       </c>
       <c r="W10" s="35">
         <v>23.46</v>
       </c>
-      <c r="X10" s="122">
+      <c r="X10" s="124">
         <v>43.75</v>
       </c>
-      <c r="Y10" s="123"/>
-      <c r="Z10" s="124">
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="126">
         <v>0</v>
       </c>
-      <c r="AA10" s="125"/>
-      <c r="AC10" s="110" t="s">
+      <c r="AA10" s="127"/>
+      <c r="AC10" s="114" t="s">
         <v>51</v>
       </c>
-      <c r="AD10" s="111"/>
-      <c r="AE10" s="110">
+      <c r="AD10" s="115"/>
+      <c r="AE10" s="114">
         <v>63532</v>
       </c>
-      <c r="AF10" s="111"/>
-      <c r="AG10" s="112">
+      <c r="AF10" s="115"/>
+      <c r="AG10" s="116">
         <v>28768</v>
       </c>
-      <c r="AH10" s="113"/>
-      <c r="AI10" s="110">
+      <c r="AH10" s="117"/>
+      <c r="AI10" s="114">
         <v>92300</v>
       </c>
-      <c r="AJ10" s="111"/>
+      <c r="AJ10" s="115"/>
       <c r="AK10" s="35">
         <v>0.69</v>
       </c>
@@ -4809,44 +4851,44 @@
       <c r="Q11" s="61" t="s">
         <v>16</v>
       </c>
-      <c r="R11" s="110">
+      <c r="R11" s="114">
         <v>19.53</v>
       </c>
-      <c r="S11" s="111"/>
-      <c r="T11" s="110">
+      <c r="S11" s="115"/>
+      <c r="T11" s="114">
         <v>14.23</v>
       </c>
-      <c r="U11" s="111"/>
+      <c r="U11" s="115"/>
       <c r="V11" s="35">
         <v>0.75</v>
       </c>
       <c r="W11" s="35">
         <v>22.96</v>
       </c>
-      <c r="X11" s="110">
+      <c r="X11" s="114">
         <v>42.51</v>
       </c>
-      <c r="Y11" s="111"/>
-      <c r="Z11" s="112">
+      <c r="Y11" s="115"/>
+      <c r="Z11" s="116">
         <v>0.02</v>
       </c>
-      <c r="AA11" s="113"/>
-      <c r="AC11" s="110" t="s">
+      <c r="AA11" s="117"/>
+      <c r="AC11" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="AD11" s="111"/>
-      <c r="AE11" s="110">
+      <c r="AD11" s="115"/>
+      <c r="AE11" s="114">
         <v>30339</v>
       </c>
-      <c r="AF11" s="111"/>
-      <c r="AG11" s="112">
+      <c r="AF11" s="115"/>
+      <c r="AG11" s="116">
         <v>14530</v>
       </c>
-      <c r="AH11" s="113"/>
-      <c r="AI11" s="110">
+      <c r="AH11" s="117"/>
+      <c r="AI11" s="114">
         <v>44869</v>
       </c>
-      <c r="AJ11" s="111"/>
+      <c r="AJ11" s="115"/>
       <c r="AK11" s="35">
         <v>0.68</v>
       </c>
@@ -4918,32 +4960,32 @@
       <c r="Q12" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="R12" s="110">
+      <c r="R12" s="114">
         <v>1.7</v>
       </c>
-      <c r="S12" s="111"/>
-      <c r="T12" s="110">
+      <c r="S12" s="115"/>
+      <c r="T12" s="114">
         <v>35.04</v>
       </c>
-      <c r="U12" s="111"/>
+      <c r="U12" s="115"/>
       <c r="V12" s="35">
         <v>0.22</v>
       </c>
       <c r="W12" s="35">
         <v>1.28</v>
       </c>
-      <c r="X12" s="110">
+      <c r="X12" s="114">
         <v>61.77</v>
       </c>
-      <c r="Y12" s="111"/>
-      <c r="Z12" s="112">
+      <c r="Y12" s="115"/>
+      <c r="Z12" s="116">
         <v>0</v>
       </c>
-      <c r="AA12" s="113"/>
-      <c r="AC12" s="126" t="s">
+      <c r="AA12" s="117"/>
+      <c r="AC12" s="140" t="s">
         <v>9</v>
       </c>
-      <c r="AD12" s="127"/>
+      <c r="AD12" s="141"/>
       <c r="AE12" s="118">
         <v>25704</v>
       </c>
@@ -5049,22 +5091,22 @@
         <v>0</v>
       </c>
       <c r="AA13" s="121"/>
-      <c r="AC13" s="122" t="s">
+      <c r="AC13" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="AD13" s="123"/>
-      <c r="AE13" s="124">
+      <c r="AD13" s="125"/>
+      <c r="AE13" s="126">
         <v>4429</v>
       </c>
-      <c r="AF13" s="125"/>
-      <c r="AG13" s="124">
+      <c r="AF13" s="127"/>
+      <c r="AG13" s="126">
         <v>2264</v>
       </c>
-      <c r="AH13" s="125"/>
-      <c r="AI13" s="124">
+      <c r="AH13" s="127"/>
+      <c r="AI13" s="126">
         <v>6693</v>
       </c>
-      <c r="AJ13" s="125"/>
+      <c r="AJ13" s="127"/>
       <c r="AK13" s="35">
         <v>0.66</v>
       </c>
@@ -5136,44 +5178,44 @@
       <c r="Q14" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="R14" s="122">
+      <c r="R14" s="124">
         <v>3.05</v>
       </c>
-      <c r="S14" s="123"/>
-      <c r="T14" s="122">
+      <c r="S14" s="125"/>
+      <c r="T14" s="124">
         <v>52.19</v>
       </c>
-      <c r="U14" s="123"/>
+      <c r="U14" s="125"/>
       <c r="V14" s="35">
         <v>1.03</v>
       </c>
       <c r="W14" s="35">
         <v>1.71</v>
       </c>
-      <c r="X14" s="122">
+      <c r="X14" s="124">
         <v>5.23</v>
       </c>
-      <c r="Y14" s="123"/>
-      <c r="Z14" s="124">
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="126">
         <v>36.799999999999997</v>
       </c>
-      <c r="AA14" s="125"/>
-      <c r="AC14" s="110" t="s">
+      <c r="AA14" s="127"/>
+      <c r="AC14" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="AD14" s="111"/>
-      <c r="AE14" s="110">
+      <c r="AD14" s="115"/>
+      <c r="AE14" s="114">
         <v>19503</v>
       </c>
-      <c r="AF14" s="111"/>
-      <c r="AG14" s="112">
+      <c r="AF14" s="115"/>
+      <c r="AG14" s="116">
         <v>10372</v>
       </c>
-      <c r="AH14" s="113"/>
-      <c r="AI14" s="110">
+      <c r="AH14" s="117"/>
+      <c r="AI14" s="114">
         <v>29875</v>
       </c>
-      <c r="AJ14" s="111"/>
+      <c r="AJ14" s="115"/>
       <c r="AK14" s="35">
         <v>0.65</v>
       </c>
@@ -5245,44 +5287,44 @@
       <c r="Q15" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="R15" s="110">
+      <c r="R15" s="114">
         <v>2.67</v>
       </c>
-      <c r="S15" s="111"/>
-      <c r="T15" s="110">
+      <c r="S15" s="115"/>
+      <c r="T15" s="114">
         <v>18.48</v>
       </c>
-      <c r="U15" s="111"/>
+      <c r="U15" s="115"/>
       <c r="V15" s="35">
         <v>29.94</v>
       </c>
       <c r="W15" s="35">
         <v>0.98</v>
       </c>
-      <c r="X15" s="110">
+      <c r="X15" s="114">
         <v>47.79</v>
       </c>
-      <c r="Y15" s="111"/>
-      <c r="Z15" s="112">
+      <c r="Y15" s="115"/>
+      <c r="Z15" s="116">
         <v>0.14000000000000001</v>
       </c>
-      <c r="AA15" s="113"/>
-      <c r="AC15" s="110" t="s">
+      <c r="AA15" s="117"/>
+      <c r="AC15" s="114" t="s">
         <v>52</v>
       </c>
-      <c r="AD15" s="111"/>
-      <c r="AE15" s="110">
+      <c r="AD15" s="115"/>
+      <c r="AE15" s="114">
         <v>161383</v>
       </c>
-      <c r="AF15" s="111"/>
-      <c r="AG15" s="112">
+      <c r="AF15" s="115"/>
+      <c r="AG15" s="116">
         <v>87123</v>
       </c>
-      <c r="AH15" s="113"/>
-      <c r="AI15" s="110">
+      <c r="AH15" s="117"/>
+      <c r="AI15" s="114">
         <v>248506</v>
       </c>
-      <c r="AJ15" s="111"/>
+      <c r="AJ15" s="115"/>
       <c r="AK15" s="35">
         <v>0.65</v>
       </c>
@@ -5354,44 +5396,44 @@
       <c r="Q16" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="R16" s="110">
+      <c r="R16" s="114">
         <v>2.2999999999999998</v>
       </c>
-      <c r="S16" s="111"/>
-      <c r="T16" s="110">
+      <c r="S16" s="115"/>
+      <c r="T16" s="114">
         <v>25.07</v>
       </c>
-      <c r="U16" s="111"/>
+      <c r="U16" s="115"/>
       <c r="V16" s="35">
         <v>5.24</v>
       </c>
       <c r="W16" s="35">
         <v>0.88</v>
       </c>
-      <c r="X16" s="110">
+      <c r="X16" s="114">
         <v>66.510000000000005</v>
       </c>
-      <c r="Y16" s="111"/>
-      <c r="Z16" s="112">
+      <c r="Y16" s="115"/>
+      <c r="Z16" s="116">
         <v>0</v>
       </c>
-      <c r="AA16" s="113"/>
-      <c r="AC16" s="110" t="s">
+      <c r="AA16" s="117"/>
+      <c r="AC16" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="AD16" s="111"/>
-      <c r="AE16" s="110">
+      <c r="AD16" s="115"/>
+      <c r="AE16" s="114">
         <v>27880</v>
       </c>
-      <c r="AF16" s="111"/>
-      <c r="AG16" s="112">
+      <c r="AF16" s="115"/>
+      <c r="AG16" s="116">
         <v>15169</v>
       </c>
-      <c r="AH16" s="113"/>
-      <c r="AI16" s="110">
+      <c r="AH16" s="117"/>
+      <c r="AI16" s="114">
         <v>43049</v>
       </c>
-      <c r="AJ16" s="111"/>
+      <c r="AJ16" s="115"/>
       <c r="AK16" s="35">
         <v>0.65</v>
       </c>
@@ -5485,22 +5527,22 @@
         <v>0.59</v>
       </c>
       <c r="AA17" s="121"/>
-      <c r="AC17" s="110" t="s">
+      <c r="AC17" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="AD17" s="111"/>
-      <c r="AE17" s="112">
+      <c r="AD17" s="115"/>
+      <c r="AE17" s="116">
         <v>4922</v>
       </c>
-      <c r="AF17" s="113"/>
-      <c r="AG17" s="112">
+      <c r="AF17" s="117"/>
+      <c r="AG17" s="116">
         <v>2722</v>
       </c>
-      <c r="AH17" s="113"/>
-      <c r="AI17" s="112">
+      <c r="AH17" s="117"/>
+      <c r="AI17" s="116">
         <v>7644</v>
       </c>
-      <c r="AJ17" s="113"/>
+      <c r="AJ17" s="117"/>
       <c r="AK17" s="35">
         <v>0.64</v>
       </c>
@@ -5572,28 +5614,28 @@
       <c r="Q18" s="69" t="s">
         <v>51</v>
       </c>
-      <c r="R18" s="122">
+      <c r="R18" s="124">
         <v>33.44</v>
       </c>
-      <c r="S18" s="123"/>
-      <c r="T18" s="122">
+      <c r="S18" s="125"/>
+      <c r="T18" s="124">
         <v>18.46</v>
       </c>
-      <c r="U18" s="123"/>
+      <c r="U18" s="125"/>
       <c r="V18" s="35">
         <v>1.1499999999999999</v>
       </c>
       <c r="W18" s="35">
         <v>2.15</v>
       </c>
-      <c r="X18" s="122">
+      <c r="X18" s="124">
         <v>44.75</v>
       </c>
-      <c r="Y18" s="123"/>
-      <c r="Z18" s="124">
+      <c r="Y18" s="125"/>
+      <c r="Z18" s="126">
         <v>0.04</v>
       </c>
-      <c r="AA18" s="125"/>
+      <c r="AA18" s="127"/>
       <c r="AC18" s="118" t="s">
         <v>16</v>
       </c>
@@ -5681,44 +5723,44 @@
       <c r="Q19" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="R19" s="110">
+      <c r="R19" s="114">
         <v>1.56</v>
       </c>
-      <c r="S19" s="111"/>
-      <c r="T19" s="110">
+      <c r="S19" s="115"/>
+      <c r="T19" s="114">
         <v>14.61</v>
       </c>
-      <c r="U19" s="111"/>
+      <c r="U19" s="115"/>
       <c r="V19" s="35">
         <v>14.49</v>
       </c>
       <c r="W19" s="35">
         <v>21.91</v>
       </c>
-      <c r="X19" s="110">
+      <c r="X19" s="114">
         <v>46.84</v>
       </c>
-      <c r="Y19" s="111"/>
-      <c r="Z19" s="112">
+      <c r="Y19" s="115"/>
+      <c r="Z19" s="116">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AA19" s="113"/>
-      <c r="AC19" s="122" t="s">
+      <c r="AA19" s="117"/>
+      <c r="AC19" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="AD19" s="123"/>
-      <c r="AE19" s="122">
+      <c r="AD19" s="125"/>
+      <c r="AE19" s="124">
         <v>19246</v>
       </c>
-      <c r="AF19" s="123"/>
-      <c r="AG19" s="124">
+      <c r="AF19" s="125"/>
+      <c r="AG19" s="126">
         <v>13652</v>
       </c>
-      <c r="AH19" s="125"/>
-      <c r="AI19" s="122">
+      <c r="AH19" s="127"/>
+      <c r="AI19" s="124">
         <v>32898</v>
       </c>
-      <c r="AJ19" s="123"/>
+      <c r="AJ19" s="125"/>
       <c r="AK19" s="35">
         <v>0.59</v>
       </c>
@@ -5790,44 +5832,44 @@
       <c r="Q20" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="R20" s="110">
+      <c r="R20" s="114">
         <v>1.31</v>
       </c>
-      <c r="S20" s="111"/>
-      <c r="T20" s="110">
+      <c r="S20" s="115"/>
+      <c r="T20" s="114">
         <v>32.119999999999997</v>
       </c>
-      <c r="U20" s="111"/>
+      <c r="U20" s="115"/>
       <c r="V20" s="35">
         <v>0.46</v>
       </c>
       <c r="W20" s="35">
         <v>1.31</v>
       </c>
-      <c r="X20" s="110">
+      <c r="X20" s="114">
         <v>64.8</v>
       </c>
-      <c r="Y20" s="111"/>
-      <c r="Z20" s="112">
+      <c r="Y20" s="115"/>
+      <c r="Z20" s="116">
         <v>0</v>
       </c>
-      <c r="AA20" s="113"/>
-      <c r="AC20" s="110" t="s">
+      <c r="AA20" s="117"/>
+      <c r="AC20" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="AD20" s="111"/>
-      <c r="AE20" s="110">
+      <c r="AD20" s="115"/>
+      <c r="AE20" s="114">
         <v>25305</v>
       </c>
-      <c r="AF20" s="111"/>
-      <c r="AG20" s="112">
+      <c r="AF20" s="115"/>
+      <c r="AG20" s="116">
         <v>19151</v>
       </c>
-      <c r="AH20" s="113"/>
-      <c r="AI20" s="110">
+      <c r="AH20" s="117"/>
+      <c r="AI20" s="114">
         <v>44456</v>
       </c>
-      <c r="AJ20" s="111"/>
+      <c r="AJ20" s="115"/>
       <c r="AK20" s="35">
         <v>0.56999999999999995</v>
       </c>
@@ -5921,22 +5963,22 @@
         <v>0.05</v>
       </c>
       <c r="AA21" s="121"/>
-      <c r="AC21" s="114" t="s">
+      <c r="AC21" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="AD21" s="115"/>
-      <c r="AE21" s="114">
+      <c r="AD21" s="129"/>
+      <c r="AE21" s="128">
         <v>40221</v>
       </c>
-      <c r="AF21" s="115"/>
-      <c r="AG21" s="116">
+      <c r="AF21" s="129"/>
+      <c r="AG21" s="130">
         <v>33779</v>
       </c>
-      <c r="AH21" s="117"/>
-      <c r="AI21" s="114">
+      <c r="AH21" s="131"/>
+      <c r="AI21" s="128">
         <v>74000</v>
       </c>
-      <c r="AJ21" s="115"/>
+      <c r="AJ21" s="129"/>
       <c r="AK21" s="39">
         <v>0.54</v>
       </c>
@@ -6047,19 +6089,134 @@
     </row>
   </sheetData>
   <mergeCells count="157">
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="X5:Y5"/>
-    <mergeCell ref="Z5:AA5"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="X3:Y3"/>
-    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="AC20:AD20"/>
+    <mergeCell ref="AE20:AF20"/>
+    <mergeCell ref="AG20:AH20"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AC21:AD21"/>
+    <mergeCell ref="AE21:AF21"/>
+    <mergeCell ref="AG21:AH21"/>
+    <mergeCell ref="AI21:AJ21"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="AE18:AF18"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AC19:AD19"/>
+    <mergeCell ref="AE19:AF19"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AC16:AD16"/>
+    <mergeCell ref="AE16:AF16"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AC17:AD17"/>
+    <mergeCell ref="AE17:AF17"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AE14:AF14"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AC15:AD15"/>
+    <mergeCell ref="AE15:AF15"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="AE12:AF12"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="AE13:AF13"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AE10:AF10"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AC11:AD11"/>
+    <mergeCell ref="AE11:AF11"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AE8:AF8"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="AE9:AF9"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AC6:AD6"/>
+    <mergeCell ref="AE6:AF6"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AE7:AF7"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AC5:AD5"/>
+    <mergeCell ref="AE5:AF5"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AC2:AD2"/>
+    <mergeCell ref="AE2:AF2"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="AE3:AF3"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="R20:S20"/>
+    <mergeCell ref="T20:U20"/>
+    <mergeCell ref="X20:Y20"/>
+    <mergeCell ref="Z20:AA20"/>
+    <mergeCell ref="R21:S21"/>
+    <mergeCell ref="T21:U21"/>
+    <mergeCell ref="X21:Y21"/>
+    <mergeCell ref="Z21:AA21"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="X18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="X19:Y19"/>
+    <mergeCell ref="Z19:AA19"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="X16:Y16"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="X17:Y17"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="X14:Y14"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="X12:Y12"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="X13:Y13"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="X10:Y10"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="X11:Y11"/>
+    <mergeCell ref="Z11:AA11"/>
     <mergeCell ref="R8:S8"/>
     <mergeCell ref="T8:U8"/>
     <mergeCell ref="X8:Y8"/>
@@ -6076,134 +6233,19 @@
     <mergeCell ref="T7:U7"/>
     <mergeCell ref="X7:Y7"/>
     <mergeCell ref="Z7:AA7"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="X12:Y12"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="X13:Y13"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="X10:Y10"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="X11:Y11"/>
-    <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="X16:Y16"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="X17:Y17"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="X14:Y14"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="R20:S20"/>
-    <mergeCell ref="T20:U20"/>
-    <mergeCell ref="X20:Y20"/>
-    <mergeCell ref="Z20:AA20"/>
-    <mergeCell ref="R21:S21"/>
-    <mergeCell ref="T21:U21"/>
-    <mergeCell ref="X21:Y21"/>
-    <mergeCell ref="Z21:AA21"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="X18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="X19:Y19"/>
-    <mergeCell ref="Z19:AA19"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AC5:AD5"/>
-    <mergeCell ref="AE5:AF5"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AC2:AD2"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="AE3:AF3"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AE8:AF8"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="AE9:AF9"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AC6:AD6"/>
-    <mergeCell ref="AE6:AF6"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AE7:AF7"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="AE12:AF12"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="AE13:AF13"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AE10:AF10"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AC11:AD11"/>
-    <mergeCell ref="AE11:AF11"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AC16:AD16"/>
-    <mergeCell ref="AE16:AF16"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AC17:AD17"/>
-    <mergeCell ref="AE17:AF17"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="AE14:AF14"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AC15:AD15"/>
-    <mergeCell ref="AE15:AF15"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AC20:AD20"/>
-    <mergeCell ref="AE20:AF20"/>
-    <mergeCell ref="AG20:AH20"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AC21:AD21"/>
-    <mergeCell ref="AE21:AF21"/>
-    <mergeCell ref="AG21:AH21"/>
-    <mergeCell ref="AI21:AJ21"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="AE18:AF18"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AC19:AD19"/>
-    <mergeCell ref="AE19:AF19"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="X5:Y5"/>
+    <mergeCell ref="Z5:AA5"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="Z3:AA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6244,12 +6286,12 @@
       <c r="I1" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="138" t="s">
+      <c r="J1" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="K1" s="138"/>
-      <c r="L1" s="138"/>
-      <c r="M1" s="138"/>
+      <c r="K1" s="142"/>
+      <c r="L1" s="142"/>
+      <c r="M1" s="142"/>
       <c r="N1" s="57" t="s">
         <v>65</v>
       </c>
@@ -6280,65 +6322,65 @@
       <c r="Y1" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="Z1" s="138" t="s">
+      <c r="Z1" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="AA1" s="138"/>
-      <c r="AB1" s="138"/>
-      <c r="AC1" s="138"/>
+      <c r="AA1" s="142"/>
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="142"/>
       <c r="AD1" s="57" t="s">
         <v>65</v>
       </c>
       <c r="AE1" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" s="138" t="s">
+      <c r="AG1" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="AH1" s="138"/>
-      <c r="AI1" s="175" t="s">
+      <c r="AH1" s="142"/>
+      <c r="AI1" s="146" t="s">
         <v>62</v>
       </c>
-      <c r="AJ1" s="175"/>
-      <c r="AK1" s="138" t="s">
+      <c r="AJ1" s="146"/>
+      <c r="AK1" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="AL1" s="138"/>
-      <c r="AM1" s="138"/>
-      <c r="AN1" s="138" t="s">
+      <c r="AL1" s="142"/>
+      <c r="AM1" s="142"/>
+      <c r="AN1" s="142" t="s">
         <v>63</v>
       </c>
-      <c r="AO1" s="138"/>
-      <c r="AP1" s="138" t="s">
+      <c r="AO1" s="142"/>
+      <c r="AP1" s="142" t="s">
         <v>64</v>
       </c>
-      <c r="AQ1" s="138"/>
-      <c r="AR1" s="138" t="s">
+      <c r="AQ1" s="142"/>
+      <c r="AR1" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="AS1" s="138"/>
+      <c r="AS1" s="142"/>
       <c r="AT1" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="AV1" s="138" t="s">
+      <c r="AV1" s="142" t="s">
         <v>61</v>
       </c>
-      <c r="AW1" s="138"/>
-      <c r="AX1" s="138" t="s">
+      <c r="AW1" s="142"/>
+      <c r="AX1" s="142" t="s">
         <v>67</v>
       </c>
-      <c r="AY1" s="138"/>
-      <c r="AZ1" s="138"/>
-      <c r="BA1" s="138"/>
-      <c r="BB1" s="138"/>
-      <c r="BC1" s="138"/>
-      <c r="BD1" s="138"/>
-      <c r="BE1" s="138"/>
-      <c r="BF1" s="138"/>
-      <c r="BG1" s="138" t="s">
+      <c r="AY1" s="142"/>
+      <c r="AZ1" s="142"/>
+      <c r="BA1" s="142"/>
+      <c r="BB1" s="142"/>
+      <c r="BC1" s="142"/>
+      <c r="BD1" s="142"/>
+      <c r="BE1" s="142"/>
+      <c r="BF1" s="142"/>
+      <c r="BG1" s="142" t="s">
         <v>49</v>
       </c>
-      <c r="BH1" s="138"/>
+      <c r="BH1" s="142"/>
       <c r="BI1" s="59" t="s">
         <v>59</v>
       </c>
@@ -6368,12 +6410,12 @@
       <c r="I2" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="138" t="s">
+      <c r="J2" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
       <c r="N2" s="95">
         <v>0.47</v>
       </c>
@@ -6404,65 +6446,65 @@
       <c r="Y2" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z2" s="138" t="s">
+      <c r="Z2" s="142" t="s">
         <v>89</v>
       </c>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138"/>
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
       <c r="AD2" s="95">
         <v>0.65</v>
       </c>
       <c r="AE2" s="59">
         <v>1.88</v>
       </c>
-      <c r="AG2" s="139" t="s">
+      <c r="AG2" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="174" t="s">
+      <c r="AH2" s="143"/>
+      <c r="AI2" s="148" t="s">
         <v>0</v>
       </c>
-      <c r="AJ2" s="174"/>
-      <c r="AK2" s="138">
+      <c r="AJ2" s="148"/>
+      <c r="AK2" s="142">
         <v>19095</v>
       </c>
-      <c r="AL2" s="138"/>
-      <c r="AM2" s="138"/>
-      <c r="AN2" s="138">
+      <c r="AL2" s="142"/>
+      <c r="AM2" s="142"/>
+      <c r="AN2" s="142">
         <v>17761</v>
       </c>
-      <c r="AO2" s="138"/>
-      <c r="AP2" s="138">
+      <c r="AO2" s="142"/>
+      <c r="AP2" s="142">
         <v>36856</v>
       </c>
-      <c r="AQ2" s="138"/>
-      <c r="AR2" s="138">
+      <c r="AQ2" s="142"/>
+      <c r="AR2" s="142">
         <v>0.52</v>
       </c>
-      <c r="AS2" s="138"/>
+      <c r="AS2" s="142"/>
       <c r="AT2" s="59">
         <v>1.08</v>
       </c>
-      <c r="AV2" s="164" t="s">
+      <c r="AV2" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AW2" s="164"/>
-      <c r="AX2" s="138" t="s">
+      <c r="AW2" s="144"/>
+      <c r="AX2" s="142" t="s">
         <v>110</v>
       </c>
-      <c r="AY2" s="138"/>
-      <c r="AZ2" s="138"/>
-      <c r="BA2" s="138"/>
-      <c r="BB2" s="138"/>
-      <c r="BC2" s="138"/>
-      <c r="BD2" s="138"/>
-      <c r="BE2" s="138"/>
-      <c r="BF2" s="138"/>
-      <c r="BG2" s="138">
+      <c r="AY2" s="142"/>
+      <c r="AZ2" s="142"/>
+      <c r="BA2" s="142"/>
+      <c r="BB2" s="142"/>
+      <c r="BC2" s="142"/>
+      <c r="BD2" s="142"/>
+      <c r="BE2" s="142"/>
+      <c r="BF2" s="142"/>
+      <c r="BG2" s="142">
         <v>0.55000000000000004</v>
       </c>
-      <c r="BH2" s="138"/>
+      <c r="BH2" s="142"/>
       <c r="BI2" s="59">
         <v>1.23</v>
       </c>
@@ -6492,12 +6534,12 @@
       <c r="I3" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="138" t="s">
+      <c r="J3" s="142" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="138"/>
-      <c r="L3" s="138"/>
-      <c r="M3" s="138"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
       <c r="N3" s="95">
         <v>0.63</v>
       </c>
@@ -6528,65 +6570,65 @@
       <c r="Y3" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z3" s="138" t="s">
+      <c r="Z3" s="142" t="s">
         <v>90</v>
       </c>
-      <c r="AA3" s="138"/>
-      <c r="AB3" s="138"/>
-      <c r="AC3" s="138"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="142"/>
       <c r="AD3" s="95">
         <v>0.76</v>
       </c>
       <c r="AE3" s="59">
         <v>3.18</v>
       </c>
-      <c r="AG3" s="139" t="s">
+      <c r="AG3" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="174" t="s">
+      <c r="AH3" s="143"/>
+      <c r="AI3" s="148" t="s">
         <v>51</v>
       </c>
-      <c r="AJ3" s="174"/>
-      <c r="AK3" s="138">
+      <c r="AJ3" s="148"/>
+      <c r="AK3" s="142">
         <v>27918</v>
       </c>
-      <c r="AL3" s="138"/>
-      <c r="AM3" s="138"/>
-      <c r="AN3" s="138">
+      <c r="AL3" s="142"/>
+      <c r="AM3" s="142"/>
+      <c r="AN3" s="142">
         <v>13387</v>
       </c>
-      <c r="AO3" s="138"/>
-      <c r="AP3" s="138">
+      <c r="AO3" s="142"/>
+      <c r="AP3" s="142">
         <v>41305</v>
       </c>
-      <c r="AQ3" s="138"/>
-      <c r="AR3" s="138">
+      <c r="AQ3" s="142"/>
+      <c r="AR3" s="142">
         <v>0.68</v>
       </c>
-      <c r="AS3" s="138"/>
+      <c r="AS3" s="142"/>
       <c r="AT3" s="59">
         <v>2.09</v>
       </c>
-      <c r="AV3" s="164" t="s">
+      <c r="AV3" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AW3" s="164"/>
-      <c r="AX3" s="138" t="s">
+      <c r="AW3" s="144"/>
+      <c r="AX3" s="142" t="s">
         <v>111</v>
       </c>
-      <c r="AY3" s="138"/>
-      <c r="AZ3" s="138"/>
-      <c r="BA3" s="138"/>
-      <c r="BB3" s="138"/>
-      <c r="BC3" s="138"/>
-      <c r="BD3" s="138"/>
-      <c r="BE3" s="138"/>
-      <c r="BF3" s="138"/>
-      <c r="BG3" s="138">
+      <c r="AY3" s="142"/>
+      <c r="AZ3" s="142"/>
+      <c r="BA3" s="142"/>
+      <c r="BB3" s="142"/>
+      <c r="BC3" s="142"/>
+      <c r="BD3" s="142"/>
+      <c r="BE3" s="142"/>
+      <c r="BF3" s="142"/>
+      <c r="BG3" s="142">
         <v>0.61</v>
       </c>
-      <c r="BH3" s="138"/>
+      <c r="BH3" s="142"/>
       <c r="BI3" s="59">
         <v>1.53</v>
       </c>
@@ -6616,12 +6658,12 @@
       <c r="I4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="138" t="s">
+      <c r="J4" s="142" t="s">
         <v>70</v>
       </c>
-      <c r="K4" s="138"/>
-      <c r="L4" s="138"/>
-      <c r="M4" s="138"/>
+      <c r="K4" s="142"/>
+      <c r="L4" s="142"/>
+      <c r="M4" s="142"/>
       <c r="N4" s="95">
         <v>0.64</v>
       </c>
@@ -6652,65 +6694,65 @@
       <c r="Y4" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" s="138" t="s">
+      <c r="Z4" s="142" t="s">
         <v>91</v>
       </c>
-      <c r="AA4" s="138"/>
-      <c r="AB4" s="138"/>
-      <c r="AC4" s="138"/>
+      <c r="AA4" s="142"/>
+      <c r="AB4" s="142"/>
+      <c r="AC4" s="142"/>
       <c r="AD4" s="95">
         <v>0.71</v>
       </c>
       <c r="AE4" s="59">
         <v>2.39</v>
       </c>
-      <c r="AG4" s="139" t="s">
+      <c r="AG4" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AH4" s="139"/>
-      <c r="AI4" s="174" t="s">
+      <c r="AH4" s="143"/>
+      <c r="AI4" s="148" t="s">
         <v>52</v>
       </c>
-      <c r="AJ4" s="174"/>
-      <c r="AK4" s="138">
+      <c r="AJ4" s="148"/>
+      <c r="AK4" s="142">
         <v>74330</v>
       </c>
-      <c r="AL4" s="138"/>
-      <c r="AM4" s="138"/>
-      <c r="AN4" s="138">
+      <c r="AL4" s="142"/>
+      <c r="AM4" s="142"/>
+      <c r="AN4" s="142">
         <v>42077</v>
       </c>
-      <c r="AO4" s="138"/>
-      <c r="AP4" s="138">
+      <c r="AO4" s="142"/>
+      <c r="AP4" s="142">
         <v>116407</v>
       </c>
-      <c r="AQ4" s="138"/>
-      <c r="AR4" s="138">
+      <c r="AQ4" s="142"/>
+      <c r="AR4" s="142">
         <v>0.64</v>
       </c>
-      <c r="AS4" s="138"/>
+      <c r="AS4" s="142"/>
       <c r="AT4" s="59">
         <v>1.77</v>
       </c>
-      <c r="AV4" s="164" t="s">
+      <c r="AV4" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AW4" s="164"/>
-      <c r="AX4" s="138" t="s">
+      <c r="AW4" s="144"/>
+      <c r="AX4" s="142" t="s">
         <v>112</v>
       </c>
-      <c r="AY4" s="138"/>
-      <c r="AZ4" s="138"/>
-      <c r="BA4" s="138"/>
-      <c r="BB4" s="138"/>
-      <c r="BC4" s="138"/>
-      <c r="BD4" s="138"/>
-      <c r="BE4" s="138"/>
-      <c r="BF4" s="138"/>
-      <c r="BG4" s="138">
+      <c r="AY4" s="142"/>
+      <c r="AZ4" s="142"/>
+      <c r="BA4" s="142"/>
+      <c r="BB4" s="142"/>
+      <c r="BC4" s="142"/>
+      <c r="BD4" s="142"/>
+      <c r="BE4" s="142"/>
+      <c r="BF4" s="142"/>
+      <c r="BG4" s="142">
         <v>0.77</v>
       </c>
-      <c r="BH4" s="138"/>
+      <c r="BH4" s="142"/>
       <c r="BI4" s="59">
         <v>3.31</v>
       </c>
@@ -6740,12 +6782,12 @@
       <c r="I5" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="138" t="s">
+      <c r="J5" s="142" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="138"/>
-      <c r="L5" s="138"/>
-      <c r="M5" s="138"/>
+      <c r="K5" s="142"/>
+      <c r="L5" s="142"/>
+      <c r="M5" s="142"/>
       <c r="N5" s="95">
         <v>0.71</v>
       </c>
@@ -6776,65 +6818,65 @@
       <c r="Y5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="138" t="s">
+      <c r="Z5" s="142" t="s">
         <v>92</v>
       </c>
-      <c r="AA5" s="138"/>
-      <c r="AB5" s="138"/>
-      <c r="AC5" s="138"/>
+      <c r="AA5" s="142"/>
+      <c r="AB5" s="142"/>
+      <c r="AC5" s="142"/>
       <c r="AD5" s="95">
         <v>0.6</v>
       </c>
       <c r="AE5" s="59">
         <v>1.5</v>
       </c>
-      <c r="AG5" s="139" t="s">
+      <c r="AG5" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AH5" s="139"/>
-      <c r="AI5" s="174" t="s">
+      <c r="AH5" s="143"/>
+      <c r="AI5" s="148" t="s">
         <v>53</v>
       </c>
-      <c r="AJ5" s="174"/>
-      <c r="AK5" s="138">
+      <c r="AJ5" s="148"/>
+      <c r="AK5" s="142">
         <v>1590</v>
       </c>
-      <c r="AL5" s="138"/>
-      <c r="AM5" s="138"/>
-      <c r="AN5" s="138">
+      <c r="AL5" s="142"/>
+      <c r="AM5" s="142"/>
+      <c r="AN5" s="142">
         <v>648</v>
       </c>
-      <c r="AO5" s="138"/>
-      <c r="AP5" s="138">
+      <c r="AO5" s="142"/>
+      <c r="AP5" s="142">
         <v>2238</v>
       </c>
-      <c r="AQ5" s="138"/>
-      <c r="AR5" s="138">
+      <c r="AQ5" s="142"/>
+      <c r="AR5" s="142">
         <v>0.71</v>
       </c>
-      <c r="AS5" s="138"/>
+      <c r="AS5" s="142"/>
       <c r="AT5" s="59">
         <v>2.4500000000000002</v>
       </c>
-      <c r="AV5" s="164" t="s">
+      <c r="AV5" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AW5" s="164"/>
-      <c r="AX5" s="138" t="s">
+      <c r="AW5" s="144"/>
+      <c r="AX5" s="142" t="s">
         <v>113</v>
       </c>
-      <c r="AY5" s="138"/>
-      <c r="AZ5" s="138"/>
-      <c r="BA5" s="138"/>
-      <c r="BB5" s="138"/>
-      <c r="BC5" s="138"/>
-      <c r="BD5" s="138"/>
-      <c r="BE5" s="138"/>
-      <c r="BF5" s="138"/>
-      <c r="BG5" s="138">
+      <c r="AY5" s="142"/>
+      <c r="AZ5" s="142"/>
+      <c r="BA5" s="142"/>
+      <c r="BB5" s="142"/>
+      <c r="BC5" s="142"/>
+      <c r="BD5" s="142"/>
+      <c r="BE5" s="142"/>
+      <c r="BF5" s="142"/>
+      <c r="BG5" s="142">
         <v>0</v>
       </c>
-      <c r="BH5" s="138"/>
+      <c r="BH5" s="142"/>
       <c r="BI5" s="59">
         <v>0</v>
       </c>
@@ -6864,12 +6906,12 @@
       <c r="I6" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="138" t="s">
+      <c r="J6" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="K6" s="138"/>
-      <c r="L6" s="138"/>
-      <c r="M6" s="138"/>
+      <c r="K6" s="142"/>
+      <c r="L6" s="142"/>
+      <c r="M6" s="142"/>
       <c r="N6" s="95">
         <v>0.67</v>
       </c>
@@ -6900,65 +6942,65 @@
       <c r="Y6" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z6" s="138" t="s">
+      <c r="Z6" s="142" t="s">
         <v>93</v>
       </c>
-      <c r="AA6" s="138"/>
-      <c r="AB6" s="138"/>
-      <c r="AC6" s="138"/>
+      <c r="AA6" s="142"/>
+      <c r="AB6" s="142"/>
+      <c r="AC6" s="142"/>
       <c r="AD6" s="95">
         <v>0.65</v>
       </c>
       <c r="AE6" s="59">
         <v>1.83</v>
       </c>
-      <c r="AG6" s="139" t="s">
+      <c r="AG6" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AH6" s="139"/>
-      <c r="AI6" s="138" t="s">
+      <c r="AH6" s="143"/>
+      <c r="AI6" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="AJ6" s="138"/>
-      <c r="AK6" s="138">
+      <c r="AJ6" s="142"/>
+      <c r="AK6" s="142">
         <v>289</v>
       </c>
-      <c r="AL6" s="138"/>
-      <c r="AM6" s="138"/>
-      <c r="AN6" s="138">
+      <c r="AL6" s="142"/>
+      <c r="AM6" s="142"/>
+      <c r="AN6" s="142">
         <v>171</v>
       </c>
-      <c r="AO6" s="138"/>
-      <c r="AP6" s="139">
+      <c r="AO6" s="142"/>
+      <c r="AP6" s="143">
         <v>460</v>
       </c>
-      <c r="AQ6" s="139"/>
-      <c r="AR6" s="138">
+      <c r="AQ6" s="143"/>
+      <c r="AR6" s="142">
         <v>0.63</v>
       </c>
-      <c r="AS6" s="138"/>
+      <c r="AS6" s="142"/>
       <c r="AT6" s="59">
         <v>1.69</v>
       </c>
-      <c r="AV6" s="164" t="s">
+      <c r="AV6" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AW6" s="164"/>
-      <c r="AX6" s="138" t="s">
+      <c r="AW6" s="144"/>
+      <c r="AX6" s="142" t="s">
         <v>114</v>
       </c>
-      <c r="AY6" s="138"/>
-      <c r="AZ6" s="138"/>
-      <c r="BA6" s="138"/>
-      <c r="BB6" s="138"/>
-      <c r="BC6" s="138"/>
-      <c r="BD6" s="138"/>
-      <c r="BE6" s="138"/>
-      <c r="BF6" s="138"/>
-      <c r="BG6" s="138">
+      <c r="AY6" s="142"/>
+      <c r="AZ6" s="142"/>
+      <c r="BA6" s="142"/>
+      <c r="BB6" s="142"/>
+      <c r="BC6" s="142"/>
+      <c r="BD6" s="142"/>
+      <c r="BE6" s="142"/>
+      <c r="BF6" s="142"/>
+      <c r="BG6" s="142">
         <v>0</v>
       </c>
-      <c r="BH6" s="138"/>
+      <c r="BH6" s="142"/>
       <c r="BI6" s="59">
         <v>0</v>
       </c>
@@ -6988,12 +7030,12 @@
       <c r="I7" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="138" t="s">
+      <c r="J7" s="142" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="138"/>
-      <c r="L7" s="138"/>
-      <c r="M7" s="138"/>
+      <c r="K7" s="142"/>
+      <c r="L7" s="142"/>
+      <c r="M7" s="142"/>
       <c r="N7" s="95">
         <v>0.64</v>
       </c>
@@ -7024,65 +7066,65 @@
       <c r="Y7" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z7" s="138" t="s">
+      <c r="Z7" s="142" t="s">
         <v>94</v>
       </c>
-      <c r="AA7" s="138"/>
-      <c r="AB7" s="138"/>
-      <c r="AC7" s="138"/>
+      <c r="AA7" s="142"/>
+      <c r="AB7" s="142"/>
+      <c r="AC7" s="142"/>
       <c r="AD7" s="95">
         <v>0.74</v>
       </c>
       <c r="AE7" s="59">
         <v>2.84</v>
       </c>
-      <c r="AG7" s="139" t="s">
+      <c r="AG7" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AH7" s="139"/>
-      <c r="AI7" s="174" t="s">
+      <c r="AH7" s="143"/>
+      <c r="AI7" s="148" t="s">
         <v>54</v>
       </c>
-      <c r="AJ7" s="174"/>
-      <c r="AK7" s="138">
+      <c r="AJ7" s="148"/>
+      <c r="AK7" s="142">
         <v>18888</v>
       </c>
-      <c r="AL7" s="138"/>
-      <c r="AM7" s="138"/>
-      <c r="AN7" s="138">
+      <c r="AL7" s="142"/>
+      <c r="AM7" s="142"/>
+      <c r="AN7" s="142">
         <v>10189</v>
       </c>
-      <c r="AO7" s="138"/>
-      <c r="AP7" s="138">
+      <c r="AO7" s="142"/>
+      <c r="AP7" s="142">
         <v>29077</v>
       </c>
-      <c r="AQ7" s="138"/>
-      <c r="AR7" s="138">
+      <c r="AQ7" s="142"/>
+      <c r="AR7" s="142">
         <v>0.65</v>
       </c>
-      <c r="AS7" s="138"/>
+      <c r="AS7" s="142"/>
       <c r="AT7" s="59">
         <v>1.85</v>
       </c>
-      <c r="AV7" s="164" t="s">
+      <c r="AV7" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AW7" s="164"/>
-      <c r="AX7" s="138" t="s">
+      <c r="AW7" s="144"/>
+      <c r="AX7" s="142" t="s">
         <v>115</v>
       </c>
-      <c r="AY7" s="138"/>
-      <c r="AZ7" s="138"/>
-      <c r="BA7" s="138"/>
-      <c r="BB7" s="138"/>
-      <c r="BC7" s="138"/>
-      <c r="BD7" s="138"/>
-      <c r="BE7" s="138"/>
-      <c r="BF7" s="138"/>
-      <c r="BG7" s="138">
+      <c r="AY7" s="142"/>
+      <c r="AZ7" s="142"/>
+      <c r="BA7" s="142"/>
+      <c r="BB7" s="142"/>
+      <c r="BC7" s="142"/>
+      <c r="BD7" s="142"/>
+      <c r="BE7" s="142"/>
+      <c r="BF7" s="142"/>
+      <c r="BG7" s="142">
         <v>0</v>
       </c>
-      <c r="BH7" s="138"/>
+      <c r="BH7" s="142"/>
       <c r="BI7" s="59">
         <v>0</v>
       </c>
@@ -7112,12 +7154,12 @@
       <c r="I8" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="138" t="s">
+      <c r="J8" s="142" t="s">
         <v>74</v>
       </c>
-      <c r="K8" s="138"/>
-      <c r="L8" s="138"/>
-      <c r="M8" s="138"/>
+      <c r="K8" s="142"/>
+      <c r="L8" s="142"/>
+      <c r="M8" s="142"/>
       <c r="N8" s="95">
         <v>0.61</v>
       </c>
@@ -7148,65 +7190,65 @@
       <c r="Y8" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z8" s="138" t="s">
+      <c r="Z8" s="142" t="s">
         <v>95</v>
       </c>
-      <c r="AA8" s="138"/>
-      <c r="AB8" s="138"/>
-      <c r="AC8" s="138"/>
+      <c r="AA8" s="142"/>
+      <c r="AB8" s="142"/>
+      <c r="AC8" s="142"/>
       <c r="AD8" s="95">
         <v>0.77</v>
       </c>
       <c r="AE8" s="59">
         <v>3.32</v>
       </c>
-      <c r="AG8" s="139" t="s">
+      <c r="AG8" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AH8" s="139"/>
-      <c r="AI8" s="138" t="s">
+      <c r="AH8" s="143"/>
+      <c r="AI8" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="AJ8" s="138"/>
-      <c r="AK8" s="138">
+      <c r="AJ8" s="142"/>
+      <c r="AK8" s="142">
         <v>97213</v>
       </c>
-      <c r="AL8" s="138"/>
-      <c r="AM8" s="138"/>
-      <c r="AN8" s="138">
+      <c r="AL8" s="142"/>
+      <c r="AM8" s="142"/>
+      <c r="AN8" s="142">
         <v>44417</v>
       </c>
-      <c r="AO8" s="138"/>
-      <c r="AP8" s="138">
+      <c r="AO8" s="142"/>
+      <c r="AP8" s="142">
         <v>141630</v>
       </c>
-      <c r="AQ8" s="138"/>
-      <c r="AR8" s="138">
+      <c r="AQ8" s="142"/>
+      <c r="AR8" s="142">
         <v>0.69</v>
       </c>
-      <c r="AS8" s="138"/>
+      <c r="AS8" s="142"/>
       <c r="AT8" s="59">
         <v>2.19</v>
       </c>
-      <c r="AV8" s="164" t="s">
+      <c r="AV8" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AW8" s="164"/>
-      <c r="AX8" s="138" t="s">
+      <c r="AW8" s="144"/>
+      <c r="AX8" s="142" t="s">
         <v>116</v>
       </c>
-      <c r="AY8" s="138"/>
-      <c r="AZ8" s="138"/>
-      <c r="BA8" s="138"/>
-      <c r="BB8" s="138"/>
-      <c r="BC8" s="138"/>
-      <c r="BD8" s="138"/>
-      <c r="BE8" s="138"/>
-      <c r="BF8" s="138"/>
-      <c r="BG8" s="138">
+      <c r="AY8" s="142"/>
+      <c r="AZ8" s="142"/>
+      <c r="BA8" s="142"/>
+      <c r="BB8" s="142"/>
+      <c r="BC8" s="142"/>
+      <c r="BD8" s="142"/>
+      <c r="BE8" s="142"/>
+      <c r="BF8" s="142"/>
+      <c r="BG8" s="142">
         <v>0.61</v>
       </c>
-      <c r="BH8" s="138"/>
+      <c r="BH8" s="142"/>
       <c r="BI8" s="59">
         <v>1.57</v>
       </c>
@@ -7236,12 +7278,12 @@
       <c r="I9" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J9" s="138" t="s">
+      <c r="J9" s="142" t="s">
         <v>75</v>
       </c>
-      <c r="K9" s="138"/>
-      <c r="L9" s="138"/>
-      <c r="M9" s="138"/>
+      <c r="K9" s="142"/>
+      <c r="L9" s="142"/>
+      <c r="M9" s="142"/>
       <c r="N9" s="95">
         <v>0.7</v>
       </c>
@@ -7272,65 +7314,65 @@
       <c r="Y9" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z9" s="138" t="s">
+      <c r="Z9" s="142" t="s">
         <v>96</v>
       </c>
-      <c r="AA9" s="138"/>
-      <c r="AB9" s="138"/>
-      <c r="AC9" s="138"/>
+      <c r="AA9" s="142"/>
+      <c r="AB9" s="142"/>
+      <c r="AC9" s="142"/>
       <c r="AD9" s="95">
         <v>0.79</v>
       </c>
       <c r="AE9" s="59">
         <v>3.78</v>
       </c>
-      <c r="AG9" s="139" t="s">
+      <c r="AG9" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AH9" s="139"/>
-      <c r="AI9" s="139" t="s">
+      <c r="AH9" s="143"/>
+      <c r="AI9" s="143" t="s">
         <v>6</v>
       </c>
-      <c r="AJ9" s="139"/>
-      <c r="AK9" s="138">
+      <c r="AJ9" s="143"/>
+      <c r="AK9" s="142">
         <v>18418</v>
       </c>
-      <c r="AL9" s="138"/>
-      <c r="AM9" s="138"/>
-      <c r="AN9" s="138">
+      <c r="AL9" s="142"/>
+      <c r="AM9" s="142"/>
+      <c r="AN9" s="142">
         <v>7419</v>
       </c>
-      <c r="AO9" s="138"/>
-      <c r="AP9" s="138">
+      <c r="AO9" s="142"/>
+      <c r="AP9" s="142">
         <v>25837</v>
       </c>
-      <c r="AQ9" s="138"/>
-      <c r="AR9" s="138">
+      <c r="AQ9" s="142"/>
+      <c r="AR9" s="142">
         <v>0.71</v>
       </c>
-      <c r="AS9" s="138"/>
+      <c r="AS9" s="142"/>
       <c r="AT9" s="59">
         <v>2.48</v>
       </c>
-      <c r="AV9" s="164" t="s">
+      <c r="AV9" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AW9" s="164"/>
-      <c r="AX9" s="138" t="s">
+      <c r="AW9" s="144"/>
+      <c r="AX9" s="142" t="s">
         <v>117</v>
       </c>
-      <c r="AY9" s="138"/>
-      <c r="AZ9" s="138"/>
-      <c r="BA9" s="138"/>
-      <c r="BB9" s="138"/>
-      <c r="BC9" s="138"/>
-      <c r="BD9" s="138"/>
-      <c r="BE9" s="138"/>
-      <c r="BF9" s="138"/>
-      <c r="BG9" s="138">
+      <c r="AY9" s="142"/>
+      <c r="AZ9" s="142"/>
+      <c r="BA9" s="142"/>
+      <c r="BB9" s="142"/>
+      <c r="BC9" s="142"/>
+      <c r="BD9" s="142"/>
+      <c r="BE9" s="142"/>
+      <c r="BF9" s="142"/>
+      <c r="BG9" s="142">
         <v>0.75</v>
       </c>
-      <c r="BH9" s="138"/>
+      <c r="BH9" s="142"/>
       <c r="BI9" s="59">
         <v>3.03</v>
       </c>
@@ -7360,12 +7402,12 @@
       <c r="I10" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="138" t="s">
+      <c r="J10" s="142" t="s">
         <v>76</v>
       </c>
-      <c r="K10" s="138"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+      <c r="M10" s="142"/>
       <c r="N10" s="95">
         <v>0.63</v>
       </c>
@@ -7396,65 +7438,65 @@
       <c r="Y10" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z10" s="138" t="s">
+      <c r="Z10" s="142" t="s">
         <v>97</v>
       </c>
-      <c r="AA10" s="138"/>
-      <c r="AB10" s="138"/>
-      <c r="AC10" s="138"/>
+      <c r="AA10" s="142"/>
+      <c r="AB10" s="142"/>
+      <c r="AC10" s="142"/>
       <c r="AD10" s="95">
         <v>0.77</v>
       </c>
       <c r="AE10" s="59">
         <v>3.35</v>
       </c>
-      <c r="AG10" s="139" t="s">
+      <c r="AG10" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AH10" s="139"/>
-      <c r="AI10" s="139" t="s">
+      <c r="AH10" s="143"/>
+      <c r="AI10" s="143" t="s">
         <v>7</v>
       </c>
-      <c r="AJ10" s="139"/>
-      <c r="AK10" s="138">
+      <c r="AJ10" s="143"/>
+      <c r="AK10" s="142">
         <v>1860</v>
       </c>
-      <c r="AL10" s="138"/>
-      <c r="AM10" s="138"/>
-      <c r="AN10" s="138">
+      <c r="AL10" s="142"/>
+      <c r="AM10" s="142"/>
+      <c r="AN10" s="142">
         <v>1235</v>
       </c>
-      <c r="AO10" s="138"/>
-      <c r="AP10" s="138">
+      <c r="AO10" s="142"/>
+      <c r="AP10" s="142">
         <v>3095</v>
       </c>
-      <c r="AQ10" s="138"/>
-      <c r="AR10" s="138">
+      <c r="AQ10" s="142"/>
+      <c r="AR10" s="142">
         <v>0.6</v>
       </c>
-      <c r="AS10" s="138"/>
+      <c r="AS10" s="142"/>
       <c r="AT10" s="59">
         <v>1.51</v>
       </c>
-      <c r="AV10" s="164" t="s">
+      <c r="AV10" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AW10" s="164"/>
-      <c r="AX10" s="138" t="s">
+      <c r="AW10" s="144"/>
+      <c r="AX10" s="142" t="s">
         <v>118</v>
       </c>
-      <c r="AY10" s="138"/>
-      <c r="AZ10" s="138"/>
-      <c r="BA10" s="138"/>
-      <c r="BB10" s="138"/>
-      <c r="BC10" s="138"/>
-      <c r="BD10" s="138"/>
-      <c r="BE10" s="138"/>
-      <c r="BF10" s="138"/>
-      <c r="BG10" s="138">
+      <c r="AY10" s="142"/>
+      <c r="AZ10" s="142"/>
+      <c r="BA10" s="142"/>
+      <c r="BB10" s="142"/>
+      <c r="BC10" s="142"/>
+      <c r="BD10" s="142"/>
+      <c r="BE10" s="142"/>
+      <c r="BF10" s="142"/>
+      <c r="BG10" s="142">
         <v>0.7</v>
       </c>
-      <c r="BH10" s="138"/>
+      <c r="BH10" s="142"/>
       <c r="BI10" s="59">
         <v>2.34</v>
       </c>
@@ -7484,12 +7526,12 @@
       <c r="I11" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="138" t="s">
+      <c r="J11" s="142" t="s">
         <v>77</v>
       </c>
-      <c r="K11" s="138"/>
-      <c r="L11" s="138"/>
-      <c r="M11" s="138"/>
+      <c r="K11" s="142"/>
+      <c r="L11" s="142"/>
+      <c r="M11" s="142"/>
       <c r="N11" s="95">
         <v>0.66</v>
       </c>
@@ -7520,65 +7562,65 @@
       <c r="Y11" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z11" s="138" t="s">
+      <c r="Z11" s="142" t="s">
         <v>98</v>
       </c>
-      <c r="AA11" s="138"/>
-      <c r="AB11" s="138"/>
-      <c r="AC11" s="138"/>
+      <c r="AA11" s="142"/>
+      <c r="AB11" s="142"/>
+      <c r="AC11" s="142"/>
       <c r="AD11" s="95">
         <v>0.74</v>
       </c>
       <c r="AE11" s="59">
         <v>2.8</v>
       </c>
-      <c r="AG11" s="139" t="s">
+      <c r="AG11" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AH11" s="139"/>
-      <c r="AI11" s="174" t="s">
+      <c r="AH11" s="143"/>
+      <c r="AI11" s="148" t="s">
         <v>8</v>
       </c>
-      <c r="AJ11" s="174"/>
-      <c r="AK11" s="138">
+      <c r="AJ11" s="148"/>
+      <c r="AK11" s="142">
         <v>12657</v>
       </c>
-      <c r="AL11" s="138"/>
-      <c r="AM11" s="138"/>
-      <c r="AN11" s="138">
+      <c r="AL11" s="142"/>
+      <c r="AM11" s="142"/>
+      <c r="AN11" s="142">
         <v>7914</v>
       </c>
-      <c r="AO11" s="138"/>
-      <c r="AP11" s="138">
+      <c r="AO11" s="142"/>
+      <c r="AP11" s="142">
         <v>20571</v>
       </c>
-      <c r="AQ11" s="138"/>
-      <c r="AR11" s="138">
+      <c r="AQ11" s="142"/>
+      <c r="AR11" s="142">
         <v>0.62</v>
       </c>
-      <c r="AS11" s="138"/>
+      <c r="AS11" s="142"/>
       <c r="AT11" s="59">
         <v>1.6</v>
       </c>
-      <c r="AV11" s="164" t="s">
+      <c r="AV11" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AW11" s="164"/>
-      <c r="AX11" s="138" t="s">
+      <c r="AW11" s="144"/>
+      <c r="AX11" s="142" t="s">
         <v>119</v>
       </c>
-      <c r="AY11" s="138"/>
-      <c r="AZ11" s="138"/>
-      <c r="BA11" s="138"/>
-      <c r="BB11" s="138"/>
-      <c r="BC11" s="138"/>
-      <c r="BD11" s="138"/>
-      <c r="BE11" s="138"/>
-      <c r="BF11" s="138"/>
-      <c r="BG11" s="138">
+      <c r="AY11" s="142"/>
+      <c r="AZ11" s="142"/>
+      <c r="BA11" s="142"/>
+      <c r="BB11" s="142"/>
+      <c r="BC11" s="142"/>
+      <c r="BD11" s="142"/>
+      <c r="BE11" s="142"/>
+      <c r="BF11" s="142"/>
+      <c r="BG11" s="142">
         <v>0.59</v>
       </c>
-      <c r="BH11" s="138"/>
+      <c r="BH11" s="142"/>
       <c r="BI11" s="59">
         <v>1.44</v>
       </c>
@@ -7608,12 +7650,12 @@
       <c r="I12" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="138" t="s">
+      <c r="J12" s="142" t="s">
         <v>78</v>
       </c>
-      <c r="K12" s="138"/>
-      <c r="L12" s="138"/>
-      <c r="M12" s="138"/>
+      <c r="K12" s="142"/>
+      <c r="L12" s="142"/>
+      <c r="M12" s="142"/>
       <c r="N12" s="95">
         <v>0.62</v>
       </c>
@@ -7644,65 +7686,65 @@
       <c r="Y12" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z12" s="138" t="s">
+      <c r="Z12" s="142" t="s">
         <v>99</v>
       </c>
-      <c r="AA12" s="138"/>
-      <c r="AB12" s="138"/>
-      <c r="AC12" s="138"/>
+      <c r="AA12" s="142"/>
+      <c r="AB12" s="142"/>
+      <c r="AC12" s="142"/>
       <c r="AD12" s="95">
         <v>0.74</v>
       </c>
       <c r="AE12" s="59">
         <v>2.8</v>
       </c>
-      <c r="AG12" s="139" t="s">
+      <c r="AG12" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AH12" s="139"/>
-      <c r="AI12" s="138" t="s">
+      <c r="AH12" s="143"/>
+      <c r="AI12" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="AJ12" s="138"/>
-      <c r="AK12" s="138">
+      <c r="AJ12" s="142"/>
+      <c r="AK12" s="142">
         <v>16629</v>
       </c>
-      <c r="AL12" s="138"/>
-      <c r="AM12" s="138"/>
-      <c r="AN12" s="138">
+      <c r="AL12" s="142"/>
+      <c r="AM12" s="142"/>
+      <c r="AN12" s="142">
         <v>8990</v>
       </c>
-      <c r="AO12" s="138"/>
-      <c r="AP12" s="138">
+      <c r="AO12" s="142"/>
+      <c r="AP12" s="142">
         <v>25619</v>
       </c>
-      <c r="AQ12" s="138"/>
-      <c r="AR12" s="138">
+      <c r="AQ12" s="142"/>
+      <c r="AR12" s="142">
         <v>0.65</v>
       </c>
-      <c r="AS12" s="138"/>
+      <c r="AS12" s="142"/>
       <c r="AT12" s="59">
         <v>1.85</v>
       </c>
-      <c r="AV12" s="164" t="s">
+      <c r="AV12" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AW12" s="164"/>
-      <c r="AX12" s="138" t="s">
+      <c r="AW12" s="144"/>
+      <c r="AX12" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="AY12" s="138"/>
-      <c r="AZ12" s="138"/>
-      <c r="BA12" s="138"/>
-      <c r="BB12" s="138"/>
-      <c r="BC12" s="138"/>
-      <c r="BD12" s="138"/>
-      <c r="BE12" s="138"/>
-      <c r="BF12" s="138"/>
-      <c r="BG12" s="138">
+      <c r="AY12" s="142"/>
+      <c r="AZ12" s="142"/>
+      <c r="BA12" s="142"/>
+      <c r="BB12" s="142"/>
+      <c r="BC12" s="142"/>
+      <c r="BD12" s="142"/>
+      <c r="BE12" s="142"/>
+      <c r="BF12" s="142"/>
+      <c r="BG12" s="142">
         <v>0</v>
       </c>
-      <c r="BH12" s="138"/>
+      <c r="BH12" s="142"/>
       <c r="BI12" s="59">
         <v>0</v>
       </c>
@@ -7732,12 +7774,12 @@
       <c r="I13" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J13" s="138" t="s">
+      <c r="J13" s="142" t="s">
         <v>79</v>
       </c>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="142"/>
+      <c r="M13" s="142"/>
       <c r="N13" s="95">
         <v>0.6</v>
       </c>
@@ -7768,65 +7810,65 @@
       <c r="Y13" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z13" s="138" t="s">
+      <c r="Z13" s="142" t="s">
         <v>100</v>
       </c>
-      <c r="AA13" s="138"/>
-      <c r="AB13" s="138"/>
-      <c r="AC13" s="138"/>
+      <c r="AA13" s="142"/>
+      <c r="AB13" s="142"/>
+      <c r="AC13" s="142"/>
       <c r="AD13" s="95">
         <v>0.75</v>
       </c>
       <c r="AE13" s="59">
         <v>3</v>
       </c>
-      <c r="AG13" s="139" t="s">
+      <c r="AG13" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AH13" s="139"/>
-      <c r="AI13" s="138" t="s">
+      <c r="AH13" s="143"/>
+      <c r="AI13" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="AJ13" s="138"/>
-      <c r="AK13" s="138">
+      <c r="AJ13" s="142"/>
+      <c r="AK13" s="142">
         <v>9958</v>
       </c>
-      <c r="AL13" s="138"/>
-      <c r="AM13" s="138"/>
-      <c r="AN13" s="138">
+      <c r="AL13" s="142"/>
+      <c r="AM13" s="142"/>
+      <c r="AN13" s="142">
         <v>6944</v>
       </c>
-      <c r="AO13" s="138"/>
-      <c r="AP13" s="138">
+      <c r="AO13" s="142"/>
+      <c r="AP13" s="142">
         <v>16902</v>
       </c>
-      <c r="AQ13" s="138"/>
-      <c r="AR13" s="138">
+      <c r="AQ13" s="142"/>
+      <c r="AR13" s="142">
         <v>0.59</v>
       </c>
-      <c r="AS13" s="138"/>
+      <c r="AS13" s="142"/>
       <c r="AT13" s="59">
         <v>1.43</v>
       </c>
-      <c r="AV13" s="164" t="s">
+      <c r="AV13" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AW13" s="164"/>
-      <c r="AX13" s="138" t="s">
+      <c r="AW13" s="144"/>
+      <c r="AX13" s="142" t="s">
         <v>121</v>
       </c>
-      <c r="AY13" s="138"/>
-      <c r="AZ13" s="138"/>
-      <c r="BA13" s="138"/>
-      <c r="BB13" s="138"/>
-      <c r="BC13" s="138"/>
-      <c r="BD13" s="138"/>
-      <c r="BE13" s="138"/>
-      <c r="BF13" s="138"/>
-      <c r="BG13" s="138">
+      <c r="AY13" s="142"/>
+      <c r="AZ13" s="142"/>
+      <c r="BA13" s="142"/>
+      <c r="BB13" s="142"/>
+      <c r="BC13" s="142"/>
+      <c r="BD13" s="142"/>
+      <c r="BE13" s="142"/>
+      <c r="BF13" s="142"/>
+      <c r="BG13" s="142">
         <v>0.33</v>
       </c>
-      <c r="BH13" s="138"/>
+      <c r="BH13" s="142"/>
       <c r="BI13" s="59">
         <v>0.5</v>
       </c>
@@ -7856,12 +7898,12 @@
       <c r="I14" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="138" t="s">
+      <c r="J14" s="142" t="s">
         <v>80</v>
       </c>
-      <c r="K14" s="138"/>
-      <c r="L14" s="138"/>
-      <c r="M14" s="138"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
+      <c r="M14" s="142"/>
       <c r="N14" s="95">
         <v>0.5</v>
       </c>
@@ -7892,65 +7934,65 @@
       <c r="Y14" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z14" s="138" t="s">
+      <c r="Z14" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="AA14" s="138"/>
-      <c r="AB14" s="138"/>
-      <c r="AC14" s="138"/>
+      <c r="AA14" s="142"/>
+      <c r="AB14" s="142"/>
+      <c r="AC14" s="142"/>
       <c r="AD14" s="95">
         <v>0.64</v>
       </c>
       <c r="AE14" s="59">
         <v>1.77</v>
       </c>
-      <c r="AG14" s="139" t="s">
+      <c r="AG14" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AH14" s="139"/>
-      <c r="AI14" s="174" t="s">
+      <c r="AH14" s="143"/>
+      <c r="AI14" s="148" t="s">
         <v>11</v>
       </c>
-      <c r="AJ14" s="174"/>
-      <c r="AK14" s="138">
+      <c r="AJ14" s="148"/>
+      <c r="AK14" s="142">
         <v>8456</v>
       </c>
-      <c r="AL14" s="138"/>
-      <c r="AM14" s="138"/>
-      <c r="AN14" s="138">
+      <c r="AL14" s="142"/>
+      <c r="AM14" s="142"/>
+      <c r="AN14" s="142">
         <v>6208</v>
       </c>
-      <c r="AO14" s="138"/>
-      <c r="AP14" s="138">
+      <c r="AO14" s="142"/>
+      <c r="AP14" s="142">
         <v>14664</v>
       </c>
-      <c r="AQ14" s="138"/>
-      <c r="AR14" s="138">
+      <c r="AQ14" s="142"/>
+      <c r="AR14" s="142">
         <v>0.57999999999999996</v>
       </c>
-      <c r="AS14" s="138"/>
+      <c r="AS14" s="142"/>
       <c r="AT14" s="59">
         <v>1.36</v>
       </c>
-      <c r="AV14" s="164" t="s">
+      <c r="AV14" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AW14" s="164"/>
-      <c r="AX14" s="138" t="s">
+      <c r="AW14" s="144"/>
+      <c r="AX14" s="142" t="s">
         <v>122</v>
       </c>
-      <c r="AY14" s="138"/>
-      <c r="AZ14" s="138"/>
-      <c r="BA14" s="138"/>
-      <c r="BB14" s="138"/>
-      <c r="BC14" s="138"/>
-      <c r="BD14" s="138"/>
-      <c r="BE14" s="138"/>
-      <c r="BF14" s="138"/>
-      <c r="BG14" s="138">
+      <c r="AY14" s="142"/>
+      <c r="AZ14" s="142"/>
+      <c r="BA14" s="142"/>
+      <c r="BB14" s="142"/>
+      <c r="BC14" s="142"/>
+      <c r="BD14" s="142"/>
+      <c r="BE14" s="142"/>
+      <c r="BF14" s="142"/>
+      <c r="BG14" s="142">
         <v>0.4</v>
       </c>
-      <c r="BH14" s="138"/>
+      <c r="BH14" s="142"/>
       <c r="BI14" s="59">
         <v>0.67</v>
       </c>
@@ -7980,12 +8022,12 @@
       <c r="I15" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="138" t="s">
+      <c r="J15" s="142" t="s">
         <v>81</v>
       </c>
-      <c r="K15" s="138"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="138"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="142"/>
+      <c r="M15" s="142"/>
       <c r="N15" s="95">
         <v>0.61</v>
       </c>
@@ -8016,65 +8058,65 @@
       <c r="Y15" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z15" s="138" t="s">
+      <c r="Z15" s="142" t="s">
         <v>102</v>
       </c>
-      <c r="AA15" s="138"/>
-      <c r="AB15" s="138"/>
-      <c r="AC15" s="138"/>
+      <c r="AA15" s="142"/>
+      <c r="AB15" s="142"/>
+      <c r="AC15" s="142"/>
       <c r="AD15" s="95">
         <v>0.67</v>
       </c>
       <c r="AE15" s="59">
         <v>2.02</v>
       </c>
-      <c r="AG15" s="139" t="s">
+      <c r="AG15" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AH15" s="139"/>
-      <c r="AI15" s="175" t="s">
+      <c r="AH15" s="143"/>
+      <c r="AI15" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="AJ15" s="175"/>
-      <c r="AK15" s="138">
+      <c r="AJ15" s="146"/>
+      <c r="AK15" s="142">
         <v>13577</v>
       </c>
-      <c r="AL15" s="138"/>
-      <c r="AM15" s="138"/>
-      <c r="AN15" s="138">
+      <c r="AL15" s="142"/>
+      <c r="AM15" s="142"/>
+      <c r="AN15" s="142">
         <v>11947</v>
       </c>
-      <c r="AO15" s="138"/>
-      <c r="AP15" s="138">
+      <c r="AO15" s="142"/>
+      <c r="AP15" s="142">
         <v>25524</v>
       </c>
-      <c r="AQ15" s="138"/>
-      <c r="AR15" s="138">
+      <c r="AQ15" s="142"/>
+      <c r="AR15" s="142">
         <v>0.53</v>
       </c>
-      <c r="AS15" s="138"/>
+      <c r="AS15" s="142"/>
       <c r="AT15" s="59">
         <v>1.1399999999999999</v>
       </c>
-      <c r="AV15" s="164" t="s">
+      <c r="AV15" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AW15" s="164"/>
-      <c r="AX15" s="138" t="s">
+      <c r="AW15" s="144"/>
+      <c r="AX15" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="AY15" s="138"/>
-      <c r="AZ15" s="138"/>
-      <c r="BA15" s="138"/>
-      <c r="BB15" s="138"/>
-      <c r="BC15" s="138"/>
-      <c r="BD15" s="138"/>
-      <c r="BE15" s="138"/>
-      <c r="BF15" s="138"/>
-      <c r="BG15" s="138">
+      <c r="AY15" s="142"/>
+      <c r="AZ15" s="142"/>
+      <c r="BA15" s="142"/>
+      <c r="BB15" s="142"/>
+      <c r="BC15" s="142"/>
+      <c r="BD15" s="142"/>
+      <c r="BE15" s="142"/>
+      <c r="BF15" s="142"/>
+      <c r="BG15" s="142">
         <v>0.19</v>
       </c>
-      <c r="BH15" s="138"/>
+      <c r="BH15" s="142"/>
       <c r="BI15" s="59">
         <v>0.24</v>
       </c>
@@ -8104,12 +8146,12 @@
       <c r="I16" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="138" t="s">
+      <c r="J16" s="142" t="s">
         <v>82</v>
       </c>
-      <c r="K16" s="138"/>
-      <c r="L16" s="138"/>
-      <c r="M16" s="138"/>
+      <c r="K16" s="142"/>
+      <c r="L16" s="142"/>
+      <c r="M16" s="142"/>
       <c r="N16" s="95">
         <v>0.51</v>
       </c>
@@ -8140,65 +8182,65 @@
       <c r="Y16" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z16" s="138" t="s">
+      <c r="Z16" s="142" t="s">
         <v>103</v>
       </c>
-      <c r="AA16" s="138"/>
-      <c r="AB16" s="138"/>
-      <c r="AC16" s="138"/>
+      <c r="AA16" s="142"/>
+      <c r="AB16" s="142"/>
+      <c r="AC16" s="142"/>
       <c r="AD16" s="95">
         <v>0.73</v>
       </c>
       <c r="AE16" s="59">
         <v>2.72</v>
       </c>
-      <c r="AG16" s="139" t="s">
+      <c r="AG16" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AH16" s="139"/>
-      <c r="AI16" s="174" t="s">
+      <c r="AH16" s="143"/>
+      <c r="AI16" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="AJ16" s="174"/>
-      <c r="AK16" s="138">
+      <c r="AJ16" s="148"/>
+      <c r="AK16" s="142">
         <v>6169</v>
       </c>
-      <c r="AL16" s="138"/>
-      <c r="AM16" s="138"/>
-      <c r="AN16" s="138">
+      <c r="AL16" s="142"/>
+      <c r="AM16" s="142"/>
+      <c r="AN16" s="142">
         <v>2532</v>
       </c>
-      <c r="AO16" s="138"/>
-      <c r="AP16" s="138">
+      <c r="AO16" s="142"/>
+      <c r="AP16" s="142">
         <v>8701</v>
       </c>
-      <c r="AQ16" s="138"/>
-      <c r="AR16" s="138">
+      <c r="AQ16" s="142"/>
+      <c r="AR16" s="142">
         <v>0.71</v>
       </c>
-      <c r="AS16" s="138"/>
+      <c r="AS16" s="142"/>
       <c r="AT16" s="59">
         <v>2.44</v>
       </c>
-      <c r="AV16" s="164" t="s">
+      <c r="AV16" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AW16" s="164"/>
-      <c r="AX16" s="138" t="s">
+      <c r="AW16" s="144"/>
+      <c r="AX16" s="142" t="s">
         <v>124</v>
       </c>
-      <c r="AY16" s="138"/>
-      <c r="AZ16" s="138"/>
-      <c r="BA16" s="138"/>
-      <c r="BB16" s="138"/>
-      <c r="BC16" s="138"/>
-      <c r="BD16" s="138"/>
-      <c r="BE16" s="138"/>
-      <c r="BF16" s="138"/>
-      <c r="BG16" s="138">
+      <c r="AY16" s="142"/>
+      <c r="AZ16" s="142"/>
+      <c r="BA16" s="142"/>
+      <c r="BB16" s="142"/>
+      <c r="BC16" s="142"/>
+      <c r="BD16" s="142"/>
+      <c r="BE16" s="142"/>
+      <c r="BF16" s="142"/>
+      <c r="BG16" s="142">
         <v>0</v>
       </c>
-      <c r="BH16" s="138"/>
+      <c r="BH16" s="142"/>
       <c r="BI16" s="59">
         <v>0</v>
       </c>
@@ -8228,12 +8270,12 @@
       <c r="I17" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="138" t="s">
+      <c r="J17" s="142" t="s">
         <v>83</v>
       </c>
-      <c r="K17" s="138"/>
-      <c r="L17" s="138"/>
-      <c r="M17" s="138"/>
+      <c r="K17" s="142"/>
+      <c r="L17" s="142"/>
+      <c r="M17" s="142"/>
       <c r="N17" s="95">
         <v>0.16</v>
       </c>
@@ -8264,65 +8306,65 @@
       <c r="Y17" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z17" s="138" t="s">
+      <c r="Z17" s="142" t="s">
         <v>104</v>
       </c>
-      <c r="AA17" s="138"/>
-      <c r="AB17" s="138"/>
-      <c r="AC17" s="138"/>
+      <c r="AA17" s="142"/>
+      <c r="AB17" s="142"/>
+      <c r="AC17" s="142"/>
       <c r="AD17" s="95">
         <v>0.64</v>
       </c>
       <c r="AE17" s="59">
         <v>1.78</v>
       </c>
-      <c r="AG17" s="139" t="s">
+      <c r="AG17" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AH17" s="139"/>
-      <c r="AI17" s="138" t="s">
+      <c r="AH17" s="143"/>
+      <c r="AI17" s="142" t="s">
         <v>14</v>
       </c>
-      <c r="AJ17" s="138"/>
-      <c r="AK17" s="138">
+      <c r="AJ17" s="142"/>
+      <c r="AK17" s="142">
         <v>2985</v>
       </c>
-      <c r="AL17" s="138"/>
-      <c r="AM17" s="138"/>
-      <c r="AN17" s="138">
+      <c r="AL17" s="142"/>
+      <c r="AM17" s="142"/>
+      <c r="AN17" s="142">
         <v>1713</v>
       </c>
-      <c r="AO17" s="138"/>
-      <c r="AP17" s="138">
+      <c r="AO17" s="142"/>
+      <c r="AP17" s="142">
         <v>4698</v>
       </c>
-      <c r="AQ17" s="138"/>
-      <c r="AR17" s="138">
+      <c r="AQ17" s="142"/>
+      <c r="AR17" s="142">
         <v>0.64</v>
       </c>
-      <c r="AS17" s="138"/>
+      <c r="AS17" s="142"/>
       <c r="AT17" s="59">
         <v>1.74</v>
       </c>
-      <c r="AV17" s="164" t="s">
+      <c r="AV17" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AW17" s="164"/>
-      <c r="AX17" s="138" t="s">
+      <c r="AW17" s="144"/>
+      <c r="AX17" s="142" t="s">
         <v>125</v>
       </c>
-      <c r="AY17" s="138"/>
-      <c r="AZ17" s="138"/>
-      <c r="BA17" s="138"/>
-      <c r="BB17" s="138"/>
-      <c r="BC17" s="138"/>
-      <c r="BD17" s="138"/>
-      <c r="BE17" s="138"/>
-      <c r="BF17" s="138"/>
-      <c r="BG17" s="138">
+      <c r="AY17" s="142"/>
+      <c r="AZ17" s="142"/>
+      <c r="BA17" s="142"/>
+      <c r="BB17" s="142"/>
+      <c r="BC17" s="142"/>
+      <c r="BD17" s="142"/>
+      <c r="BE17" s="142"/>
+      <c r="BF17" s="142"/>
+      <c r="BG17" s="142">
         <v>0.56999999999999995</v>
       </c>
-      <c r="BH17" s="138"/>
+      <c r="BH17" s="142"/>
       <c r="BI17" s="59">
         <v>1.33</v>
       </c>
@@ -8352,12 +8394,12 @@
       <c r="I18" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="138" t="s">
+      <c r="J18" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="K18" s="138"/>
-      <c r="L18" s="138"/>
-      <c r="M18" s="138"/>
+      <c r="K18" s="142"/>
+      <c r="L18" s="142"/>
+      <c r="M18" s="142"/>
       <c r="N18" s="95">
         <v>0.53</v>
       </c>
@@ -8388,65 +8430,65 @@
       <c r="Y18" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z18" s="138" t="s">
+      <c r="Z18" s="142" t="s">
         <v>105</v>
       </c>
-      <c r="AA18" s="138"/>
-      <c r="AB18" s="138"/>
-      <c r="AC18" s="138"/>
+      <c r="AA18" s="142"/>
+      <c r="AB18" s="142"/>
+      <c r="AC18" s="142"/>
       <c r="AD18" s="95">
         <v>0.81</v>
       </c>
       <c r="AE18" s="59">
         <v>4.1399999999999997</v>
       </c>
-      <c r="AG18" s="139" t="s">
+      <c r="AG18" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AH18" s="139"/>
-      <c r="AI18" s="138" t="s">
+      <c r="AH18" s="143"/>
+      <c r="AI18" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="AJ18" s="138"/>
-      <c r="AK18" s="138">
+      <c r="AJ18" s="142"/>
+      <c r="AK18" s="142">
         <v>7047</v>
       </c>
-      <c r="AL18" s="138"/>
-      <c r="AM18" s="138"/>
-      <c r="AN18" s="138">
+      <c r="AL18" s="142"/>
+      <c r="AM18" s="142"/>
+      <c r="AN18" s="142">
         <v>2331</v>
       </c>
-      <c r="AO18" s="138"/>
-      <c r="AP18" s="138">
+      <c r="AO18" s="142"/>
+      <c r="AP18" s="142">
         <v>9378</v>
       </c>
-      <c r="AQ18" s="138"/>
-      <c r="AR18" s="138">
+      <c r="AQ18" s="142"/>
+      <c r="AR18" s="142">
         <v>0.75</v>
       </c>
-      <c r="AS18" s="138"/>
+      <c r="AS18" s="142"/>
       <c r="AT18" s="59">
         <v>3.02</v>
       </c>
-      <c r="AV18" s="164" t="s">
+      <c r="AV18" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AW18" s="164"/>
-      <c r="AX18" s="138" t="s">
+      <c r="AW18" s="144"/>
+      <c r="AX18" s="142" t="s">
         <v>126</v>
       </c>
-      <c r="AY18" s="138"/>
-      <c r="AZ18" s="138"/>
-      <c r="BA18" s="138"/>
-      <c r="BB18" s="138"/>
-      <c r="BC18" s="138"/>
-      <c r="BD18" s="138"/>
-      <c r="BE18" s="138"/>
-      <c r="BF18" s="138"/>
-      <c r="BG18" s="138">
+      <c r="AY18" s="142"/>
+      <c r="AZ18" s="142"/>
+      <c r="BA18" s="142"/>
+      <c r="BB18" s="142"/>
+      <c r="BC18" s="142"/>
+      <c r="BD18" s="142"/>
+      <c r="BE18" s="142"/>
+      <c r="BF18" s="142"/>
+      <c r="BG18" s="142">
         <v>0</v>
       </c>
-      <c r="BH18" s="138"/>
+      <c r="BH18" s="142"/>
       <c r="BI18" s="59">
         <v>0</v>
       </c>
@@ -8476,12 +8518,12 @@
       <c r="I19" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="138" t="s">
+      <c r="J19" s="142" t="s">
         <v>85</v>
       </c>
-      <c r="K19" s="138"/>
-      <c r="L19" s="138"/>
-      <c r="M19" s="138"/>
+      <c r="K19" s="142"/>
+      <c r="L19" s="142"/>
+      <c r="M19" s="142"/>
       <c r="N19" s="95">
         <v>0.55000000000000004</v>
       </c>
@@ -8512,71 +8554,71 @@
       <c r="Y19" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="Z19" s="138" t="s">
+      <c r="Z19" s="142" t="s">
         <v>106</v>
       </c>
-      <c r="AA19" s="138"/>
-      <c r="AB19" s="138"/>
-      <c r="AC19" s="138"/>
+      <c r="AA19" s="142"/>
+      <c r="AB19" s="142"/>
+      <c r="AC19" s="142"/>
       <c r="AD19" s="95">
         <v>0.73</v>
       </c>
       <c r="AE19" s="59">
         <v>2.67</v>
       </c>
-      <c r="AG19" s="139" t="s">
+      <c r="AG19" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AH19" s="139"/>
-      <c r="AI19" s="138" t="s">
+      <c r="AH19" s="143"/>
+      <c r="AI19" s="142" t="s">
         <v>16</v>
       </c>
-      <c r="AJ19" s="138"/>
-      <c r="AK19" s="138">
+      <c r="AJ19" s="142"/>
+      <c r="AK19" s="142">
         <v>40855</v>
       </c>
-      <c r="AL19" s="138"/>
-      <c r="AM19" s="138"/>
-      <c r="AN19" s="138">
+      <c r="AL19" s="142"/>
+      <c r="AM19" s="142"/>
+      <c r="AN19" s="142">
         <v>24659</v>
       </c>
-      <c r="AO19" s="138"/>
-      <c r="AP19" s="138">
+      <c r="AO19" s="142"/>
+      <c r="AP19" s="142">
         <v>65514</v>
       </c>
-      <c r="AQ19" s="138"/>
-      <c r="AR19" s="138">
+      <c r="AQ19" s="142"/>
+      <c r="AR19" s="142">
         <v>0.62</v>
       </c>
-      <c r="AS19" s="138"/>
+      <c r="AS19" s="142"/>
       <c r="AT19" s="59">
         <v>1.66</v>
       </c>
-      <c r="AV19" s="164" t="s">
+      <c r="AV19" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AW19" s="164"/>
-      <c r="AX19" s="138" t="s">
+      <c r="AW19" s="144"/>
+      <c r="AX19" s="142" t="s">
         <v>127</v>
       </c>
-      <c r="AY19" s="138"/>
-      <c r="AZ19" s="138"/>
-      <c r="BA19" s="138"/>
-      <c r="BB19" s="138"/>
-      <c r="BC19" s="138"/>
-      <c r="BD19" s="138"/>
-      <c r="BE19" s="138"/>
-      <c r="BF19" s="138"/>
-      <c r="BG19" s="138">
+      <c r="AY19" s="142"/>
+      <c r="AZ19" s="142"/>
+      <c r="BA19" s="142"/>
+      <c r="BB19" s="142"/>
+      <c r="BC19" s="142"/>
+      <c r="BD19" s="142"/>
+      <c r="BE19" s="142"/>
+      <c r="BF19" s="142"/>
+      <c r="BG19" s="142">
         <v>0.54</v>
       </c>
-      <c r="BH19" s="138"/>
+      <c r="BH19" s="142"/>
       <c r="BI19" s="59">
         <v>1.18</v>
       </c>
     </row>
     <row r="20" spans="1:61" ht="28" x14ac:dyDescent="0.2">
-      <c r="A20" s="138" t="s">
+      <c r="A20" s="142" t="s">
         <v>19</v>
       </c>
       <c r="B20" s="57" t="s">
@@ -8591,28 +8633,28 @@
       <c r="E20" s="57">
         <v>126</v>
       </c>
-      <c r="F20" s="139">
+      <c r="F20" s="143">
         <v>0.63</v>
       </c>
-      <c r="G20" s="164">
+      <c r="G20" s="144">
         <v>1.68</v>
       </c>
-      <c r="I20" s="138" t="s">
+      <c r="I20" s="142" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="138" t="s">
+      <c r="J20" s="142" t="s">
         <v>86</v>
       </c>
-      <c r="K20" s="138"/>
-      <c r="L20" s="138"/>
-      <c r="M20" s="138"/>
-      <c r="N20" s="139">
+      <c r="K20" s="142"/>
+      <c r="L20" s="142"/>
+      <c r="M20" s="142"/>
+      <c r="N20" s="143">
         <v>0.25</v>
       </c>
-      <c r="O20" s="164">
+      <c r="O20" s="144">
         <v>0.33</v>
       </c>
-      <c r="Q20" s="138" t="s">
+      <c r="Q20" s="142" t="s">
         <v>22</v>
       </c>
       <c r="R20" s="57" t="s">
@@ -8627,147 +8669,147 @@
       <c r="U20" s="57">
         <v>95</v>
       </c>
-      <c r="V20" s="139">
+      <c r="V20" s="143">
         <v>0.48</v>
       </c>
-      <c r="W20" s="164">
+      <c r="W20" s="144">
         <v>0.94</v>
       </c>
-      <c r="Y20" s="138" t="s">
+      <c r="Y20" s="142" t="s">
         <v>21</v>
       </c>
-      <c r="Z20" s="138" t="s">
+      <c r="Z20" s="142" t="s">
         <v>107</v>
       </c>
-      <c r="AA20" s="138"/>
-      <c r="AB20" s="138"/>
-      <c r="AC20" s="138"/>
-      <c r="AD20" s="139">
+      <c r="AA20" s="142"/>
+      <c r="AB20" s="142"/>
+      <c r="AC20" s="142"/>
+      <c r="AD20" s="143">
         <v>0.71</v>
       </c>
-      <c r="AE20" s="164">
+      <c r="AE20" s="144">
         <v>2.46</v>
       </c>
-      <c r="AG20" s="139" t="s">
+      <c r="AG20" s="143" t="s">
         <v>24</v>
       </c>
-      <c r="AH20" s="139"/>
-      <c r="AI20" s="138" t="s">
+      <c r="AH20" s="143"/>
+      <c r="AI20" s="142" t="s">
         <v>17</v>
       </c>
-      <c r="AJ20" s="138"/>
-      <c r="AK20" s="138">
+      <c r="AJ20" s="142"/>
+      <c r="AK20" s="142">
         <v>3201</v>
       </c>
-      <c r="AL20" s="138"/>
-      <c r="AM20" s="138"/>
-      <c r="AN20" s="138">
+      <c r="AL20" s="142"/>
+      <c r="AM20" s="142"/>
+      <c r="AN20" s="142">
         <v>1383</v>
       </c>
-      <c r="AO20" s="138"/>
-      <c r="AP20" s="138">
+      <c r="AO20" s="142"/>
+      <c r="AP20" s="142">
         <v>4584</v>
       </c>
-      <c r="AQ20" s="138"/>
-      <c r="AR20" s="138">
+      <c r="AQ20" s="142"/>
+      <c r="AR20" s="142">
         <v>0.7</v>
       </c>
-      <c r="AS20" s="138"/>
-      <c r="AT20" s="164">
+      <c r="AS20" s="142"/>
+      <c r="AT20" s="144">
         <v>2.31</v>
       </c>
-      <c r="AV20" s="164" t="s">
+      <c r="AV20" s="144" t="s">
         <v>23</v>
       </c>
-      <c r="AW20" s="164"/>
-      <c r="AX20" s="138" t="s">
+      <c r="AW20" s="144"/>
+      <c r="AX20" s="142" t="s">
         <v>128</v>
       </c>
-      <c r="AY20" s="138"/>
-      <c r="AZ20" s="138"/>
-      <c r="BA20" s="138"/>
-      <c r="BB20" s="138"/>
-      <c r="BC20" s="138"/>
-      <c r="BD20" s="138"/>
-      <c r="BE20" s="138"/>
-      <c r="BF20" s="138"/>
-      <c r="BG20" s="138">
+      <c r="AY20" s="142"/>
+      <c r="AZ20" s="142"/>
+      <c r="BA20" s="142"/>
+      <c r="BB20" s="142"/>
+      <c r="BC20" s="142"/>
+      <c r="BD20" s="142"/>
+      <c r="BE20" s="142"/>
+      <c r="BF20" s="142"/>
+      <c r="BG20" s="142">
         <v>0</v>
       </c>
-      <c r="BH20" s="138"/>
-      <c r="BI20" s="164">
+      <c r="BH20" s="142"/>
+      <c r="BI20" s="144">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:61" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="138"/>
-      <c r="B21" s="177" t="s">
+      <c r="A21" s="142"/>
+      <c r="B21" s="145" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="177"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="164"/>
-      <c r="I21" s="138"/>
-      <c r="J21" s="177" t="s">
+      <c r="C21" s="145"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="145"/>
+      <c r="F21" s="143"/>
+      <c r="G21" s="144"/>
+      <c r="I21" s="142"/>
+      <c r="J21" s="145" t="s">
         <v>87</v>
       </c>
-      <c r="K21" s="177"/>
-      <c r="L21" s="177"/>
-      <c r="M21" s="177"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="164"/>
-      <c r="Q21" s="138"/>
-      <c r="R21" s="177" t="s">
+      <c r="K21" s="145"/>
+      <c r="L21" s="145"/>
+      <c r="M21" s="145"/>
+      <c r="N21" s="143"/>
+      <c r="O21" s="144"/>
+      <c r="Q21" s="142"/>
+      <c r="R21" s="145" t="s">
         <v>88</v>
       </c>
-      <c r="S21" s="177"/>
-      <c r="T21" s="177"/>
-      <c r="U21" s="177"/>
-      <c r="V21" s="139"/>
-      <c r="W21" s="164"/>
-      <c r="Y21" s="138"/>
-      <c r="Z21" s="176" t="s">
+      <c r="S21" s="145"/>
+      <c r="T21" s="145"/>
+      <c r="U21" s="145"/>
+      <c r="V21" s="143"/>
+      <c r="W21" s="144"/>
+      <c r="Y21" s="142"/>
+      <c r="Z21" s="147" t="s">
         <v>108</v>
       </c>
-      <c r="AA21" s="176"/>
-      <c r="AB21" s="176"/>
-      <c r="AC21" s="176"/>
-      <c r="AD21" s="139"/>
-      <c r="AE21" s="164"/>
-      <c r="AG21" s="139"/>
-      <c r="AH21" s="139"/>
-      <c r="AI21" s="173" t="s">
+      <c r="AA21" s="147"/>
+      <c r="AB21" s="147"/>
+      <c r="AC21" s="147"/>
+      <c r="AD21" s="143"/>
+      <c r="AE21" s="144"/>
+      <c r="AG21" s="143"/>
+      <c r="AH21" s="143"/>
+      <c r="AI21" s="158" t="s">
         <v>109</v>
       </c>
-      <c r="AJ21" s="173"/>
-      <c r="AK21" s="173"/>
-      <c r="AL21" s="173"/>
-      <c r="AM21" s="173"/>
-      <c r="AN21" s="173"/>
-      <c r="AO21" s="173"/>
-      <c r="AP21" s="173"/>
-      <c r="AQ21" s="173"/>
-      <c r="AR21" s="138"/>
-      <c r="AS21" s="138"/>
-      <c r="AT21" s="164"/>
-      <c r="AV21" s="164"/>
-      <c r="AW21" s="164"/>
-      <c r="AX21" s="172" t="s">
+      <c r="AJ21" s="158"/>
+      <c r="AK21" s="158"/>
+      <c r="AL21" s="158"/>
+      <c r="AM21" s="158"/>
+      <c r="AN21" s="158"/>
+      <c r="AO21" s="158"/>
+      <c r="AP21" s="158"/>
+      <c r="AQ21" s="158"/>
+      <c r="AR21" s="142"/>
+      <c r="AS21" s="142"/>
+      <c r="AT21" s="144"/>
+      <c r="AV21" s="144"/>
+      <c r="AW21" s="144"/>
+      <c r="AX21" s="156" t="s">
         <v>129</v>
       </c>
-      <c r="AY21" s="172"/>
-      <c r="AZ21" s="172"/>
-      <c r="BA21" s="172"/>
-      <c r="BB21" s="172"/>
-      <c r="BC21" s="172"/>
-      <c r="BD21" s="172"/>
-      <c r="BE21" s="172"/>
-      <c r="BF21" s="172"/>
-      <c r="BG21" s="141"/>
-      <c r="BH21" s="141"/>
-      <c r="BI21" s="164"/>
+      <c r="AY21" s="156"/>
+      <c r="AZ21" s="156"/>
+      <c r="BA21" s="156"/>
+      <c r="BB21" s="156"/>
+      <c r="BC21" s="156"/>
+      <c r="BD21" s="156"/>
+      <c r="BE21" s="156"/>
+      <c r="BF21" s="156"/>
+      <c r="BG21" s="157"/>
+      <c r="BH21" s="157"/>
+      <c r="BI21" s="144"/>
     </row>
     <row r="23" spans="1:61" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="101" t="s">
@@ -8786,131 +8828,131 @@
       <c r="L23" s="64"/>
     </row>
     <row r="24" spans="1:61" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="165" t="s">
+      <c r="A24" s="149" t="s">
         <v>62</v>
       </c>
-      <c r="B24" s="166"/>
-      <c r="C24" s="167" t="s">
+      <c r="B24" s="150"/>
+      <c r="C24" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="D24" s="168"/>
-      <c r="E24" s="169" t="s">
+      <c r="D24" s="152"/>
+      <c r="E24" s="153" t="s">
         <v>63</v>
       </c>
-      <c r="F24" s="169"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="170" t="s">
+      <c r="F24" s="153"/>
+      <c r="G24" s="150"/>
+      <c r="H24" s="154" t="s">
         <v>64</v>
       </c>
-      <c r="I24" s="171"/>
-      <c r="J24" s="167" t="s">
+      <c r="I24" s="155"/>
+      <c r="J24" s="151" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="168"/>
+      <c r="K24" s="152"/>
       <c r="L24" s="60" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A25" s="122" t="s">
+      <c r="A25" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="123"/>
-      <c r="C25" s="122">
+      <c r="B25" s="125"/>
+      <c r="C25" s="124">
         <v>1103</v>
       </c>
-      <c r="D25" s="151"/>
-      <c r="E25" s="151">
+      <c r="D25" s="159"/>
+      <c r="E25" s="159">
         <v>333</v>
       </c>
-      <c r="F25" s="151"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="122">
+      <c r="F25" s="159"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="124">
         <v>1436</v>
       </c>
-      <c r="I25" s="123"/>
-      <c r="J25" s="122">
+      <c r="I25" s="125"/>
+      <c r="J25" s="124">
         <v>0.77</v>
       </c>
-      <c r="K25" s="151"/>
+      <c r="K25" s="159"/>
       <c r="L25" s="35">
         <v>3.31</v>
       </c>
     </row>
     <row r="26" spans="1:61" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="114" t="s">
+      <c r="A26" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="115"/>
-      <c r="C26" s="144">
+      <c r="B26" s="129"/>
+      <c r="C26" s="160">
         <v>288</v>
       </c>
-      <c r="D26" s="145"/>
-      <c r="E26" s="145">
+      <c r="D26" s="161"/>
+      <c r="E26" s="161">
         <v>95</v>
       </c>
-      <c r="F26" s="145"/>
-      <c r="G26" s="163"/>
-      <c r="H26" s="116">
+      <c r="F26" s="161"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="130">
         <v>383</v>
       </c>
-      <c r="I26" s="117"/>
-      <c r="J26" s="114">
+      <c r="I26" s="131"/>
+      <c r="J26" s="128">
         <v>0.75</v>
       </c>
-      <c r="K26" s="157"/>
+      <c r="K26" s="163"/>
       <c r="L26" s="39">
         <v>3.03</v>
       </c>
     </row>
     <row r="27" spans="1:61" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="162" t="s">
+      <c r="A27" s="164" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="149"/>
-      <c r="C27" s="162">
+      <c r="B27" s="165"/>
+      <c r="C27" s="164">
         <v>15273</v>
       </c>
-      <c r="D27" s="148"/>
-      <c r="E27" s="148">
+      <c r="D27" s="166"/>
+      <c r="E27" s="166">
         <v>6521</v>
       </c>
-      <c r="F27" s="148"/>
-      <c r="G27" s="149"/>
-      <c r="H27" s="162">
+      <c r="F27" s="166"/>
+      <c r="G27" s="165"/>
+      <c r="H27" s="164">
         <v>21794</v>
       </c>
-      <c r="I27" s="149"/>
-      <c r="J27" s="162">
+      <c r="I27" s="165"/>
+      <c r="J27" s="164">
         <v>0.7</v>
       </c>
-      <c r="K27" s="148"/>
+      <c r="K27" s="166"/>
       <c r="L27" s="39">
         <v>2.34</v>
       </c>
     </row>
     <row r="28" spans="1:61" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="128" t="s">
+      <c r="A28" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="129"/>
-      <c r="C28" s="158">
+      <c r="B28" s="133"/>
+      <c r="C28" s="167">
         <v>69</v>
       </c>
-      <c r="D28" s="155"/>
-      <c r="E28" s="155">
+      <c r="D28" s="168"/>
+      <c r="E28" s="168">
         <v>44</v>
       </c>
-      <c r="F28" s="155"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="130">
+      <c r="F28" s="168"/>
+      <c r="G28" s="169"/>
+      <c r="H28" s="134">
         <v>113</v>
       </c>
-      <c r="I28" s="131"/>
-      <c r="J28" s="128">
+      <c r="I28" s="135"/>
+      <c r="J28" s="132">
         <v>0.61</v>
       </c>
-      <c r="K28" s="150"/>
+      <c r="K28" s="170"/>
       <c r="L28" s="35">
         <v>1.57</v>
       </c>
@@ -8920,15 +8962,15 @@
         <v>51</v>
       </c>
       <c r="B29" s="119"/>
-      <c r="C29" s="159">
+      <c r="C29" s="171">
         <v>23</v>
       </c>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152">
+      <c r="D29" s="172"/>
+      <c r="E29" s="172">
         <v>15</v>
       </c>
-      <c r="F29" s="152"/>
-      <c r="G29" s="153"/>
+      <c r="F29" s="172"/>
+      <c r="G29" s="173"/>
       <c r="H29" s="120">
         <v>38</v>
       </c>
@@ -8936,85 +8978,85 @@
       <c r="J29" s="118">
         <v>0.61</v>
       </c>
-      <c r="K29" s="141"/>
+      <c r="K29" s="157"/>
       <c r="L29" s="41">
         <v>1.53</v>
       </c>
     </row>
     <row r="30" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A30" s="122" t="s">
+      <c r="A30" s="124" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="123"/>
-      <c r="C30" s="142">
+      <c r="B30" s="125"/>
+      <c r="C30" s="174">
         <v>36</v>
       </c>
-      <c r="D30" s="143"/>
-      <c r="E30" s="143">
+      <c r="D30" s="175"/>
+      <c r="E30" s="175">
         <v>25</v>
       </c>
-      <c r="F30" s="143"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="124">
+      <c r="F30" s="175"/>
+      <c r="G30" s="176"/>
+      <c r="H30" s="126">
         <v>61</v>
       </c>
-      <c r="I30" s="125"/>
-      <c r="J30" s="122">
+      <c r="I30" s="127"/>
+      <c r="J30" s="124">
         <v>0.59</v>
       </c>
-      <c r="K30" s="151"/>
+      <c r="K30" s="159"/>
       <c r="L30" s="35">
         <v>1.44</v>
       </c>
     </row>
     <row r="31" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A31" s="160" t="s">
+      <c r="A31" s="177" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="161"/>
-      <c r="C31" s="154">
+      <c r="B31" s="178"/>
+      <c r="C31" s="179">
         <v>16</v>
       </c>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139">
+      <c r="D31" s="143"/>
+      <c r="E31" s="143">
         <v>12</v>
       </c>
-      <c r="F31" s="139"/>
-      <c r="G31" s="140"/>
-      <c r="H31" s="112">
+      <c r="F31" s="143"/>
+      <c r="G31" s="180"/>
+      <c r="H31" s="116">
         <v>28</v>
       </c>
-      <c r="I31" s="113"/>
-      <c r="J31" s="110">
+      <c r="I31" s="117"/>
+      <c r="J31" s="114">
         <v>0.56999999999999995</v>
       </c>
-      <c r="K31" s="138"/>
+      <c r="K31" s="142"/>
       <c r="L31" s="35">
         <v>1.33</v>
       </c>
     </row>
     <row r="32" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A32" s="110" t="s">
+      <c r="A32" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="111"/>
-      <c r="C32" s="154">
+      <c r="B32" s="115"/>
+      <c r="C32" s="179">
         <v>16</v>
       </c>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139">
+      <c r="D32" s="143"/>
+      <c r="E32" s="143">
         <v>13</v>
       </c>
-      <c r="F32" s="139"/>
-      <c r="G32" s="140"/>
-      <c r="H32" s="112">
+      <c r="F32" s="143"/>
+      <c r="G32" s="180"/>
+      <c r="H32" s="116">
         <v>29</v>
       </c>
-      <c r="I32" s="113"/>
-      <c r="J32" s="110">
+      <c r="I32" s="117"/>
+      <c r="J32" s="114">
         <v>0.55000000000000004</v>
       </c>
-      <c r="K32" s="138"/>
+      <c r="K32" s="142"/>
       <c r="L32" s="35">
         <v>1.23</v>
       </c>
@@ -9024,15 +9066,15 @@
         <v>16</v>
       </c>
       <c r="B33" s="119"/>
-      <c r="C33" s="159">
+      <c r="C33" s="171">
         <v>13</v>
       </c>
-      <c r="D33" s="152"/>
-      <c r="E33" s="152">
+      <c r="D33" s="172"/>
+      <c r="E33" s="172">
         <v>11</v>
       </c>
-      <c r="F33" s="152"/>
-      <c r="G33" s="153"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="173"/>
       <c r="H33" s="120">
         <v>24</v>
       </c>
@@ -9040,111 +9082,111 @@
       <c r="J33" s="118">
         <v>0.54</v>
       </c>
-      <c r="K33" s="141"/>
+      <c r="K33" s="157"/>
       <c r="L33" s="41">
         <v>1.18</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="122" t="s">
+      <c r="A34" s="124" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="123"/>
-      <c r="C34" s="142">
+      <c r="B34" s="125"/>
+      <c r="C34" s="174">
         <v>2</v>
       </c>
-      <c r="D34" s="143"/>
-      <c r="E34" s="143"/>
-      <c r="F34" s="151">
+      <c r="D34" s="175"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="159">
         <v>3</v>
       </c>
-      <c r="G34" s="123"/>
-      <c r="H34" s="124">
+      <c r="G34" s="125"/>
+      <c r="H34" s="126">
         <v>5</v>
       </c>
-      <c r="I34" s="125"/>
-      <c r="J34" s="122">
+      <c r="I34" s="127"/>
+      <c r="J34" s="124">
         <v>0.4</v>
       </c>
-      <c r="K34" s="151"/>
+      <c r="K34" s="159"/>
       <c r="L34" s="35">
         <v>0.67</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="114" t="s">
+      <c r="A35" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="B35" s="115"/>
-      <c r="C35" s="144">
+      <c r="B35" s="129"/>
+      <c r="C35" s="160">
         <v>11</v>
       </c>
-      <c r="D35" s="145"/>
-      <c r="E35" s="145"/>
-      <c r="F35" s="157">
+      <c r="D35" s="161"/>
+      <c r="E35" s="161"/>
+      <c r="F35" s="163">
         <v>22</v>
       </c>
-      <c r="G35" s="115"/>
-      <c r="H35" s="116">
+      <c r="G35" s="129"/>
+      <c r="H35" s="130">
         <v>33</v>
       </c>
-      <c r="I35" s="117"/>
-      <c r="J35" s="114">
+      <c r="I35" s="131"/>
+      <c r="J35" s="128">
         <v>0.33</v>
       </c>
-      <c r="K35" s="157"/>
+      <c r="K35" s="163"/>
       <c r="L35" s="39">
         <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="17" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="128" t="s">
+      <c r="A36" s="132" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="129"/>
-      <c r="C36" s="158">
+      <c r="B36" s="133"/>
+      <c r="C36" s="167">
         <v>4</v>
       </c>
-      <c r="D36" s="155"/>
-      <c r="E36" s="155"/>
-      <c r="F36" s="150">
+      <c r="D36" s="168"/>
+      <c r="E36" s="168"/>
+      <c r="F36" s="170">
         <v>17</v>
       </c>
-      <c r="G36" s="129"/>
-      <c r="H36" s="130">
+      <c r="G36" s="133"/>
+      <c r="H36" s="134">
         <v>21</v>
       </c>
-      <c r="I36" s="131"/>
-      <c r="J36" s="128">
+      <c r="I36" s="135"/>
+      <c r="J36" s="132">
         <v>0.19</v>
       </c>
-      <c r="K36" s="150"/>
+      <c r="K36" s="170"/>
       <c r="L36" s="35">
         <v>0.24</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="114" t="s">
+      <c r="A37" s="128" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="115"/>
-      <c r="C37" s="144">
+      <c r="B37" s="129"/>
+      <c r="C37" s="160">
         <v>0</v>
       </c>
-      <c r="D37" s="145"/>
-      <c r="E37" s="145"/>
-      <c r="F37" s="157">
+      <c r="D37" s="161"/>
+      <c r="E37" s="161"/>
+      <c r="F37" s="163">
         <v>0</v>
       </c>
-      <c r="G37" s="115"/>
-      <c r="H37" s="116">
+      <c r="G37" s="129"/>
+      <c r="H37" s="130">
         <v>0</v>
       </c>
-      <c r="I37" s="117"/>
-      <c r="J37" s="114">
+      <c r="I37" s="131"/>
+      <c r="J37" s="128">
         <v>0</v>
       </c>
-      <c r="K37" s="157"/>
+      <c r="K37" s="163"/>
       <c r="L37" s="39">
         <v>0</v>
       </c>
@@ -9931,10 +9973,10 @@
       <c r="B62" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="C62" s="148" t="s">
+      <c r="C62" s="166" t="s">
         <v>63</v>
       </c>
-      <c r="D62" s="149"/>
+      <c r="D62" s="165"/>
       <c r="E62" s="105" t="s">
         <v>64</v>
       </c>
@@ -9951,10 +9993,10 @@
       <c r="J62" s="104" t="s">
         <v>56</v>
       </c>
-      <c r="K62" s="148" t="s">
+      <c r="K62" s="166" t="s">
         <v>63</v>
       </c>
-      <c r="L62" s="149"/>
+      <c r="L62" s="165"/>
       <c r="M62" s="105" t="s">
         <v>64</v>
       </c>
@@ -9972,10 +10014,10 @@
       <c r="B63" s="95">
         <v>54</v>
       </c>
-      <c r="C63" s="155">
+      <c r="C63" s="168">
         <v>22</v>
       </c>
-      <c r="D63" s="156"/>
+      <c r="D63" s="169"/>
       <c r="E63" s="36">
         <v>76</v>
       </c>
@@ -9992,10 +10034,10 @@
       <c r="J63" s="57">
         <v>1208</v>
       </c>
-      <c r="K63" s="150">
+      <c r="K63" s="170">
         <v>257</v>
       </c>
-      <c r="L63" s="129"/>
+      <c r="L63" s="133"/>
       <c r="M63" s="35">
         <v>1465</v>
       </c>
@@ -10013,10 +10055,10 @@
       <c r="B64" s="57">
         <v>17355</v>
       </c>
-      <c r="C64" s="138">
+      <c r="C64" s="142">
         <v>7536</v>
       </c>
-      <c r="D64" s="111"/>
+      <c r="D64" s="115"/>
       <c r="E64" s="35">
         <v>24891</v>
       </c>
@@ -10033,7 +10075,7 @@
       <c r="J64" s="63">
         <v>4097</v>
       </c>
-      <c r="K64" s="141">
+      <c r="K64" s="157">
         <v>931</v>
       </c>
       <c r="L64" s="119"/>
@@ -10054,7 +10096,7 @@
       <c r="B65" s="63">
         <v>3932</v>
       </c>
-      <c r="C65" s="141">
+      <c r="C65" s="157">
         <v>1954</v>
       </c>
       <c r="D65" s="119"/>
@@ -10074,10 +10116,10 @@
       <c r="J65" s="57">
         <v>1325</v>
       </c>
-      <c r="K65" s="151">
+      <c r="K65" s="159">
         <v>563</v>
       </c>
-      <c r="L65" s="123"/>
+      <c r="L65" s="125"/>
       <c r="M65" s="35">
         <v>1888</v>
       </c>
@@ -10095,10 +10137,10 @@
       <c r="B66" s="57">
         <v>8473</v>
       </c>
-      <c r="C66" s="151">
+      <c r="C66" s="159">
         <v>4415</v>
       </c>
-      <c r="D66" s="123"/>
+      <c r="D66" s="125"/>
       <c r="E66" s="35">
         <v>12888</v>
       </c>
@@ -10115,10 +10157,10 @@
       <c r="J66" s="95">
         <v>673</v>
       </c>
-      <c r="K66" s="138">
+      <c r="K66" s="142">
         <v>338</v>
       </c>
-      <c r="L66" s="111"/>
+      <c r="L66" s="115"/>
       <c r="M66" s="35">
         <v>1011</v>
       </c>
@@ -10136,10 +10178,10 @@
       <c r="B67" s="95">
         <v>132</v>
       </c>
-      <c r="C67" s="139">
+      <c r="C67" s="143">
         <v>74</v>
       </c>
-      <c r="D67" s="140"/>
+      <c r="D67" s="180"/>
       <c r="E67" s="36">
         <v>206</v>
       </c>
@@ -10156,10 +10198,10 @@
       <c r="J67" s="57">
         <v>35720</v>
       </c>
-      <c r="K67" s="138">
+      <c r="K67" s="142">
         <v>18737</v>
       </c>
-      <c r="L67" s="111"/>
+      <c r="L67" s="115"/>
       <c r="M67" s="35">
         <v>54457</v>
       </c>
@@ -10177,10 +10219,10 @@
       <c r="B68" s="57">
         <v>22963</v>
       </c>
-      <c r="C68" s="138">
+      <c r="C68" s="142">
         <v>13053</v>
       </c>
-      <c r="D68" s="111"/>
+      <c r="D68" s="115"/>
       <c r="E68" s="35">
         <v>36016</v>
       </c>
@@ -10197,10 +10239,10 @@
       <c r="J68" s="57">
         <v>22896</v>
       </c>
-      <c r="K68" s="138">
+      <c r="K68" s="142">
         <v>12483</v>
       </c>
-      <c r="L68" s="111"/>
+      <c r="L68" s="115"/>
       <c r="M68" s="35">
         <v>35379</v>
       </c>
@@ -10218,10 +10260,10 @@
       <c r="B69" s="95">
         <v>386</v>
       </c>
-      <c r="C69" s="138">
+      <c r="C69" s="142">
         <v>225</v>
       </c>
-      <c r="D69" s="111"/>
+      <c r="D69" s="115"/>
       <c r="E69" s="36">
         <v>611</v>
       </c>
@@ -10238,7 +10280,7 @@
       <c r="J69" s="97">
         <v>219</v>
       </c>
-      <c r="K69" s="141">
+      <c r="K69" s="157">
         <v>120</v>
       </c>
       <c r="L69" s="119"/>
@@ -10259,10 +10301,10 @@
       <c r="B70" s="95">
         <v>670</v>
       </c>
-      <c r="C70" s="138">
+      <c r="C70" s="142">
         <v>395</v>
       </c>
-      <c r="D70" s="111"/>
+      <c r="D70" s="115"/>
       <c r="E70" s="35">
         <v>1065</v>
       </c>
@@ -10279,10 +10321,10 @@
       <c r="J70" s="95">
         <v>37</v>
       </c>
-      <c r="K70" s="143">
+      <c r="K70" s="175">
         <v>25</v>
       </c>
-      <c r="L70" s="146"/>
+      <c r="L70" s="176"/>
       <c r="M70" s="36">
         <v>62</v>
       </c>
@@ -10300,10 +10342,10 @@
       <c r="B71" s="57">
         <v>1244</v>
       </c>
-      <c r="C71" s="138">
+      <c r="C71" s="142">
         <v>774</v>
       </c>
-      <c r="D71" s="111"/>
+      <c r="D71" s="115"/>
       <c r="E71" s="35">
         <v>2018</v>
       </c>
@@ -10320,10 +10362,10 @@
       <c r="J71" s="95">
         <v>348</v>
       </c>
-      <c r="K71" s="138">
+      <c r="K71" s="142">
         <v>240</v>
       </c>
-      <c r="L71" s="111"/>
+      <c r="L71" s="115"/>
       <c r="M71" s="36">
         <v>588</v>
       </c>
@@ -10341,10 +10383,10 @@
       <c r="B72" s="95">
         <v>868</v>
       </c>
-      <c r="C72" s="138">
+      <c r="C72" s="142">
         <v>545</v>
       </c>
-      <c r="D72" s="111"/>
+      <c r="D72" s="115"/>
       <c r="E72" s="35">
         <v>1413</v>
       </c>
@@ -10361,10 +10403,10 @@
       <c r="J72" s="95">
         <v>321</v>
       </c>
-      <c r="K72" s="138">
+      <c r="K72" s="142">
         <v>229</v>
       </c>
-      <c r="L72" s="111"/>
+      <c r="L72" s="115"/>
       <c r="M72" s="36">
         <v>550</v>
       </c>
@@ -10382,10 +10424,10 @@
       <c r="B73" s="97">
         <v>102</v>
       </c>
-      <c r="C73" s="152">
+      <c r="C73" s="172">
         <v>64</v>
       </c>
-      <c r="D73" s="153"/>
+      <c r="D73" s="173"/>
       <c r="E73" s="42">
         <v>166</v>
       </c>
@@ -10402,10 +10444,10 @@
       <c r="J73" s="57">
         <v>3856</v>
       </c>
-      <c r="K73" s="138">
+      <c r="K73" s="142">
         <v>2769</v>
       </c>
-      <c r="L73" s="111"/>
+      <c r="L73" s="115"/>
       <c r="M73" s="35">
         <v>6625</v>
       </c>
@@ -10423,10 +10465,10 @@
       <c r="B74" s="95">
         <v>50</v>
       </c>
-      <c r="C74" s="143">
+      <c r="C74" s="175">
         <v>34</v>
       </c>
-      <c r="D74" s="146"/>
+      <c r="D74" s="176"/>
       <c r="E74" s="36">
         <v>84</v>
       </c>
@@ -10443,10 +10485,10 @@
       <c r="J74" s="95">
         <v>228</v>
       </c>
-      <c r="K74" s="138">
+      <c r="K74" s="142">
         <v>193</v>
       </c>
-      <c r="L74" s="111"/>
+      <c r="L74" s="115"/>
       <c r="M74" s="36">
         <v>421</v>
       </c>
@@ -10464,10 +10506,10 @@
       <c r="B75" s="95">
         <v>638</v>
       </c>
-      <c r="C75" s="138">
+      <c r="C75" s="142">
         <v>520</v>
       </c>
-      <c r="D75" s="111"/>
+      <c r="D75" s="115"/>
       <c r="E75" s="35">
         <v>1158</v>
       </c>
@@ -10484,10 +10526,10 @@
       <c r="J75" s="57">
         <v>1073</v>
       </c>
-      <c r="K75" s="138">
+      <c r="K75" s="142">
         <v>915</v>
       </c>
-      <c r="L75" s="111"/>
+      <c r="L75" s="115"/>
       <c r="M75" s="35">
         <v>1988</v>
       </c>
@@ -10505,10 +10547,10 @@
       <c r="B76" s="95">
         <v>124</v>
       </c>
-      <c r="C76" s="138">
+      <c r="C76" s="142">
         <v>110</v>
       </c>
-      <c r="D76" s="111"/>
+      <c r="D76" s="115"/>
       <c r="E76" s="36">
         <v>234</v>
       </c>
@@ -10525,10 +10567,10 @@
       <c r="J76" s="57">
         <v>4937</v>
       </c>
-      <c r="K76" s="138">
+      <c r="K76" s="142">
         <v>4270</v>
       </c>
-      <c r="L76" s="111"/>
+      <c r="L76" s="115"/>
       <c r="M76" s="35">
         <v>9207</v>
       </c>
@@ -10546,10 +10588,10 @@
       <c r="B77" s="95">
         <v>30</v>
       </c>
-      <c r="C77" s="139">
+      <c r="C77" s="143">
         <v>29</v>
       </c>
-      <c r="D77" s="140"/>
+      <c r="D77" s="180"/>
       <c r="E77" s="36">
         <v>59</v>
       </c>
@@ -10566,10 +10608,10 @@
       <c r="J77" s="95">
         <v>157</v>
       </c>
-      <c r="K77" s="138">
+      <c r="K77" s="142">
         <v>131</v>
       </c>
-      <c r="L77" s="111"/>
+      <c r="L77" s="115"/>
       <c r="M77" s="36">
         <v>288</v>
       </c>
@@ -10587,10 +10629,10 @@
       <c r="B78" s="97">
         <v>21</v>
       </c>
-      <c r="C78" s="152">
+      <c r="C78" s="172">
         <v>21</v>
       </c>
-      <c r="D78" s="153"/>
+      <c r="D78" s="173"/>
       <c r="E78" s="42">
         <v>42</v>
       </c>
@@ -10607,10 +10649,10 @@
       <c r="J78" s="95">
         <v>108</v>
       </c>
-      <c r="K78" s="139">
+      <c r="K78" s="143">
         <v>97</v>
       </c>
-      <c r="L78" s="140"/>
+      <c r="L78" s="180"/>
       <c r="M78" s="36">
         <v>205</v>
       </c>
@@ -10625,10 +10667,10 @@
       <c r="A79" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="142">
+      <c r="B79" s="174">
         <v>44</v>
       </c>
-      <c r="C79" s="143"/>
+      <c r="C79" s="175"/>
       <c r="D79" s="35">
         <v>49</v>
       </c>
@@ -10648,7 +10690,7 @@
       <c r="J79" s="63">
         <v>7268</v>
       </c>
-      <c r="K79" s="141">
+      <c r="K79" s="157">
         <v>6915</v>
       </c>
       <c r="L79" s="119"/>
@@ -10666,10 +10708,10 @@
       <c r="A80" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B80" s="154">
+      <c r="B80" s="179">
         <v>4</v>
       </c>
-      <c r="C80" s="139"/>
+      <c r="C80" s="143"/>
       <c r="D80" s="35">
         <v>12</v>
       </c>
@@ -10686,10 +10728,10 @@
       <c r="I80" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="J80" s="142">
+      <c r="J80" s="174">
         <v>46</v>
       </c>
-      <c r="K80" s="143"/>
+      <c r="K80" s="175"/>
       <c r="L80" s="35">
         <v>49</v>
       </c>
@@ -10707,10 +10749,10 @@
       <c r="A81" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="144">
+      <c r="B81" s="160">
         <v>10</v>
       </c>
-      <c r="C81" s="145"/>
+      <c r="C81" s="161"/>
       <c r="D81" s="39">
         <v>51</v>
       </c>
@@ -10727,10 +10769,10 @@
       <c r="I81" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="J81" s="144">
+      <c r="J81" s="160">
         <v>247</v>
       </c>
-      <c r="K81" s="145"/>
+      <c r="K81" s="161"/>
       <c r="L81" s="39">
         <v>379</v>
       </c>
@@ -11173,14 +11215,14 @@
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="124" t="s">
+      <c r="A104" s="126" t="s">
         <v>132</v>
       </c>
-      <c r="B104" s="147"/>
-      <c r="C104" s="147"/>
-      <c r="D104" s="147"/>
-      <c r="E104" s="147"/>
-      <c r="F104" s="147"/>
+      <c r="B104" s="181"/>
+      <c r="C104" s="181"/>
+      <c r="D104" s="181"/>
+      <c r="E104" s="181"/>
+      <c r="F104" s="181"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A105" s="56"/>
@@ -11475,6 +11517,333 @@
     </row>
   </sheetData>
   <mergeCells count="351">
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K79:L79"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="A104:F104"/>
+    <mergeCell ref="B79:C79"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="B80:C80"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="BI20:BI21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="AV19:AW19"/>
+    <mergeCell ref="AX19:BF19"/>
+    <mergeCell ref="BG19:BH19"/>
+    <mergeCell ref="AV20:AW21"/>
+    <mergeCell ref="AX20:BF20"/>
+    <mergeCell ref="AX21:BF21"/>
+    <mergeCell ref="BG20:BH21"/>
+    <mergeCell ref="AT20:AT21"/>
+    <mergeCell ref="AI21:AQ21"/>
+    <mergeCell ref="AV17:AW17"/>
+    <mergeCell ref="AX17:BF17"/>
+    <mergeCell ref="BG17:BH17"/>
+    <mergeCell ref="AV18:AW18"/>
+    <mergeCell ref="AX18:BF18"/>
+    <mergeCell ref="BG18:BH18"/>
+    <mergeCell ref="AV15:AW15"/>
+    <mergeCell ref="AX15:BF15"/>
+    <mergeCell ref="BG15:BH15"/>
+    <mergeCell ref="AV16:AW16"/>
+    <mergeCell ref="AX16:BF16"/>
+    <mergeCell ref="BG16:BH16"/>
+    <mergeCell ref="AV13:AW13"/>
+    <mergeCell ref="AX13:BF13"/>
+    <mergeCell ref="BG13:BH13"/>
+    <mergeCell ref="AV14:AW14"/>
+    <mergeCell ref="AX14:BF14"/>
+    <mergeCell ref="BG14:BH14"/>
+    <mergeCell ref="AV11:AW11"/>
+    <mergeCell ref="AX11:BF11"/>
+    <mergeCell ref="BG11:BH11"/>
+    <mergeCell ref="AV12:AW12"/>
+    <mergeCell ref="AX12:BF12"/>
+    <mergeCell ref="BG12:BH12"/>
+    <mergeCell ref="AV9:AW9"/>
+    <mergeCell ref="AX9:BF9"/>
+    <mergeCell ref="BG9:BH9"/>
+    <mergeCell ref="AV10:AW10"/>
+    <mergeCell ref="AX10:BF10"/>
+    <mergeCell ref="BG10:BH10"/>
+    <mergeCell ref="AV7:AW7"/>
+    <mergeCell ref="AX7:BF7"/>
+    <mergeCell ref="BG7:BH7"/>
+    <mergeCell ref="AV8:AW8"/>
+    <mergeCell ref="AX8:BF8"/>
+    <mergeCell ref="BG8:BH8"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AX5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AX6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="AV3:AW3"/>
+    <mergeCell ref="AX3:BF3"/>
+    <mergeCell ref="BG3:BH3"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AX4:BF4"/>
+    <mergeCell ref="BG4:BH4"/>
+    <mergeCell ref="AV1:AW1"/>
+    <mergeCell ref="AX1:BF1"/>
+    <mergeCell ref="BG1:BH1"/>
+    <mergeCell ref="AV2:AW2"/>
+    <mergeCell ref="AX2:BF2"/>
+    <mergeCell ref="BG2:BH2"/>
+    <mergeCell ref="AG20:AH21"/>
+    <mergeCell ref="AI20:AJ20"/>
+    <mergeCell ref="AK20:AM20"/>
+    <mergeCell ref="AN20:AO20"/>
+    <mergeCell ref="AP20:AQ20"/>
+    <mergeCell ref="AR20:AS21"/>
+    <mergeCell ref="AG19:AH19"/>
+    <mergeCell ref="AI19:AJ19"/>
+    <mergeCell ref="AK19:AM19"/>
+    <mergeCell ref="AN19:AO19"/>
+    <mergeCell ref="AP19:AQ19"/>
+    <mergeCell ref="AR19:AS19"/>
+    <mergeCell ref="AG18:AH18"/>
+    <mergeCell ref="AI18:AJ18"/>
+    <mergeCell ref="AK18:AM18"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AP18:AQ18"/>
+    <mergeCell ref="AR18:AS18"/>
+    <mergeCell ref="AG17:AH17"/>
+    <mergeCell ref="AI17:AJ17"/>
+    <mergeCell ref="AK17:AM17"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AP17:AQ17"/>
+    <mergeCell ref="AR17:AS17"/>
+    <mergeCell ref="AG16:AH16"/>
+    <mergeCell ref="AI16:AJ16"/>
+    <mergeCell ref="AK16:AM16"/>
+    <mergeCell ref="AN16:AO16"/>
+    <mergeCell ref="AP16:AQ16"/>
+    <mergeCell ref="AR16:AS16"/>
+    <mergeCell ref="AG15:AH15"/>
+    <mergeCell ref="AI15:AJ15"/>
+    <mergeCell ref="AK15:AM15"/>
+    <mergeCell ref="AN15:AO15"/>
+    <mergeCell ref="AP15:AQ15"/>
+    <mergeCell ref="AR15:AS15"/>
+    <mergeCell ref="AG14:AH14"/>
+    <mergeCell ref="AI14:AJ14"/>
+    <mergeCell ref="AK14:AM14"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AQ14"/>
+    <mergeCell ref="AR14:AS14"/>
+    <mergeCell ref="AG13:AH13"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AM13"/>
+    <mergeCell ref="AN13:AO13"/>
+    <mergeCell ref="AP13:AQ13"/>
+    <mergeCell ref="AR13:AS13"/>
+    <mergeCell ref="AG12:AH12"/>
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AM12"/>
+    <mergeCell ref="AN12:AO12"/>
+    <mergeCell ref="AP12:AQ12"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AG11:AH11"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AM11"/>
+    <mergeCell ref="AN11:AO11"/>
+    <mergeCell ref="AP11:AQ11"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="AG10:AH10"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AM10"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AP10:AQ10"/>
+    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="AG9:AH9"/>
+    <mergeCell ref="AI9:AJ9"/>
+    <mergeCell ref="AK9:AM9"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AG8:AH8"/>
+    <mergeCell ref="AI8:AJ8"/>
+    <mergeCell ref="AK8:AM8"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AP8:AQ8"/>
+    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="AG7:AH7"/>
+    <mergeCell ref="AI7:AJ7"/>
+    <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="AN7:AO7"/>
+    <mergeCell ref="AP7:AQ7"/>
+    <mergeCell ref="AR7:AS7"/>
+    <mergeCell ref="AG6:AH6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AK6:AM6"/>
+    <mergeCell ref="AN6:AO6"/>
+    <mergeCell ref="AP6:AQ6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AG5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AM5"/>
+    <mergeCell ref="AN5:AO5"/>
+    <mergeCell ref="AP5:AQ5"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="AI4:AJ4"/>
+    <mergeCell ref="AK4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AM3"/>
+    <mergeCell ref="AN3:AO3"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AR3:AS3"/>
+    <mergeCell ref="AG2:AH2"/>
+    <mergeCell ref="AI2:AJ2"/>
+    <mergeCell ref="AK2:AM2"/>
+    <mergeCell ref="AN2:AO2"/>
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="AR2:AS2"/>
+    <mergeCell ref="AG1:AH1"/>
+    <mergeCell ref="AI1:AJ1"/>
+    <mergeCell ref="AK1:AM1"/>
+    <mergeCell ref="AN1:AO1"/>
+    <mergeCell ref="AP1:AQ1"/>
+    <mergeCell ref="AR1:AS1"/>
+    <mergeCell ref="Z19:AC19"/>
+    <mergeCell ref="Y20:Y21"/>
+    <mergeCell ref="Z20:AC20"/>
+    <mergeCell ref="Z21:AC21"/>
+    <mergeCell ref="AD20:AD21"/>
+    <mergeCell ref="AE20:AE21"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="Z15:AC15"/>
+    <mergeCell ref="Z16:AC16"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="Z18:AC18"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="Z9:AC9"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="J13:M13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="Z2:AC2"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="Q20:Q21"/>
+    <mergeCell ref="V20:V21"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="R21:U21"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="J3:M3"/>
@@ -11499,333 +11868,6 @@
     <mergeCell ref="J10:M10"/>
     <mergeCell ref="J11:M11"/>
     <mergeCell ref="J12:M12"/>
-    <mergeCell ref="J13:M13"/>
-    <mergeCell ref="J14:M14"/>
-    <mergeCell ref="Z1:AC1"/>
-    <mergeCell ref="Z2:AC2"/>
-    <mergeCell ref="Z3:AC3"/>
-    <mergeCell ref="Z4:AC4"/>
-    <mergeCell ref="Z5:AC5"/>
-    <mergeCell ref="Z6:AC6"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="O20:O21"/>
-    <mergeCell ref="Q20:Q21"/>
-    <mergeCell ref="V20:V21"/>
-    <mergeCell ref="W20:W21"/>
-    <mergeCell ref="R21:U21"/>
-    <mergeCell ref="AG1:AH1"/>
-    <mergeCell ref="AI1:AJ1"/>
-    <mergeCell ref="AK1:AM1"/>
-    <mergeCell ref="AN1:AO1"/>
-    <mergeCell ref="AP1:AQ1"/>
-    <mergeCell ref="AR1:AS1"/>
-    <mergeCell ref="Z19:AC19"/>
-    <mergeCell ref="Y20:Y21"/>
-    <mergeCell ref="Z20:AC20"/>
-    <mergeCell ref="Z21:AC21"/>
-    <mergeCell ref="AD20:AD21"/>
-    <mergeCell ref="AE20:AE21"/>
-    <mergeCell ref="Z13:AC13"/>
-    <mergeCell ref="Z14:AC14"/>
-    <mergeCell ref="Z15:AC15"/>
-    <mergeCell ref="Z16:AC16"/>
-    <mergeCell ref="Z17:AC17"/>
-    <mergeCell ref="Z18:AC18"/>
-    <mergeCell ref="Z7:AC7"/>
-    <mergeCell ref="Z8:AC8"/>
-    <mergeCell ref="Z9:AC9"/>
-    <mergeCell ref="Z10:AC10"/>
-    <mergeCell ref="Z11:AC11"/>
-    <mergeCell ref="Z12:AC12"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AM3"/>
-    <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AR3:AS3"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="AI2:AJ2"/>
-    <mergeCell ref="AK2:AM2"/>
-    <mergeCell ref="AN2:AO2"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="AR2:AS2"/>
-    <mergeCell ref="AG5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AM5"/>
-    <mergeCell ref="AN5:AO5"/>
-    <mergeCell ref="AP5:AQ5"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="AG4:AH4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="AK4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AG7:AH7"/>
-    <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AK7:AM7"/>
-    <mergeCell ref="AN7:AO7"/>
-    <mergeCell ref="AP7:AQ7"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="AG6:AH6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AK6:AM6"/>
-    <mergeCell ref="AN6:AO6"/>
-    <mergeCell ref="AP6:AQ6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AG9:AH9"/>
-    <mergeCell ref="AI9:AJ9"/>
-    <mergeCell ref="AK9:AM9"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AG8:AH8"/>
-    <mergeCell ref="AI8:AJ8"/>
-    <mergeCell ref="AK8:AM8"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="AP8:AQ8"/>
-    <mergeCell ref="AR8:AS8"/>
-    <mergeCell ref="AG11:AH11"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AM11"/>
-    <mergeCell ref="AN11:AO11"/>
-    <mergeCell ref="AP11:AQ11"/>
-    <mergeCell ref="AR11:AS11"/>
-    <mergeCell ref="AG10:AH10"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AM10"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AP10:AQ10"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="AG13:AH13"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AM13"/>
-    <mergeCell ref="AN13:AO13"/>
-    <mergeCell ref="AP13:AQ13"/>
-    <mergeCell ref="AR13:AS13"/>
-    <mergeCell ref="AG12:AH12"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AM12"/>
-    <mergeCell ref="AN12:AO12"/>
-    <mergeCell ref="AP12:AQ12"/>
-    <mergeCell ref="AR12:AS12"/>
-    <mergeCell ref="AG15:AH15"/>
-    <mergeCell ref="AI15:AJ15"/>
-    <mergeCell ref="AK15:AM15"/>
-    <mergeCell ref="AN15:AO15"/>
-    <mergeCell ref="AP15:AQ15"/>
-    <mergeCell ref="AR15:AS15"/>
-    <mergeCell ref="AG14:AH14"/>
-    <mergeCell ref="AI14:AJ14"/>
-    <mergeCell ref="AK14:AM14"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AQ14"/>
-    <mergeCell ref="AR14:AS14"/>
-    <mergeCell ref="AG17:AH17"/>
-    <mergeCell ref="AI17:AJ17"/>
-    <mergeCell ref="AK17:AM17"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AP17:AQ17"/>
-    <mergeCell ref="AR17:AS17"/>
-    <mergeCell ref="AG16:AH16"/>
-    <mergeCell ref="AI16:AJ16"/>
-    <mergeCell ref="AK16:AM16"/>
-    <mergeCell ref="AN16:AO16"/>
-    <mergeCell ref="AP16:AQ16"/>
-    <mergeCell ref="AR16:AS16"/>
-    <mergeCell ref="AV1:AW1"/>
-    <mergeCell ref="AX1:BF1"/>
-    <mergeCell ref="BG1:BH1"/>
-    <mergeCell ref="AV2:AW2"/>
-    <mergeCell ref="AX2:BF2"/>
-    <mergeCell ref="BG2:BH2"/>
-    <mergeCell ref="AG20:AH21"/>
-    <mergeCell ref="AI20:AJ20"/>
-    <mergeCell ref="AK20:AM20"/>
-    <mergeCell ref="AN20:AO20"/>
-    <mergeCell ref="AP20:AQ20"/>
-    <mergeCell ref="AR20:AS21"/>
-    <mergeCell ref="AG19:AH19"/>
-    <mergeCell ref="AI19:AJ19"/>
-    <mergeCell ref="AK19:AM19"/>
-    <mergeCell ref="AN19:AO19"/>
-    <mergeCell ref="AP19:AQ19"/>
-    <mergeCell ref="AR19:AS19"/>
-    <mergeCell ref="AG18:AH18"/>
-    <mergeCell ref="AI18:AJ18"/>
-    <mergeCell ref="AK18:AM18"/>
-    <mergeCell ref="AN18:AO18"/>
-    <mergeCell ref="AP18:AQ18"/>
-    <mergeCell ref="AR18:AS18"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AX5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AX6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="AV3:AW3"/>
-    <mergeCell ref="AX3:BF3"/>
-    <mergeCell ref="BG3:BH3"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AX4:BF4"/>
-    <mergeCell ref="BG4:BH4"/>
-    <mergeCell ref="AV9:AW9"/>
-    <mergeCell ref="AX9:BF9"/>
-    <mergeCell ref="BG9:BH9"/>
-    <mergeCell ref="AV10:AW10"/>
-    <mergeCell ref="AX10:BF10"/>
-    <mergeCell ref="BG10:BH10"/>
-    <mergeCell ref="AV7:AW7"/>
-    <mergeCell ref="AX7:BF7"/>
-    <mergeCell ref="BG7:BH7"/>
-    <mergeCell ref="AV8:AW8"/>
-    <mergeCell ref="AX8:BF8"/>
-    <mergeCell ref="BG8:BH8"/>
-    <mergeCell ref="AV13:AW13"/>
-    <mergeCell ref="AX13:BF13"/>
-    <mergeCell ref="BG13:BH13"/>
-    <mergeCell ref="AV14:AW14"/>
-    <mergeCell ref="AX14:BF14"/>
-    <mergeCell ref="BG14:BH14"/>
-    <mergeCell ref="AV11:AW11"/>
-    <mergeCell ref="AX11:BF11"/>
-    <mergeCell ref="BG11:BH11"/>
-    <mergeCell ref="AV12:AW12"/>
-    <mergeCell ref="AX12:BF12"/>
-    <mergeCell ref="BG12:BH12"/>
-    <mergeCell ref="AV17:AW17"/>
-    <mergeCell ref="AX17:BF17"/>
-    <mergeCell ref="BG17:BH17"/>
-    <mergeCell ref="AV18:AW18"/>
-    <mergeCell ref="AX18:BF18"/>
-    <mergeCell ref="BG18:BH18"/>
-    <mergeCell ref="AV15:AW15"/>
-    <mergeCell ref="AX15:BF15"/>
-    <mergeCell ref="BG15:BH15"/>
-    <mergeCell ref="AV16:AW16"/>
-    <mergeCell ref="AX16:BF16"/>
-    <mergeCell ref="BG16:BH16"/>
-    <mergeCell ref="BI20:BI21"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="AV19:AW19"/>
-    <mergeCell ref="AX19:BF19"/>
-    <mergeCell ref="BG19:BH19"/>
-    <mergeCell ref="AV20:AW21"/>
-    <mergeCell ref="AX20:BF20"/>
-    <mergeCell ref="AX21:BF21"/>
-    <mergeCell ref="BG20:BH21"/>
-    <mergeCell ref="AT20:AT21"/>
-    <mergeCell ref="AI21:AQ21"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="A104:F104"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="B81:C81"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="K77:L77"/>
-    <mergeCell ref="K78:L78"/>
-    <mergeCell ref="K79:L79"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K71:L71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11836,7 +11878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EF2265B-72BE-8443-A5FF-83F238441323}">
   <dimension ref="A2:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="B30" sqref="B30:C59"/>
     </sheetView>
   </sheetViews>
@@ -11847,13 +11889,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B2" s="181" t="s">
+      <c r="B2" s="112" t="s">
         <v>135</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="181" t="s">
+      <c r="D2" s="112" t="s">
         <v>135</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -11861,13 +11903,13 @@
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="111" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="179">
+      <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="180" t="s">
+      <c r="D3" s="111" t="s">
         <v>161</v>
       </c>
       <c r="E3">
@@ -11875,13 +11917,13 @@
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="180" t="s">
+      <c r="B4" s="111" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="179">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="180" t="s">
+      <c r="D4" s="111" t="s">
         <v>162</v>
       </c>
       <c r="E4">
@@ -11889,13 +11931,13 @@
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="180" t="s">
+      <c r="B5" s="111" t="s">
         <v>138</v>
       </c>
-      <c r="C5" s="179">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="180" t="s">
+      <c r="D5" s="111" t="s">
         <v>163</v>
       </c>
       <c r="E5">
@@ -11903,13 +11945,13 @@
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="180" t="s">
+      <c r="B6" s="111" t="s">
         <v>139</v>
       </c>
-      <c r="C6" s="179">
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6" s="180" t="s">
+      <c r="D6" s="111" t="s">
         <v>164</v>
       </c>
       <c r="E6">
@@ -11917,13 +11959,13 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="180" t="s">
+      <c r="B7" s="111" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="179">
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7" s="180" t="s">
+      <c r="D7" s="111" t="s">
         <v>165</v>
       </c>
       <c r="E7">
@@ -11931,13 +11973,13 @@
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="180" t="s">
+      <c r="B8" s="111" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="179">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="180" t="s">
+      <c r="D8" s="111" t="s">
         <v>166</v>
       </c>
       <c r="E8">
@@ -11945,13 +11987,13 @@
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="180" t="s">
+      <c r="B9" s="111" t="s">
         <v>142</v>
       </c>
-      <c r="C9" s="179">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="D9" s="180" t="s">
+      <c r="D9" s="111" t="s">
         <v>167</v>
       </c>
       <c r="E9">
@@ -11959,13 +12001,13 @@
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="180" t="s">
+      <c r="B10" s="111" t="s">
         <v>143</v>
       </c>
-      <c r="C10" s="179">
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="D10" s="180" t="s">
+      <c r="D10" s="111" t="s">
         <v>168</v>
       </c>
       <c r="E10">
@@ -11973,13 +12015,13 @@
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="180" t="s">
+      <c r="B11" s="111" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="179">
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="D11" s="180" t="s">
+      <c r="D11" s="111" t="s">
         <v>169</v>
       </c>
       <c r="E11">
@@ -11987,13 +12029,13 @@
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="180" t="s">
+      <c r="B12" s="111" t="s">
         <v>145</v>
       </c>
-      <c r="C12" s="179">
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="D12" s="180" t="s">
+      <c r="D12" s="111" t="s">
         <v>170</v>
       </c>
       <c r="E12">
@@ -12001,13 +12043,13 @@
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="180" t="s">
+      <c r="B13" s="111" t="s">
         <v>146</v>
       </c>
-      <c r="C13" s="179">
+      <c r="C13">
         <v>1</v>
       </c>
-      <c r="D13" s="180" t="s">
+      <c r="D13" s="111" t="s">
         <v>171</v>
       </c>
       <c r="E13">
@@ -12015,13 +12057,13 @@
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="180" t="s">
+      <c r="B14" s="111" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="179">
+      <c r="C14">
         <v>1</v>
       </c>
-      <c r="D14" s="180" t="s">
+      <c r="D14" s="111" t="s">
         <v>172</v>
       </c>
       <c r="E14">
@@ -12029,13 +12071,13 @@
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="180" t="s">
+      <c r="B15" s="111" t="s">
         <v>148</v>
       </c>
-      <c r="C15" s="179">
+      <c r="C15">
         <v>1</v>
       </c>
-      <c r="D15" s="180" t="s">
+      <c r="D15" s="111" t="s">
         <v>173</v>
       </c>
       <c r="E15">
@@ -12043,13 +12085,13 @@
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="180" t="s">
+      <c r="B16" s="111" t="s">
         <v>149</v>
       </c>
-      <c r="C16" s="179">
+      <c r="C16">
         <v>1</v>
       </c>
-      <c r="D16" s="180" t="s">
+      <c r="D16" s="111" t="s">
         <v>174</v>
       </c>
       <c r="E16">
@@ -12057,13 +12099,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="180" t="s">
+      <c r="B17" s="111" t="s">
         <v>150</v>
       </c>
-      <c r="C17" s="179">
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="D17" s="180" t="s">
+      <c r="D17" s="111" t="s">
         <v>175</v>
       </c>
       <c r="E17">
@@ -12071,13 +12113,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="180" t="s">
+      <c r="B18" s="111" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="179">
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="180" t="s">
+      <c r="D18" s="111" t="s">
         <v>176</v>
       </c>
       <c r="E18">
@@ -12085,13 +12127,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="180" t="s">
+      <c r="B19" s="111" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="179">
+      <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" s="180" t="s">
+      <c r="D19" s="111" t="s">
         <v>177</v>
       </c>
       <c r="E19">
@@ -12099,13 +12141,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="180" t="s">
+      <c r="B20" s="111" t="s">
         <v>153</v>
       </c>
-      <c r="C20" s="179">
+      <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="180" t="s">
+      <c r="D20" s="111" t="s">
         <v>178</v>
       </c>
       <c r="E20">
@@ -12113,13 +12155,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B21" s="180" t="s">
+      <c r="B21" s="111" t="s">
         <v>154</v>
       </c>
-      <c r="C21" s="179">
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21" s="180" t="s">
+      <c r="D21" s="111" t="s">
         <v>179</v>
       </c>
       <c r="E21">
@@ -12127,13 +12169,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B22" s="180" t="s">
+      <c r="B22" s="111" t="s">
         <v>155</v>
       </c>
-      <c r="C22" s="179">
+      <c r="C22">
         <v>1</v>
       </c>
-      <c r="D22" s="180" t="s">
+      <c r="D22" s="111" t="s">
         <v>180</v>
       </c>
       <c r="E22">
@@ -12141,13 +12183,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B23" s="180" t="s">
+      <c r="B23" s="111" t="s">
         <v>156</v>
       </c>
-      <c r="C23" s="179">
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="180" t="s">
+      <c r="D23" s="111" t="s">
         <v>181</v>
       </c>
       <c r="E23">
@@ -12155,13 +12197,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="180" t="s">
+      <c r="B24" s="111" t="s">
         <v>157</v>
       </c>
-      <c r="C24" s="179">
+      <c r="C24">
         <v>1</v>
       </c>
-      <c r="D24" s="180" t="s">
+      <c r="D24" s="111" t="s">
         <v>182</v>
       </c>
       <c r="E24">
@@ -12169,13 +12211,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B25" s="180" t="s">
+      <c r="B25" s="111" t="s">
         <v>158</v>
       </c>
-      <c r="C25" s="179">
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="D25" s="180" t="s">
+      <c r="D25" s="111" t="s">
         <v>183</v>
       </c>
       <c r="E25">
@@ -12183,13 +12225,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B26" s="180" t="s">
+      <c r="B26" s="111" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="179">
+      <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="180" t="s">
+      <c r="D26" s="111" t="s">
         <v>184</v>
       </c>
       <c r="E26">
@@ -12197,13 +12239,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="180" t="s">
+      <c r="B27" s="111" t="s">
         <v>160</v>
       </c>
-      <c r="C27" s="179">
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="180" t="s">
+      <c r="D27" s="111" t="s">
         <v>185</v>
       </c>
       <c r="E27">
@@ -12212,7 +12254,7 @@
     </row>
     <row r="29" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:5" ht="29" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="182"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="68" t="s">
         <v>135</v>
       </c>
@@ -12496,22 +12538,22 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="173">
+      <c r="A56" s="158">
         <v>26</v>
       </c>
       <c r="B56" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="C56" s="176">
+      <c r="C56" s="147">
         <v>11</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="173"/>
+      <c r="A57" s="158"/>
       <c r="B57" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="C57" s="176"/>
+      <c r="C57" s="147"/>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="70">
@@ -12784,7 +12826,7 @@
       <c r="B82" s="63" t="s">
         <v>238</v>
       </c>
-      <c r="C82" s="178">
+      <c r="C82" s="110">
         <v>9</v>
       </c>
     </row>
@@ -12795,4 +12837,288 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D9EAE19-4A4F-BF4E-96C5-033EF220FF89}">
+  <dimension ref="B1:C34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="30.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="182" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="80">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C4" s="80">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="80">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="B6" s="57" t="s">
+        <v>201</v>
+      </c>
+      <c r="C6" s="80">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="80">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="B8" s="57" t="s">
+        <v>241</v>
+      </c>
+      <c r="C8" s="80">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="B9" s="57" t="s">
+        <v>242</v>
+      </c>
+      <c r="C9" s="80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="57" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="57" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="80">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13" s="57" t="s">
+        <v>244</v>
+      </c>
+      <c r="C13" s="80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="B14" s="57" t="s">
+        <v>245</v>
+      </c>
+      <c r="C14" s="80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="C15" s="80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="57" t="s">
+        <v>187</v>
+      </c>
+      <c r="C16" s="80">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="C17" s="80">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18" s="57" t="s">
+        <v>246</v>
+      </c>
+      <c r="C18" s="80">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19" s="57" t="s">
+        <v>247</v>
+      </c>
+      <c r="C19" s="80">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20" s="57" t="s">
+        <v>204</v>
+      </c>
+      <c r="C20" s="80">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21" s="57" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22" s="57" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23" s="57" t="s">
+        <v>248</v>
+      </c>
+      <c r="C23" s="80">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24" s="57" t="s">
+        <v>208</v>
+      </c>
+      <c r="C24" s="80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="C25" s="80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" ht="28" x14ac:dyDescent="0.2">
+      <c r="B26" s="57" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27" s="57" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28" s="57" t="s">
+        <v>251</v>
+      </c>
+      <c r="C28" s="80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="C29" s="80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30" s="57" t="s">
+        <v>228</v>
+      </c>
+      <c r="C30" s="80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31" s="57" t="s">
+        <v>252</v>
+      </c>
+      <c r="C31" s="80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32" s="80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" s="80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="63" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="110">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>